--- a/0_Data/9_Supplementary Information/Education.Codes.All_mapped.xlsx
+++ b/0_Data/9_Supplementary Information/Education.Codes.All_mapped.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="1202">
   <si>
     <t>Country_long</t>
   </si>
@@ -3666,10 +3666,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3966,10 +3967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1015"/>
+  <dimension ref="A1:D1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A677" workbookViewId="0">
-      <selection activeCell="D708" sqref="D708"/>
+    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="B475" sqref="B475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10600,16 +10601,16 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>689</v>
-      </c>
-      <c r="B475" t="s">
-        <v>5</v>
+        <v>676</v>
+      </c>
+      <c r="B475" s="3">
+        <v>14</v>
       </c>
       <c r="C475" t="s">
-        <v>690</v>
+        <v>220</v>
       </c>
       <c r="D475">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.35">
@@ -10617,10 +10618,10 @@
         <v>689</v>
       </c>
       <c r="B476" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C476" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D476">
         <v>1</v>
@@ -10631,10 +10632,10 @@
         <v>689</v>
       </c>
       <c r="B477" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C477" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D477">
         <v>1</v>
@@ -10645,10 +10646,10 @@
         <v>689</v>
       </c>
       <c r="B478" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C478" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D478">
         <v>1</v>
@@ -10659,13 +10660,13 @@
         <v>689</v>
       </c>
       <c r="B479" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C479" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D479">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.35">
@@ -10673,13 +10674,13 @@
         <v>689</v>
       </c>
       <c r="B480" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C480" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D480">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.35">
@@ -10687,13 +10688,13 @@
         <v>689</v>
       </c>
       <c r="B481" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C481" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D481">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.35">
@@ -10701,10 +10702,10 @@
         <v>689</v>
       </c>
       <c r="B482" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C482" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D482">
         <v>2</v>
@@ -10715,13 +10716,13 @@
         <v>689</v>
       </c>
       <c r="B483" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C483" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D483">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.35">
@@ -10729,13 +10730,13 @@
         <v>689</v>
       </c>
       <c r="B484" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C484" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D484">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.35">
@@ -10743,10 +10744,10 @@
         <v>689</v>
       </c>
       <c r="B485" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C485" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D485">
         <v>3</v>
@@ -10757,10 +10758,10 @@
         <v>689</v>
       </c>
       <c r="B486" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C486" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D486">
         <v>3</v>
@@ -10771,13 +10772,13 @@
         <v>689</v>
       </c>
       <c r="B487" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C487" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D487">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
@@ -10785,10 +10786,10 @@
         <v>689</v>
       </c>
       <c r="B488" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C488" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D488">
         <v>4</v>
@@ -10799,13 +10800,13 @@
         <v>689</v>
       </c>
       <c r="B489" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C489" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D489">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.35">
@@ -10813,13 +10814,13 @@
         <v>689</v>
       </c>
       <c r="B490" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C490" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D490">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.35">
@@ -10827,13 +10828,13 @@
         <v>689</v>
       </c>
       <c r="B491" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C491" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D491">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.35">
@@ -10841,10 +10842,10 @@
         <v>689</v>
       </c>
       <c r="B492" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C492" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D492">
         <v>7</v>
@@ -10855,13 +10856,13 @@
         <v>689</v>
       </c>
       <c r="B493" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C493" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D493">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.35">
@@ -10869,10 +10870,10 @@
         <v>689</v>
       </c>
       <c r="B494" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="C494" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D494">
         <v>8</v>
@@ -10882,22 +10883,22 @@
       <c r="A495" t="s">
         <v>689</v>
       </c>
+      <c r="B495" t="s">
+        <v>200</v>
+      </c>
+      <c r="C495" t="s">
+        <v>709</v>
+      </c>
       <c r="D495">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>710</v>
-      </c>
-      <c r="B496" t="s">
-        <v>5</v>
-      </c>
-      <c r="C496" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="D496">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.35">
@@ -10905,13 +10906,13 @@
         <v>710</v>
       </c>
       <c r="B497" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C497" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D497">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.35">
@@ -10919,13 +10920,13 @@
         <v>710</v>
       </c>
       <c r="B498" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C498" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D498">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.35">
@@ -10933,13 +10934,13 @@
         <v>710</v>
       </c>
       <c r="B499" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C499" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.35">
@@ -10947,13 +10948,13 @@
         <v>710</v>
       </c>
       <c r="B500" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C500" t="s">
-        <v>58</v>
+        <v>714</v>
       </c>
       <c r="D500">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.35">
@@ -10961,13 +10962,13 @@
         <v>710</v>
       </c>
       <c r="B501" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C501" t="s">
-        <v>715</v>
+        <v>58</v>
       </c>
       <c r="D501">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.35">
@@ -10975,13 +10976,13 @@
         <v>710</v>
       </c>
       <c r="B502" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C502" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D502">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.35">
@@ -10989,13 +10990,13 @@
         <v>710</v>
       </c>
       <c r="B503" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C503" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D503">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.35">
@@ -11003,13 +11004,13 @@
         <v>710</v>
       </c>
       <c r="B504" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C504" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D504">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.35">
@@ -11017,10 +11018,10 @@
         <v>710</v>
       </c>
       <c r="B505" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C505" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D505">
         <v>8</v>
@@ -11031,13 +11032,13 @@
         <v>710</v>
       </c>
       <c r="B506" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C506" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D506">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.35">
@@ -11045,13 +11046,13 @@
         <v>710</v>
       </c>
       <c r="B507" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C507" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D507">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.35">
@@ -11059,10 +11060,10 @@
         <v>710</v>
       </c>
       <c r="B508" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C508" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D508">
         <v>1</v>
@@ -11073,13 +11074,13 @@
         <v>710</v>
       </c>
       <c r="B509" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C509" t="s">
-        <v>80</v>
+        <v>722</v>
       </c>
       <c r="D509">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.35">
@@ -11087,13 +11088,13 @@
         <v>710</v>
       </c>
       <c r="B510" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C510" t="s">
-        <v>723</v>
+        <v>80</v>
       </c>
       <c r="D510">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.35">
@@ -11101,13 +11102,13 @@
         <v>710</v>
       </c>
       <c r="B511" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C511" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D511">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.35">
@@ -11115,27 +11116,27 @@
         <v>710</v>
       </c>
       <c r="B512" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C512" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D512">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="B513" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="C513" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D513">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.35">
@@ -11143,13 +11144,13 @@
         <v>726</v>
       </c>
       <c r="B514" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C514" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D514">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.35">
@@ -11157,7 +11158,7 @@
         <v>726</v>
       </c>
       <c r="B515" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C515" t="s">
         <v>728</v>
@@ -11171,13 +11172,13 @@
         <v>726</v>
       </c>
       <c r="B516" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C516" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D516">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.35">
@@ -11185,13 +11186,13 @@
         <v>726</v>
       </c>
       <c r="B517" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C517" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D517">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.35">
@@ -11199,13 +11200,13 @@
         <v>726</v>
       </c>
       <c r="B518" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C518" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D518">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.35">
@@ -11213,13 +11214,13 @@
         <v>726</v>
       </c>
       <c r="B519" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C519" t="s">
-        <v>218</v>
+        <v>731</v>
       </c>
       <c r="D519">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.35">
@@ -11227,13 +11228,13 @@
         <v>726</v>
       </c>
       <c r="B520" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C520" t="s">
-        <v>732</v>
+        <v>218</v>
       </c>
       <c r="D520">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.35">
@@ -11241,10 +11242,10 @@
         <v>726</v>
       </c>
       <c r="B521" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C521" t="s">
-        <v>220</v>
+        <v>732</v>
       </c>
       <c r="D521">
         <v>9</v>
@@ -11252,30 +11253,30 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B522" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C522" t="s">
-        <v>734</v>
+        <v>220</v>
       </c>
       <c r="D522">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
-        <v>733</v>
-      </c>
-      <c r="B523" t="s">
-        <v>7</v>
+        <v>726</v>
+      </c>
+      <c r="B523" s="3">
+        <v>99</v>
       </c>
       <c r="C523" t="s">
-        <v>722</v>
+        <v>220</v>
       </c>
       <c r="D523">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.35">
@@ -11283,13 +11284,13 @@
         <v>733</v>
       </c>
       <c r="B524" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C524" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D524">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.35">
@@ -11297,13 +11298,13 @@
         <v>733</v>
       </c>
       <c r="B525" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C525" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="D525">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.35">
@@ -11311,13 +11312,13 @@
         <v>733</v>
       </c>
       <c r="B526" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C526" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D526">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.35">
@@ -11325,13 +11326,13 @@
         <v>733</v>
       </c>
       <c r="B527" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C527" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D527">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.35">
@@ -11339,13 +11340,13 @@
         <v>733</v>
       </c>
       <c r="B528" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C528" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D528">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.35">
@@ -11353,13 +11354,13 @@
         <v>733</v>
       </c>
       <c r="B529" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C529" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="D529">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.35">
@@ -11367,41 +11368,41 @@
         <v>733</v>
       </c>
       <c r="B530" t="s">
-        <v>640</v>
+        <v>17</v>
       </c>
       <c r="C530" t="s">
-        <v>80</v>
+        <v>739</v>
       </c>
       <c r="D530">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B531" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C531" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D531">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B532" t="s">
-        <v>47</v>
+        <v>640</v>
       </c>
       <c r="C532" t="s">
-        <v>722</v>
+        <v>80</v>
       </c>
       <c r="D532">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.35">
@@ -11409,13 +11410,13 @@
         <v>741</v>
       </c>
       <c r="B533" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C533" t="s">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c r="D533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.35">
@@ -11423,7 +11424,7 @@
         <v>741</v>
       </c>
       <c r="B534" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C534" t="s">
         <v>722</v>
@@ -11437,7 +11438,7 @@
         <v>741</v>
       </c>
       <c r="B535" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C535" t="s">
         <v>722</v>
@@ -11451,7 +11452,7 @@
         <v>741</v>
       </c>
       <c r="B536" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C536" t="s">
         <v>722</v>
@@ -11465,7 +11466,7 @@
         <v>741</v>
       </c>
       <c r="B537" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C537" t="s">
         <v>722</v>
@@ -11479,13 +11480,13 @@
         <v>741</v>
       </c>
       <c r="B538" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C538" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="D538">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.35">
@@ -11493,13 +11494,13 @@
         <v>741</v>
       </c>
       <c r="B539" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C539" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="D539">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.35">
@@ -11507,7 +11508,7 @@
         <v>741</v>
       </c>
       <c r="B540" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C540" t="s">
         <v>743</v>
@@ -11521,13 +11522,13 @@
         <v>741</v>
       </c>
       <c r="B541" t="s">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="C541" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D541">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.35">
@@ -11535,13 +11536,13 @@
         <v>741</v>
       </c>
       <c r="B542" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C542" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D542">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.35">
@@ -11549,7 +11550,7 @@
         <v>741</v>
       </c>
       <c r="B543" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="C543" t="s">
         <v>744</v>
@@ -11563,13 +11564,13 @@
         <v>741</v>
       </c>
       <c r="B544" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C544" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D544">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.35">
@@ -11577,13 +11578,13 @@
         <v>741</v>
       </c>
       <c r="B545" t="s">
-        <v>451</v>
+        <v>97</v>
       </c>
       <c r="C545" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D545">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.35">
@@ -11591,7 +11592,7 @@
         <v>741</v>
       </c>
       <c r="B546" t="s">
-        <v>453</v>
+        <v>99</v>
       </c>
       <c r="C546" t="s">
         <v>745</v>
@@ -11605,7 +11606,7 @@
         <v>741</v>
       </c>
       <c r="B547" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C547" t="s">
         <v>745</v>
@@ -11619,7 +11620,7 @@
         <v>741</v>
       </c>
       <c r="B548" t="s">
-        <v>623</v>
+        <v>453</v>
       </c>
       <c r="C548" t="s">
         <v>745</v>
@@ -11633,49 +11634,49 @@
         <v>741</v>
       </c>
       <c r="B549" t="s">
-        <v>625</v>
+        <v>455</v>
       </c>
       <c r="C549" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D549">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>741</v>
       </c>
+      <c r="B550" t="s">
+        <v>623</v>
+      </c>
+      <c r="C550" t="s">
+        <v>745</v>
+      </c>
       <c r="D550">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B551" t="s">
-        <v>5</v>
+        <v>625</v>
       </c>
       <c r="C551" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D551">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
-        <v>747</v>
-      </c>
-      <c r="B552" t="s">
-        <v>7</v>
-      </c>
-      <c r="C552" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="D552">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.35">
@@ -11683,13 +11684,13 @@
         <v>747</v>
       </c>
       <c r="B553" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C553" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.35">
@@ -11697,13 +11698,13 @@
         <v>747</v>
       </c>
       <c r="B554" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C554" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D554">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.35">
@@ -11711,13 +11712,13 @@
         <v>747</v>
       </c>
       <c r="B555" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C555" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D555">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.35">
@@ -11725,13 +11726,13 @@
         <v>747</v>
       </c>
       <c r="B556" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C556" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D556">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.35">
@@ -11739,13 +11740,13 @@
         <v>747</v>
       </c>
       <c r="B557" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C557" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D557">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.35">
@@ -11753,13 +11754,13 @@
         <v>747</v>
       </c>
       <c r="B558" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C558" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D558">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.35">
@@ -11767,41 +11768,41 @@
         <v>747</v>
       </c>
       <c r="B559" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C559" t="s">
-        <v>218</v>
+        <v>754</v>
       </c>
       <c r="D559">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="B560" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C560" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D560">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="B561" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C561" t="s">
-        <v>758</v>
+        <v>218</v>
       </c>
       <c r="D561">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.35">
@@ -11809,13 +11810,13 @@
         <v>756</v>
       </c>
       <c r="B562" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C562" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D562">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.35">
@@ -11823,13 +11824,13 @@
         <v>756</v>
       </c>
       <c r="B563" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C563" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D563">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.35">
@@ -11837,13 +11838,13 @@
         <v>756</v>
       </c>
       <c r="B564" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C564" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D564">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.35">
@@ -11851,13 +11852,13 @@
         <v>756</v>
       </c>
       <c r="B565" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C565" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D565">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
@@ -11865,13 +11866,13 @@
         <v>756</v>
       </c>
       <c r="B566" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C566" t="s">
-        <v>663</v>
+        <v>761</v>
       </c>
       <c r="D566">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.35">
@@ -11879,52 +11880,52 @@
         <v>756</v>
       </c>
       <c r="B567" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C567" t="s">
-        <v>713</v>
+        <v>762</v>
       </c>
       <c r="D567">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>756</v>
       </c>
+      <c r="B568" t="s">
+        <v>15</v>
+      </c>
       <c r="C568" t="s">
-        <v>763</v>
+        <v>663</v>
       </c>
       <c r="D568">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="B569" t="s">
-        <v>765</v>
+        <v>17</v>
       </c>
       <c r="C569" t="s">
-        <v>766</v>
+        <v>713</v>
       </c>
       <c r="D569">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
-        <v>764</v>
-      </c>
-      <c r="B570" t="s">
-        <v>5</v>
+        <v>756</v>
       </c>
       <c r="C570" t="s">
-        <v>82</v>
+        <v>763</v>
       </c>
       <c r="D570">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.35">
@@ -11932,13 +11933,13 @@
         <v>764</v>
       </c>
       <c r="B571" t="s">
-        <v>7</v>
+        <v>765</v>
       </c>
       <c r="C571" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D571">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.35">
@@ -11946,13 +11947,13 @@
         <v>764</v>
       </c>
       <c r="B572" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C572" t="s">
-        <v>768</v>
+        <v>82</v>
       </c>
       <c r="D572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.35">
@@ -11960,13 +11961,13 @@
         <v>764</v>
       </c>
       <c r="B573" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C573" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D573">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.35">
@@ -11974,13 +11975,13 @@
         <v>764</v>
       </c>
       <c r="B574" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C574" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D574">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.35">
@@ -11988,13 +11989,13 @@
         <v>764</v>
       </c>
       <c r="B575" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C575" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D575">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.35">
@@ -12002,38 +12003,38 @@
         <v>764</v>
       </c>
       <c r="B576" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C576" t="s">
-        <v>90</v>
+        <v>770</v>
       </c>
       <c r="D576">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B577" t="s">
-        <v>773</v>
+        <v>29</v>
       </c>
       <c r="C577" t="s">
-        <v>742</v>
+        <v>771</v>
       </c>
       <c r="D577">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="B578" t="s">
-        <v>774</v>
+        <v>34</v>
       </c>
       <c r="C578" t="s">
-        <v>775</v>
+        <v>90</v>
       </c>
       <c r="D578">
         <v>0</v>
@@ -12044,10 +12045,10 @@
         <v>772</v>
       </c>
       <c r="B579" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C579" t="s">
-        <v>777</v>
+        <v>742</v>
       </c>
       <c r="D579">
         <v>0</v>
@@ -12058,13 +12059,13 @@
         <v>772</v>
       </c>
       <c r="B580" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C580" t="s">
-        <v>722</v>
+        <v>775</v>
       </c>
       <c r="D580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.35">
@@ -12072,13 +12073,13 @@
         <v>772</v>
       </c>
       <c r="B581" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C581" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.35">
@@ -12086,13 +12087,13 @@
         <v>772</v>
       </c>
       <c r="B582" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C582" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="D582">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.35">
@@ -12100,13 +12101,13 @@
         <v>772</v>
       </c>
       <c r="B583" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C583" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D583">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.35">
@@ -12114,13 +12115,13 @@
         <v>772</v>
       </c>
       <c r="B584" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C584" t="s">
-        <v>785</v>
+        <v>736</v>
       </c>
       <c r="D584">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.35">
@@ -12128,13 +12129,13 @@
         <v>772</v>
       </c>
       <c r="B585" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C585" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="D585">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.35">
@@ -12142,13 +12143,13 @@
         <v>772</v>
       </c>
       <c r="B586" t="s">
-        <v>45</v>
+        <v>784</v>
       </c>
       <c r="C586" t="s">
-        <v>215</v>
+        <v>785</v>
       </c>
       <c r="D586">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.35">
@@ -12156,41 +12157,41 @@
         <v>772</v>
       </c>
       <c r="B587" t="s">
-        <v>47</v>
+        <v>786</v>
       </c>
       <c r="C587" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D587">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="B588" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C588" t="s">
-        <v>790</v>
+        <v>215</v>
       </c>
       <c r="D588">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
-        <v>789</v>
+        <v>772</v>
       </c>
       <c r="B589" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C589" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="D589">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.35">
@@ -12198,13 +12199,13 @@
         <v>789</v>
       </c>
       <c r="B590" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C590" t="s">
-        <v>83</v>
+        <v>790</v>
       </c>
       <c r="D590">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.35">
@@ -12212,13 +12213,13 @@
         <v>789</v>
       </c>
       <c r="B591" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C591" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.35">
@@ -12226,13 +12227,13 @@
         <v>789</v>
       </c>
       <c r="B592" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C592" t="s">
-        <v>793</v>
+        <v>83</v>
       </c>
       <c r="D592">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.35">
@@ -12240,13 +12241,13 @@
         <v>789</v>
       </c>
       <c r="B593" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C593" t="s">
-        <v>89</v>
+        <v>792</v>
       </c>
       <c r="D593">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.35">
@@ -12254,41 +12255,41 @@
         <v>789</v>
       </c>
       <c r="B594" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C594" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D594">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B595" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="C595" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D595">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B596" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C596" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D596">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.35">
@@ -12296,13 +12297,13 @@
         <v>795</v>
       </c>
       <c r="B597" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C597" t="s">
-        <v>797</v>
+        <v>67</v>
       </c>
       <c r="D597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.35">
@@ -12310,10 +12311,10 @@
         <v>795</v>
       </c>
       <c r="B598" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C598" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D598">
         <v>1</v>
@@ -12324,10 +12325,10 @@
         <v>795</v>
       </c>
       <c r="B599" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C599" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D599">
         <v>1</v>
@@ -12338,13 +12339,13 @@
         <v>795</v>
       </c>
       <c r="B600" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C600" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D600">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.35">
@@ -12352,13 +12353,13 @@
         <v>795</v>
       </c>
       <c r="B601" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C601" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D601">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.35">
@@ -12366,10 +12367,10 @@
         <v>795</v>
       </c>
       <c r="B602" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C602" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D602">
         <v>2</v>
@@ -12380,10 +12381,10 @@
         <v>795</v>
       </c>
       <c r="B603" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C603" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D603">
         <v>2</v>
@@ -12394,13 +12395,13 @@
         <v>795</v>
       </c>
       <c r="B604" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C604" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D604">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.35">
@@ -12408,13 +12409,13 @@
         <v>795</v>
       </c>
       <c r="B605" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C605" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D605">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.35">
@@ -12422,10 +12423,10 @@
         <v>795</v>
       </c>
       <c r="B606" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C606" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D606">
         <v>3</v>
@@ -12436,13 +12437,13 @@
         <v>795</v>
       </c>
       <c r="B607" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C607" t="s">
-        <v>717</v>
+        <v>805</v>
       </c>
       <c r="D607">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.35">
@@ -12450,13 +12451,13 @@
         <v>795</v>
       </c>
       <c r="B608" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C608" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D608">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.35">
@@ -12464,13 +12465,13 @@
         <v>795</v>
       </c>
       <c r="B609" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C609" t="s">
-        <v>808</v>
+        <v>717</v>
       </c>
       <c r="D609">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.35">
@@ -12478,13 +12479,13 @@
         <v>795</v>
       </c>
       <c r="B610" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C610" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D610">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.35">
@@ -12492,10 +12493,10 @@
         <v>795</v>
       </c>
       <c r="B611" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C611" t="s">
-        <v>718</v>
+        <v>808</v>
       </c>
       <c r="D611">
         <v>6</v>
@@ -12506,13 +12507,13 @@
         <v>795</v>
       </c>
       <c r="B612" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C612" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D612">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.35">
@@ -12520,13 +12521,13 @@
         <v>795</v>
       </c>
       <c r="B613" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C613" t="s">
-        <v>811</v>
+        <v>718</v>
       </c>
       <c r="D613">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.35">
@@ -12534,13 +12535,13 @@
         <v>795</v>
       </c>
       <c r="B614" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C614" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D614">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.35">
@@ -12548,41 +12549,41 @@
         <v>795</v>
       </c>
       <c r="B615" t="s">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="C615" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D615">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B616" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C616" t="s">
-        <v>525</v>
+        <v>812</v>
       </c>
       <c r="D616">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B617" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="C617" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D617">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.35">
@@ -12590,13 +12591,13 @@
         <v>814</v>
       </c>
       <c r="B618" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C618" t="s">
-        <v>816</v>
+        <v>525</v>
       </c>
       <c r="D618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.35">
@@ -12604,13 +12605,13 @@
         <v>814</v>
       </c>
       <c r="B619" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C619" t="s">
-        <v>533</v>
+        <v>815</v>
       </c>
       <c r="D619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.35">
@@ -12618,13 +12619,13 @@
         <v>814</v>
       </c>
       <c r="B620" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C620" t="s">
-        <v>534</v>
+        <v>816</v>
       </c>
       <c r="D620">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.35">
@@ -12632,13 +12633,13 @@
         <v>814</v>
       </c>
       <c r="B621" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C621" t="s">
-        <v>817</v>
+        <v>533</v>
       </c>
       <c r="D621">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.35">
@@ -12646,13 +12647,13 @@
         <v>814</v>
       </c>
       <c r="B622" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C622" t="s">
-        <v>818</v>
+        <v>534</v>
       </c>
       <c r="D622">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.35">
@@ -12660,13 +12661,13 @@
         <v>814</v>
       </c>
       <c r="B623" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C623" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D623">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.35">
@@ -12674,13 +12675,13 @@
         <v>814</v>
       </c>
       <c r="B624" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C624" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D624">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="625" spans="1:4" x14ac:dyDescent="0.35">
@@ -12688,13 +12689,13 @@
         <v>814</v>
       </c>
       <c r="B625" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C625" t="s">
-        <v>522</v>
+        <v>819</v>
       </c>
       <c r="D625">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="626" spans="1:4" x14ac:dyDescent="0.35">
@@ -12702,13 +12703,13 @@
         <v>814</v>
       </c>
       <c r="B626" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C626" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D626">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="627" spans="1:4" x14ac:dyDescent="0.35">
@@ -12716,13 +12717,13 @@
         <v>814</v>
       </c>
       <c r="B627" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C627" t="s">
-        <v>670</v>
+        <v>522</v>
       </c>
       <c r="D627">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.35">
@@ -12730,13 +12731,13 @@
         <v>814</v>
       </c>
       <c r="B628" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C628" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D628">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="629" spans="1:4" x14ac:dyDescent="0.35">
@@ -12744,13 +12745,13 @@
         <v>814</v>
       </c>
       <c r="B629" t="s">
-        <v>642</v>
+        <v>47</v>
       </c>
       <c r="C629" t="s">
-        <v>823</v>
+        <v>670</v>
       </c>
       <c r="D629">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.35">
@@ -12758,41 +12759,41 @@
         <v>814</v>
       </c>
       <c r="B630" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C630" t="s">
-        <v>510</v>
+        <v>822</v>
       </c>
       <c r="D630">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B631" t="s">
-        <v>5</v>
+        <v>642</v>
       </c>
       <c r="C631" t="s">
-        <v>82</v>
+        <v>823</v>
       </c>
       <c r="D631">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="632" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B632" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C632" t="s">
-        <v>83</v>
+        <v>510</v>
       </c>
       <c r="D632">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="633" spans="1:4" x14ac:dyDescent="0.35">
@@ -12800,13 +12801,13 @@
         <v>824</v>
       </c>
       <c r="B633" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C633" t="s">
-        <v>512</v>
+        <v>82</v>
       </c>
       <c r="D633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:4" x14ac:dyDescent="0.35">
@@ -12814,13 +12815,13 @@
         <v>824</v>
       </c>
       <c r="B634" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C634" t="s">
-        <v>513</v>
+        <v>83</v>
       </c>
       <c r="D634">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:4" x14ac:dyDescent="0.35">
@@ -12828,13 +12829,13 @@
         <v>824</v>
       </c>
       <c r="B635" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C635" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D635">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:4" x14ac:dyDescent="0.35">
@@ -12842,13 +12843,13 @@
         <v>824</v>
       </c>
       <c r="B636" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C636" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D636">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:4" x14ac:dyDescent="0.35">
@@ -12856,13 +12857,13 @@
         <v>824</v>
       </c>
       <c r="B637" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C637" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D637">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="638" spans="1:4" x14ac:dyDescent="0.35">
@@ -12870,13 +12871,13 @@
         <v>824</v>
       </c>
       <c r="B638" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C638" t="s">
-        <v>89</v>
+        <v>515</v>
       </c>
       <c r="D638">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="639" spans="1:4" x14ac:dyDescent="0.35">
@@ -12884,41 +12885,41 @@
         <v>824</v>
       </c>
       <c r="B639" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C639" t="s">
-        <v>90</v>
+        <v>516</v>
       </c>
       <c r="D639">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B640" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C640" t="s">
-        <v>826</v>
+        <v>89</v>
       </c>
       <c r="D640">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="641" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B641" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C641" t="s">
-        <v>827</v>
+        <v>90</v>
       </c>
       <c r="D641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:4" x14ac:dyDescent="0.35">
@@ -12926,13 +12927,13 @@
         <v>825</v>
       </c>
       <c r="B642" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C642" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:4" x14ac:dyDescent="0.35">
@@ -12940,13 +12941,13 @@
         <v>825</v>
       </c>
       <c r="B643" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C643" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D643">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:4" x14ac:dyDescent="0.35">
@@ -12954,13 +12955,13 @@
         <v>825</v>
       </c>
       <c r="B644" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C644" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D644">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:4" x14ac:dyDescent="0.35">
@@ -12968,13 +12969,13 @@
         <v>825</v>
       </c>
       <c r="B645" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C645" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D645">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:4" x14ac:dyDescent="0.35">
@@ -12982,13 +12983,13 @@
         <v>825</v>
       </c>
       <c r="B646" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C646" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D646">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="647" spans="1:4" x14ac:dyDescent="0.35">
@@ -12996,13 +12997,13 @@
         <v>825</v>
       </c>
       <c r="B647" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C647" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D647">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="648" spans="1:4" x14ac:dyDescent="0.35">
@@ -13010,13 +13011,13 @@
         <v>825</v>
       </c>
       <c r="B648" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C648" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D648">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.35">
@@ -13024,13 +13025,13 @@
         <v>825</v>
       </c>
       <c r="B649" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C649" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D649">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.35">
@@ -13038,13 +13039,13 @@
         <v>825</v>
       </c>
       <c r="B650" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C650" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D650">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.35">
@@ -13052,13 +13053,13 @@
         <v>825</v>
       </c>
       <c r="B651" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="C651" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D651">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.35">
@@ -13066,35 +13067,41 @@
         <v>825</v>
       </c>
       <c r="B652" t="s">
+        <v>51</v>
+      </c>
+      <c r="C652" t="s">
+        <v>836</v>
+      </c>
+      <c r="D652">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A653" t="s">
+        <v>825</v>
+      </c>
+      <c r="B653" t="s">
+        <v>105</v>
+      </c>
+      <c r="C653" t="s">
+        <v>837</v>
+      </c>
+      <c r="D653">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A654" t="s">
+        <v>825</v>
+      </c>
+      <c r="B654" t="s">
         <v>107</v>
       </c>
-      <c r="C652" t="s">
+      <c r="C654" t="s">
         <v>838</v>
       </c>
-      <c r="D652">
+      <c r="D654">
         <v>4</v>
-      </c>
-    </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A653" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B653" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D653">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A654" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B654" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D654">
-        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.35">
@@ -13102,10 +13109,10 @@
         <v>839</v>
       </c>
       <c r="B655" s="1" t="s">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="D655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.35">
@@ -13113,10 +13120,10 @@
         <v>839</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>457</v>
+        <v>63</v>
       </c>
       <c r="D656">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.35">
@@ -13124,10 +13131,10 @@
         <v>839</v>
       </c>
       <c r="B657" s="1" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="D657">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.35">
@@ -13135,10 +13142,10 @@
         <v>839</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>101</v>
+        <v>457</v>
       </c>
       <c r="D658">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.35">
@@ -13146,7 +13153,7 @@
         <v>839</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="D659">
         <v>3</v>
@@ -13157,7 +13164,7 @@
         <v>839</v>
       </c>
       <c r="B660" s="1" t="s">
-        <v>463</v>
+        <v>101</v>
       </c>
       <c r="D660">
         <v>3</v>
@@ -13168,7 +13175,7 @@
         <v>839</v>
       </c>
       <c r="B661" s="1" t="s">
-        <v>465</v>
+        <v>103</v>
       </c>
       <c r="D661">
         <v>3</v>
@@ -13179,7 +13186,7 @@
         <v>839</v>
       </c>
       <c r="B662" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D662">
         <v>3</v>
@@ -13190,7 +13197,7 @@
         <v>839</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D663">
         <v>3</v>
@@ -13201,7 +13208,7 @@
         <v>839</v>
       </c>
       <c r="B664" s="1" t="s">
-        <v>840</v>
+        <v>467</v>
       </c>
       <c r="D664">
         <v>3</v>
@@ -13212,7 +13219,7 @@
         <v>839</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>163</v>
+        <v>469</v>
       </c>
       <c r="D665">
         <v>3</v>
@@ -13223,7 +13230,7 @@
         <v>839</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>105</v>
+        <v>840</v>
       </c>
       <c r="D666">
         <v>3</v>
@@ -13234,7 +13241,7 @@
         <v>839</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="D667">
         <v>3</v>
@@ -13245,7 +13252,7 @@
         <v>839</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>475</v>
+        <v>105</v>
       </c>
       <c r="D668">
         <v>3</v>
@@ -13256,7 +13263,7 @@
         <v>839</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>477</v>
+        <v>107</v>
       </c>
       <c r="D669">
         <v>3</v>
@@ -13267,7 +13274,7 @@
         <v>839</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>841</v>
+        <v>475</v>
       </c>
       <c r="D670">
         <v>3</v>
@@ -13278,7 +13285,7 @@
         <v>839</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>842</v>
+        <v>477</v>
       </c>
       <c r="D671">
         <v>3</v>
@@ -13289,7 +13296,7 @@
         <v>839</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D672">
         <v>3</v>
@@ -13300,7 +13307,7 @@
         <v>839</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D673">
         <v>3</v>
@@ -13311,7 +13318,7 @@
         <v>839</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>479</v>
+        <v>843</v>
       </c>
       <c r="D674">
         <v>3</v>
@@ -13322,10 +13329,10 @@
         <v>839</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>165</v>
+        <v>844</v>
       </c>
       <c r="D675">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.35">
@@ -13333,10 +13340,10 @@
         <v>839</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>109</v>
+        <v>479</v>
       </c>
       <c r="D676">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.35">
@@ -13344,7 +13351,7 @@
         <v>839</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>485</v>
+        <v>165</v>
       </c>
       <c r="D677">
         <v>4</v>
@@ -13355,7 +13362,7 @@
         <v>839</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>487</v>
+        <v>109</v>
       </c>
       <c r="D678">
         <v>4</v>
@@ -13366,7 +13373,7 @@
         <v>839</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D679">
         <v>4</v>
@@ -13377,7 +13384,7 @@
         <v>839</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D680">
         <v>4</v>
@@ -13388,10 +13395,10 @@
         <v>839</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>113</v>
+        <v>489</v>
       </c>
       <c r="D681">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.35">
@@ -13399,10 +13406,10 @@
         <v>839</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>115</v>
+        <v>493</v>
       </c>
       <c r="D682">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.35">
@@ -13410,7 +13417,7 @@
         <v>839</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D683">
         <v>6</v>
@@ -13421,7 +13428,7 @@
         <v>839</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D684">
         <v>6</v>
@@ -13432,7 +13439,7 @@
         <v>839</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D685">
         <v>6</v>
@@ -13443,7 +13450,7 @@
         <v>839</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>845</v>
+        <v>119</v>
       </c>
       <c r="D686">
         <v>6</v>
@@ -13454,7 +13461,7 @@
         <v>839</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>846</v>
+        <v>121</v>
       </c>
       <c r="D687">
         <v>6</v>
@@ -13465,7 +13472,7 @@
         <v>839</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D688">
         <v>6</v>
@@ -13476,7 +13483,7 @@
         <v>839</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>502</v>
+        <v>846</v>
       </c>
       <c r="D689">
         <v>6</v>
@@ -13487,10 +13494,10 @@
         <v>839</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>123</v>
+        <v>847</v>
       </c>
       <c r="D690">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.35">
@@ -13498,10 +13505,10 @@
         <v>839</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>125</v>
+        <v>502</v>
       </c>
       <c r="D691">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.35">
@@ -13509,7 +13516,7 @@
         <v>839</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D692">
         <v>7</v>
@@ -13520,7 +13527,7 @@
         <v>839</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D693">
         <v>7</v>
@@ -13531,7 +13538,7 @@
         <v>839</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D694">
         <v>7</v>
@@ -13542,7 +13549,7 @@
         <v>839</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D695">
         <v>7</v>
@@ -13553,7 +13560,7 @@
         <v>839</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D696">
         <v>7</v>
@@ -13564,7 +13571,7 @@
         <v>839</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D697">
         <v>7</v>
@@ -13575,10 +13582,10 @@
         <v>839</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D698">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.35">
@@ -13586,10 +13593,10 @@
         <v>839</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>848</v>
+        <v>137</v>
       </c>
       <c r="D699">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.35">
@@ -13597,7 +13604,7 @@
         <v>839</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>849</v>
+        <v>143</v>
       </c>
       <c r="D700">
         <v>8</v>
@@ -13608,7 +13615,7 @@
         <v>839</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D701">
         <v>8</v>
@@ -13619,7 +13626,7 @@
         <v>839</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D702">
         <v>8</v>
@@ -13630,7 +13637,7 @@
         <v>839</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D703">
         <v>8</v>
@@ -13641,7 +13648,7 @@
         <v>839</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D704">
         <v>8</v>
@@ -13652,7 +13659,7 @@
         <v>839</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D705">
         <v>8</v>
@@ -13663,47 +13670,41 @@
         <v>839</v>
       </c>
       <c r="B706" s="1" t="s">
-        <v>19</v>
+        <v>853</v>
       </c>
       <c r="D706">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A707" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B707" s="1"/>
+      <c r="B707" s="1" t="s">
+        <v>854</v>
+      </c>
       <c r="D707">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A708" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D708">
         <v>9</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A708" t="s">
-        <v>855</v>
-      </c>
-      <c r="B708" t="s">
-        <v>34</v>
-      </c>
-      <c r="C708" t="s">
-        <v>856</v>
-      </c>
-      <c r="D708">
-        <v>0</v>
-      </c>
-    </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A709" t="s">
-        <v>855</v>
-      </c>
-      <c r="B709" t="s">
-        <v>5</v>
-      </c>
-      <c r="C709" t="s">
-        <v>857</v>
-      </c>
+      <c r="A709" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B709" s="1"/>
       <c r="D709">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.35">
@@ -13711,13 +13712,13 @@
         <v>855</v>
       </c>
       <c r="B710" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C710" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.35">
@@ -13725,10 +13726,10 @@
         <v>855</v>
       </c>
       <c r="B711" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C711" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D711">
         <v>1</v>
@@ -13739,10 +13740,10 @@
         <v>855</v>
       </c>
       <c r="B712" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C712" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D712">
         <v>1</v>
@@ -13753,13 +13754,13 @@
         <v>855</v>
       </c>
       <c r="B713" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C713" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D713">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.35">
@@ -13767,13 +13768,13 @@
         <v>855</v>
       </c>
       <c r="B714" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C714" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D714">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.35">
@@ -13781,10 +13782,10 @@
         <v>855</v>
       </c>
       <c r="B715" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C715" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D715">
         <v>2</v>
@@ -13795,13 +13796,13 @@
         <v>855</v>
       </c>
       <c r="B716" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C716" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D716">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.35">
@@ -13809,13 +13810,13 @@
         <v>855</v>
       </c>
       <c r="B717" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C717" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D717">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.35">
@@ -13823,10 +13824,10 @@
         <v>855</v>
       </c>
       <c r="B718" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C718" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D718">
         <v>3</v>
@@ -13837,13 +13838,13 @@
         <v>855</v>
       </c>
       <c r="B719" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C719" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D719">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.35">
@@ -13851,13 +13852,13 @@
         <v>855</v>
       </c>
       <c r="B720" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C720" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D720">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.35">
@@ -13865,13 +13866,13 @@
         <v>855</v>
       </c>
       <c r="B721" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C721" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D721">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.35">
@@ -13879,13 +13880,13 @@
         <v>855</v>
       </c>
       <c r="B722" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C722" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D722">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.35">
@@ -13893,13 +13894,13 @@
         <v>855</v>
       </c>
       <c r="B723" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C723" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D723">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="724" spans="1:4" x14ac:dyDescent="0.35">
@@ -13907,10 +13908,10 @@
         <v>855</v>
       </c>
       <c r="B724" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C724" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D724">
         <v>7</v>
@@ -13921,10 +13922,10 @@
         <v>855</v>
       </c>
       <c r="B725" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C725" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D725">
         <v>7</v>
@@ -13935,10 +13936,10 @@
         <v>855</v>
       </c>
       <c r="B726" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C726" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D726">
         <v>7</v>
@@ -13949,13 +13950,13 @@
         <v>855</v>
       </c>
       <c r="B727" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C727" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D727">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="728" spans="1:4" x14ac:dyDescent="0.35">
@@ -13963,41 +13964,41 @@
         <v>855</v>
       </c>
       <c r="B728" t="s">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="C728" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D728">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="729" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="B729" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="C729" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D729">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="B730" t="s">
+        <v>200</v>
+      </c>
+      <c r="C730" t="s">
+        <v>876</v>
+      </c>
+      <c r="D730">
         <v>9</v>
-      </c>
-      <c r="C730" t="s">
-        <v>879</v>
-      </c>
-      <c r="D730">
-        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.35">
@@ -14005,13 +14006,13 @@
         <v>877</v>
       </c>
       <c r="B731" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C731" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.35">
@@ -14019,10 +14020,10 @@
         <v>877</v>
       </c>
       <c r="B732" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C732" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D732">
         <v>1</v>
@@ -14033,13 +14034,13 @@
         <v>877</v>
       </c>
       <c r="B733" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C733" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D733">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.35">
@@ -14047,13 +14048,13 @@
         <v>877</v>
       </c>
       <c r="B734" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C734" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D734">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.35">
@@ -14061,13 +14062,13 @@
         <v>877</v>
       </c>
       <c r="B735" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C735" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D735">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.35">
@@ -14075,10 +14076,10 @@
         <v>877</v>
       </c>
       <c r="B736" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C736" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D736">
         <v>3</v>
@@ -14089,10 +14090,10 @@
         <v>877</v>
       </c>
       <c r="B737" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C737" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D737">
         <v>3</v>
@@ -14103,10 +14104,10 @@
         <v>877</v>
       </c>
       <c r="B738" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C738" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D738">
         <v>3</v>
@@ -14117,10 +14118,10 @@
         <v>877</v>
       </c>
       <c r="B739" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C739" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D739">
         <v>3</v>
@@ -14131,13 +14132,13 @@
         <v>877</v>
       </c>
       <c r="B740" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C740" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D740">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.35">
@@ -14145,13 +14146,13 @@
         <v>877</v>
       </c>
       <c r="B741" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C741" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D741">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.35">
@@ -14159,10 +14160,10 @@
         <v>877</v>
       </c>
       <c r="B742" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C742" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D742">
         <v>2</v>
@@ -14173,13 +14174,13 @@
         <v>877</v>
       </c>
       <c r="B743" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C743" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D743">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.35">
@@ -14187,13 +14188,13 @@
         <v>877</v>
       </c>
       <c r="B744" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C744" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D744">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.35">
@@ -14201,13 +14202,13 @@
         <v>877</v>
       </c>
       <c r="B745" t="s">
-        <v>200</v>
+        <v>59</v>
       </c>
       <c r="C745" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="D745">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.35">
@@ -14215,10 +14216,10 @@
         <v>877</v>
       </c>
       <c r="B746" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C746" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D746">
         <v>4</v>
@@ -14229,13 +14230,13 @@
         <v>877</v>
       </c>
       <c r="B747" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="C747" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D747">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.35">
@@ -14243,13 +14244,13 @@
         <v>877</v>
       </c>
       <c r="B748" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C748" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D748">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.35">
@@ -14257,49 +14258,49 @@
         <v>877</v>
       </c>
       <c r="B749" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="C749" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D749">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>877</v>
       </c>
+      <c r="B750" t="s">
+        <v>99</v>
+      </c>
+      <c r="C750" t="s">
+        <v>897</v>
+      </c>
       <c r="D750">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="B751" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C751" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D751">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
-        <v>899</v>
-      </c>
-      <c r="B752" t="s">
-        <v>7</v>
-      </c>
-      <c r="C752" t="s">
-        <v>901</v>
+        <v>877</v>
       </c>
       <c r="D752">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.35">
@@ -14307,13 +14308,13 @@
         <v>899</v>
       </c>
       <c r="B753" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C753" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="D753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.35">
@@ -14321,10 +14322,10 @@
         <v>899</v>
       </c>
       <c r="B754" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C754" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D754">
         <v>1</v>
@@ -14335,13 +14336,13 @@
         <v>899</v>
       </c>
       <c r="B755" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C755" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D755">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.35">
@@ -14349,13 +14350,13 @@
         <v>899</v>
       </c>
       <c r="B756" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C756" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D756">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.35">
@@ -14363,13 +14364,13 @@
         <v>899</v>
       </c>
       <c r="B757" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C757" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D757">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.35">
@@ -14377,13 +14378,13 @@
         <v>899</v>
       </c>
       <c r="B758" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C758" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D758">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.35">
@@ -14391,13 +14392,13 @@
         <v>899</v>
       </c>
       <c r="B759" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C759" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="D759">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.35">
@@ -14405,13 +14406,13 @@
         <v>899</v>
       </c>
       <c r="B760" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C760" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D760">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.35">
@@ -14419,13 +14420,13 @@
         <v>899</v>
       </c>
       <c r="B761" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C761" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D761">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.35">
@@ -14433,41 +14434,41 @@
         <v>899</v>
       </c>
       <c r="B762" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C762" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D762">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B763" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C763" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D763">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="764" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B764" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C764" t="s">
-        <v>775</v>
+        <v>911</v>
       </c>
       <c r="D764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:4" x14ac:dyDescent="0.35">
@@ -14475,13 +14476,13 @@
         <v>912</v>
       </c>
       <c r="B765" t="s">
-        <v>914</v>
+        <v>34</v>
       </c>
       <c r="C765" t="s">
-        <v>796</v>
+        <v>913</v>
       </c>
       <c r="D765">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:4" x14ac:dyDescent="0.35">
@@ -14489,13 +14490,13 @@
         <v>912</v>
       </c>
       <c r="B766" t="s">
-        <v>915</v>
+        <v>45</v>
       </c>
       <c r="C766" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
       <c r="D766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:4" x14ac:dyDescent="0.35">
@@ -14503,10 +14504,10 @@
         <v>912</v>
       </c>
       <c r="B767" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C767" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D767">
         <v>1</v>
@@ -14517,10 +14518,10 @@
         <v>912</v>
       </c>
       <c r="B768" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C768" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D768">
         <v>1</v>
@@ -14531,10 +14532,10 @@
         <v>912</v>
       </c>
       <c r="B769" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C769" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D769">
         <v>1</v>
@@ -14545,10 +14546,10 @@
         <v>912</v>
       </c>
       <c r="B770" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C770" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D770">
         <v>1</v>
@@ -14559,10 +14560,10 @@
         <v>912</v>
       </c>
       <c r="B771" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C771" t="s">
-        <v>921</v>
+        <v>800</v>
       </c>
       <c r="D771">
         <v>1</v>
@@ -14573,13 +14574,13 @@
         <v>912</v>
       </c>
       <c r="B772" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C772" t="s">
-        <v>923</v>
+        <v>801</v>
       </c>
       <c r="D772">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.35">
@@ -14587,13 +14588,13 @@
         <v>912</v>
       </c>
       <c r="B773" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C773" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="D773">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.35">
@@ -14601,13 +14602,13 @@
         <v>912</v>
       </c>
       <c r="B774" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C774" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="D774">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.35">
@@ -14615,13 +14616,13 @@
         <v>912</v>
       </c>
       <c r="B775" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C775" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="D775">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.35">
@@ -14629,13 +14630,13 @@
         <v>912</v>
       </c>
       <c r="B776" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C776" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D776">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.35">
@@ -14643,13 +14644,13 @@
         <v>912</v>
       </c>
       <c r="B777" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C777" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D777">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.35">
@@ -14657,13 +14658,13 @@
         <v>912</v>
       </c>
       <c r="B778" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C778" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D778">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.35">
@@ -14671,13 +14672,13 @@
         <v>912</v>
       </c>
       <c r="B779" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C779" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="D779">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.35">
@@ -14685,13 +14686,13 @@
         <v>912</v>
       </c>
       <c r="B780" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C780" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="D780">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.35">
@@ -14699,13 +14700,13 @@
         <v>912</v>
       </c>
       <c r="B781" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C781" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="D781">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.35">
@@ -14713,13 +14714,13 @@
         <v>912</v>
       </c>
       <c r="B782" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C782" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="D782">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.35">
@@ -14727,13 +14728,13 @@
         <v>912</v>
       </c>
       <c r="B783" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C783" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="D783">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.35">
@@ -14741,13 +14742,13 @@
         <v>912</v>
       </c>
       <c r="B784" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C784" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D784">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.35">
@@ -14755,10 +14756,10 @@
         <v>912</v>
       </c>
       <c r="B785" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C785" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="D785">
         <v>5</v>
@@ -14769,10 +14770,10 @@
         <v>912</v>
       </c>
       <c r="B786" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C786" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D786">
         <v>5</v>
@@ -14783,10 +14784,10 @@
         <v>912</v>
       </c>
       <c r="B787" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C787" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D787">
         <v>5</v>
@@ -14797,10 +14798,10 @@
         <v>912</v>
       </c>
       <c r="B788" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C788" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D788">
         <v>5</v>
@@ -14811,10 +14812,10 @@
         <v>912</v>
       </c>
       <c r="B789" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C789" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D789">
         <v>5</v>
@@ -14825,10 +14826,10 @@
         <v>912</v>
       </c>
       <c r="B790" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C790" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D790">
         <v>5</v>
@@ -14839,10 +14840,10 @@
         <v>912</v>
       </c>
       <c r="B791" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C791" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D791">
         <v>5</v>
@@ -14853,10 +14854,10 @@
         <v>912</v>
       </c>
       <c r="B792" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C792" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D792">
         <v>5</v>
@@ -14867,10 +14868,10 @@
         <v>912</v>
       </c>
       <c r="B793" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C793" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="D793">
         <v>5</v>
@@ -14881,10 +14882,10 @@
         <v>912</v>
       </c>
       <c r="B794" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C794" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D794">
         <v>5</v>
@@ -14895,10 +14896,10 @@
         <v>912</v>
       </c>
       <c r="B795" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C795" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="D795">
         <v>5</v>
@@ -14909,10 +14910,10 @@
         <v>912</v>
       </c>
       <c r="B796" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C796" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D796">
         <v>5</v>
@@ -14923,10 +14924,10 @@
         <v>912</v>
       </c>
       <c r="B797" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C797" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D797">
         <v>5</v>
@@ -14937,10 +14938,10 @@
         <v>912</v>
       </c>
       <c r="B798" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C798" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D798">
         <v>5</v>
@@ -14951,10 +14952,10 @@
         <v>912</v>
       </c>
       <c r="B799" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C799" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D799">
         <v>5</v>
@@ -14965,10 +14966,10 @@
         <v>912</v>
       </c>
       <c r="B800" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C800" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D800">
         <v>5</v>
@@ -14979,10 +14980,10 @@
         <v>912</v>
       </c>
       <c r="B801" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C801" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D801">
         <v>5</v>
@@ -14993,10 +14994,10 @@
         <v>912</v>
       </c>
       <c r="B802" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C802" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D802">
         <v>5</v>
@@ -15007,10 +15008,10 @@
         <v>912</v>
       </c>
       <c r="B803" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C803" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D803">
         <v>5</v>
@@ -15021,10 +15022,10 @@
         <v>912</v>
       </c>
       <c r="B804" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C804" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D804">
         <v>5</v>
@@ -15035,10 +15036,10 @@
         <v>912</v>
       </c>
       <c r="B805" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C805" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D805">
         <v>5</v>
@@ -15049,10 +15050,10 @@
         <v>912</v>
       </c>
       <c r="B806" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C806" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D806">
         <v>5</v>
@@ -15063,13 +15064,13 @@
         <v>912</v>
       </c>
       <c r="B807" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C807" t="s">
-        <v>945</v>
+        <v>989</v>
       </c>
       <c r="D807">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.35">
@@ -15077,13 +15078,13 @@
         <v>912</v>
       </c>
       <c r="B808" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C808" t="s">
-        <v>951</v>
+        <v>991</v>
       </c>
       <c r="D808">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.35">
@@ -15091,10 +15092,10 @@
         <v>912</v>
       </c>
       <c r="B809" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C809" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="D809">
         <v>6</v>
@@ -15105,10 +15106,10 @@
         <v>912</v>
       </c>
       <c r="B810" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C810" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D810">
         <v>6</v>
@@ -15119,10 +15120,10 @@
         <v>912</v>
       </c>
       <c r="B811" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C811" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D811">
         <v>6</v>
@@ -15133,10 +15134,10 @@
         <v>912</v>
       </c>
       <c r="B812" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C812" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D812">
         <v>6</v>
@@ -15147,10 +15148,10 @@
         <v>912</v>
       </c>
       <c r="B813" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C813" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D813">
         <v>6</v>
@@ -15161,10 +15162,10 @@
         <v>912</v>
       </c>
       <c r="B814" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C814" t="s">
-        <v>1000</v>
+        <v>959</v>
       </c>
       <c r="D814">
         <v>6</v>
@@ -15175,10 +15176,10 @@
         <v>912</v>
       </c>
       <c r="B815" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C815" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D815">
         <v>6</v>
@@ -15189,10 +15190,10 @@
         <v>912</v>
       </c>
       <c r="B816" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C816" t="s">
-        <v>965</v>
+        <v>1000</v>
       </c>
       <c r="D816">
         <v>6</v>
@@ -15203,10 +15204,10 @@
         <v>912</v>
       </c>
       <c r="B817" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C817" t="s">
-        <v>1004</v>
+        <v>963</v>
       </c>
       <c r="D817">
         <v>6</v>
@@ -15217,10 +15218,10 @@
         <v>912</v>
       </c>
       <c r="B818" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C818" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D818">
         <v>6</v>
@@ -15231,10 +15232,10 @@
         <v>912</v>
       </c>
       <c r="B819" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C819" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D819">
         <v>6</v>
@@ -15245,10 +15246,10 @@
         <v>912</v>
       </c>
       <c r="B820" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C820" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D820">
         <v>6</v>
@@ -15259,10 +15260,10 @@
         <v>912</v>
       </c>
       <c r="B821" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C821" t="s">
-        <v>973</v>
+        <v>1007</v>
       </c>
       <c r="D821">
         <v>6</v>
@@ -15273,10 +15274,10 @@
         <v>912</v>
       </c>
       <c r="B822" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C822" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D822">
         <v>6</v>
@@ -15287,10 +15288,10 @@
         <v>912</v>
       </c>
       <c r="B823" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C823" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D823">
         <v>6</v>
@@ -15301,10 +15302,10 @@
         <v>912</v>
       </c>
       <c r="B824" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C824" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D824">
         <v>6</v>
@@ -15315,10 +15316,10 @@
         <v>912</v>
       </c>
       <c r="B825" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C825" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D825">
         <v>6</v>
@@ -15329,10 +15330,10 @@
         <v>912</v>
       </c>
       <c r="B826" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C826" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D826">
         <v>6</v>
@@ -15343,10 +15344,10 @@
         <v>912</v>
       </c>
       <c r="B827" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C827" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D827">
         <v>6</v>
@@ -15357,10 +15358,10 @@
         <v>912</v>
       </c>
       <c r="B828" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C828" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D828">
         <v>6</v>
@@ -15371,10 +15372,10 @@
         <v>912</v>
       </c>
       <c r="B829" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C829" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D829">
         <v>6</v>
@@ -15385,10 +15386,10 @@
         <v>912</v>
       </c>
       <c r="B830" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C830" t="s">
-        <v>1019</v>
+        <v>987</v>
       </c>
       <c r="D830">
         <v>6</v>
@@ -15396,30 +15397,30 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
-        <v>1020</v>
+        <v>912</v>
       </c>
       <c r="B831" t="s">
-        <v>5</v>
+        <v>1017</v>
       </c>
       <c r="C831" t="s">
-        <v>734</v>
+        <v>989</v>
       </c>
       <c r="D831">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
-        <v>1020</v>
+        <v>912</v>
       </c>
       <c r="B832" t="s">
-        <v>45</v>
+        <v>1018</v>
       </c>
       <c r="C832" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D832">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.35">
@@ -15427,13 +15428,13 @@
         <v>1020</v>
       </c>
       <c r="B833" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C833" t="s">
-        <v>1022</v>
+        <v>734</v>
       </c>
       <c r="D833">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.35">
@@ -15441,13 +15442,13 @@
         <v>1020</v>
       </c>
       <c r="B834" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C834" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.35">
@@ -15455,10 +15456,10 @@
         <v>1020</v>
       </c>
       <c r="B835" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C835" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D835">
         <v>1</v>
@@ -15469,10 +15470,10 @@
         <v>1020</v>
       </c>
       <c r="B836" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C836" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D836">
         <v>1</v>
@@ -15483,10 +15484,10 @@
         <v>1020</v>
       </c>
       <c r="B837" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C837" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D837">
         <v>1</v>
@@ -15497,10 +15498,10 @@
         <v>1020</v>
       </c>
       <c r="B838" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C838" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D838">
         <v>1</v>
@@ -15511,13 +15512,13 @@
         <v>1020</v>
       </c>
       <c r="B839" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C839" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D839">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.35">
@@ -15525,13 +15526,13 @@
         <v>1020</v>
       </c>
       <c r="B840" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C840" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D840">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.35">
@@ -15539,10 +15540,10 @@
         <v>1020</v>
       </c>
       <c r="B841" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C841" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D841">
         <v>2</v>
@@ -15553,10 +15554,10 @@
         <v>1020</v>
       </c>
       <c r="B842" t="s">
-        <v>451</v>
+        <v>97</v>
       </c>
       <c r="C842" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="D842">
         <v>2</v>
@@ -15567,10 +15568,10 @@
         <v>1020</v>
       </c>
       <c r="B843" t="s">
-        <v>453</v>
+        <v>99</v>
       </c>
       <c r="C843" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D843">
         <v>2</v>
@@ -15581,10 +15582,10 @@
         <v>1020</v>
       </c>
       <c r="B844" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C844" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="D844">
         <v>2</v>
@@ -15595,13 +15596,13 @@
         <v>1020</v>
       </c>
       <c r="B845" t="s">
-        <v>101</v>
+        <v>453</v>
       </c>
       <c r="C845" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D845">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:4" x14ac:dyDescent="0.35">
@@ -15609,13 +15610,13 @@
         <v>1020</v>
       </c>
       <c r="B846" t="s">
-        <v>103</v>
+        <v>455</v>
       </c>
       <c r="C846" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D846">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:4" x14ac:dyDescent="0.35">
@@ -15623,10 +15624,10 @@
         <v>1020</v>
       </c>
       <c r="B847" t="s">
-        <v>461</v>
+        <v>101</v>
       </c>
       <c r="C847" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D847">
         <v>3</v>
@@ -15637,10 +15638,10 @@
         <v>1020</v>
       </c>
       <c r="B848" t="s">
-        <v>463</v>
+        <v>103</v>
       </c>
       <c r="C848" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="D848">
         <v>3</v>
@@ -15651,10 +15652,10 @@
         <v>1020</v>
       </c>
       <c r="B849" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C849" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D849">
         <v>3</v>
@@ -15665,10 +15666,10 @@
         <v>1020</v>
       </c>
       <c r="B850" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C850" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D850">
         <v>3</v>
@@ -15679,13 +15680,13 @@
         <v>1020</v>
       </c>
       <c r="B851" t="s">
-        <v>105</v>
+        <v>465</v>
       </c>
       <c r="C851" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D851">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="852" spans="1:4" x14ac:dyDescent="0.35">
@@ -15693,13 +15694,13 @@
         <v>1020</v>
       </c>
       <c r="B852" t="s">
-        <v>107</v>
+        <v>467</v>
       </c>
       <c r="C852" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D852">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="853" spans="1:4" x14ac:dyDescent="0.35">
@@ -15707,10 +15708,10 @@
         <v>1020</v>
       </c>
       <c r="B853" t="s">
-        <v>475</v>
+        <v>105</v>
       </c>
       <c r="C853" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="D853">
         <v>6</v>
@@ -15721,10 +15722,10 @@
         <v>1020</v>
       </c>
       <c r="B854" t="s">
-        <v>477</v>
+        <v>107</v>
       </c>
       <c r="C854" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D854">
         <v>6</v>
@@ -15735,10 +15736,10 @@
         <v>1020</v>
       </c>
       <c r="B855" t="s">
-        <v>841</v>
+        <v>475</v>
       </c>
       <c r="C855" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D855">
         <v>6</v>
@@ -15749,10 +15750,10 @@
         <v>1020</v>
       </c>
       <c r="B856" t="s">
-        <v>842</v>
+        <v>477</v>
       </c>
       <c r="C856" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="D856">
         <v>6</v>
@@ -15763,10 +15764,10 @@
         <v>1020</v>
       </c>
       <c r="B857" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C857" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D857">
         <v>6</v>
@@ -15777,41 +15778,41 @@
         <v>1020</v>
       </c>
       <c r="B858" t="s">
-        <v>642</v>
+        <v>842</v>
       </c>
       <c r="C858" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D858">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A859" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
       <c r="B859" t="s">
-        <v>5</v>
+        <v>843</v>
       </c>
       <c r="C859" t="s">
-        <v>82</v>
+        <v>1046</v>
       </c>
       <c r="D859">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A860" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
       <c r="B860" t="s">
-        <v>7</v>
+        <v>642</v>
       </c>
       <c r="C860" t="s">
-        <v>83</v>
+        <v>1047</v>
       </c>
       <c r="D860">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="861" spans="1:4" x14ac:dyDescent="0.35">
@@ -15819,13 +15820,13 @@
         <v>1048</v>
       </c>
       <c r="B861" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C861" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.35">
@@ -15833,13 +15834,13 @@
         <v>1048</v>
       </c>
       <c r="B862" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C862" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D862">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.35">
@@ -15847,13 +15848,13 @@
         <v>1048</v>
       </c>
       <c r="B863" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C863" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D863">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.35">
@@ -15861,13 +15862,13 @@
         <v>1048</v>
       </c>
       <c r="B864" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C864" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D864">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.35">
@@ -15875,13 +15876,13 @@
         <v>1048</v>
       </c>
       <c r="B865" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C865" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D865">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.35">
@@ -15889,13 +15890,13 @@
         <v>1048</v>
       </c>
       <c r="B866" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C866" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D866">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.35">
@@ -15903,41 +15904,41 @@
         <v>1048</v>
       </c>
       <c r="B867" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C867" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D867">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A868" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B868" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C868" t="s">
-        <v>1050</v>
+        <v>89</v>
       </c>
       <c r="D868">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A869" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B869" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C869" t="s">
-        <v>796</v>
+        <v>90</v>
       </c>
       <c r="D869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.35">
@@ -15945,10 +15946,10 @@
         <v>1049</v>
       </c>
       <c r="B870" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C870" t="s">
-        <v>797</v>
+        <v>1050</v>
       </c>
       <c r="D870">
         <v>1</v>
@@ -15959,10 +15960,10 @@
         <v>1049</v>
       </c>
       <c r="B871" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C871" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="D871">
         <v>1</v>
@@ -15973,10 +15974,10 @@
         <v>1049</v>
       </c>
       <c r="B872" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C872" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D872">
         <v>1</v>
@@ -15987,10 +15988,10 @@
         <v>1049</v>
       </c>
       <c r="B873" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C873" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D873">
         <v>1</v>
@@ -16001,10 +16002,10 @@
         <v>1049</v>
       </c>
       <c r="B874" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C874" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D874">
         <v>1</v>
@@ -16015,10 +16016,10 @@
         <v>1049</v>
       </c>
       <c r="B875" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C875" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="D875">
         <v>1</v>
@@ -16029,13 +16030,13 @@
         <v>1049</v>
       </c>
       <c r="B876" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C876" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D876">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:4" x14ac:dyDescent="0.35">
@@ -16043,13 +16044,13 @@
         <v>1049</v>
       </c>
       <c r="B877" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C877" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D877">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:4" x14ac:dyDescent="0.35">
@@ -16057,10 +16058,10 @@
         <v>1049</v>
       </c>
       <c r="B878" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C878" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="D878">
         <v>2</v>
@@ -16071,10 +16072,10 @@
         <v>1049</v>
       </c>
       <c r="B879" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C879" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D879">
         <v>2</v>
@@ -16085,10 +16086,10 @@
         <v>1049</v>
       </c>
       <c r="B880" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C880" t="s">
-        <v>1051</v>
+        <v>805</v>
       </c>
       <c r="D880">
         <v>2</v>
@@ -16099,10 +16100,10 @@
         <v>1049</v>
       </c>
       <c r="B881" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C881" t="s">
-        <v>1052</v>
+        <v>806</v>
       </c>
       <c r="D881">
         <v>2</v>
@@ -16113,13 +16114,13 @@
         <v>1049</v>
       </c>
       <c r="B882" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C882" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D882">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:4" x14ac:dyDescent="0.35">
@@ -16127,13 +16128,13 @@
         <v>1049</v>
       </c>
       <c r="B883" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C883" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D883">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:4" x14ac:dyDescent="0.35">
@@ -16141,10 +16142,10 @@
         <v>1049</v>
       </c>
       <c r="B884" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C884" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D884">
         <v>3</v>
@@ -16155,10 +16156,10 @@
         <v>1049</v>
       </c>
       <c r="B885" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C885" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D885">
         <v>3</v>
@@ -16169,10 +16170,10 @@
         <v>1049</v>
       </c>
       <c r="B886" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C886" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D886">
         <v>3</v>
@@ -16183,10 +16184,10 @@
         <v>1049</v>
       </c>
       <c r="B887" t="s">
-        <v>200</v>
+        <v>61</v>
       </c>
       <c r="C887" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D887">
         <v>3</v>
@@ -16197,10 +16198,10 @@
         <v>1049</v>
       </c>
       <c r="B888" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C888" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D888">
         <v>3</v>
@@ -16211,10 +16212,10 @@
         <v>1049</v>
       </c>
       <c r="B889" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="C889" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D889">
         <v>3</v>
@@ -16225,10 +16226,10 @@
         <v>1049</v>
       </c>
       <c r="B890" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C890" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="D890">
         <v>3</v>
@@ -16239,10 +16240,10 @@
         <v>1049</v>
       </c>
       <c r="B891" t="s">
-        <v>451</v>
+        <v>97</v>
       </c>
       <c r="C891" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D891">
         <v>3</v>
@@ -16253,13 +16254,13 @@
         <v>1049</v>
       </c>
       <c r="B892" t="s">
-        <v>453</v>
+        <v>99</v>
       </c>
       <c r="C892" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="D892">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.35">
@@ -16267,13 +16268,13 @@
         <v>1049</v>
       </c>
       <c r="B893" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C893" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="D893">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.35">
@@ -16281,13 +16282,13 @@
         <v>1049</v>
       </c>
       <c r="B894" t="s">
-        <v>623</v>
+        <v>453</v>
       </c>
       <c r="C894" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D894">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.35">
@@ -16295,13 +16296,13 @@
         <v>1049</v>
       </c>
       <c r="B895" t="s">
-        <v>625</v>
+        <v>455</v>
       </c>
       <c r="C895" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D895">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.35">
@@ -16309,13 +16310,13 @@
         <v>1049</v>
       </c>
       <c r="B896" t="s">
-        <v>457</v>
+        <v>623</v>
       </c>
       <c r="C896" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="D896">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.35">
@@ -16323,13 +16324,13 @@
         <v>1049</v>
       </c>
       <c r="B897" t="s">
-        <v>161</v>
+        <v>625</v>
       </c>
       <c r="C897" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D897">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.35">
@@ -16337,13 +16338,13 @@
         <v>1049</v>
       </c>
       <c r="B898" t="s">
-        <v>101</v>
+        <v>457</v>
       </c>
       <c r="C898" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D898">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.35">
@@ -16351,13 +16352,13 @@
         <v>1049</v>
       </c>
       <c r="B899" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="C899" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D899">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.35">
@@ -16365,10 +16366,10 @@
         <v>1049</v>
       </c>
       <c r="B900" t="s">
-        <v>642</v>
+        <v>101</v>
       </c>
       <c r="C900" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D900">
         <v>9</v>
@@ -16379,10 +16380,10 @@
         <v>1049</v>
       </c>
       <c r="B901" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="C901" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D901">
         <v>9</v>
@@ -16390,30 +16391,30 @@
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A902" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="B902" t="s">
-        <v>5</v>
+        <v>642</v>
       </c>
       <c r="C902" t="s">
-        <v>67</v>
+        <v>1071</v>
       </c>
       <c r="D902">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A903" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="B903" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C903" t="s">
-        <v>722</v>
+        <v>1072</v>
       </c>
       <c r="D903">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.35">
@@ -16421,13 +16422,13 @@
         <v>1073</v>
       </c>
       <c r="B904" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C904" t="s">
-        <v>1074</v>
+        <v>67</v>
       </c>
       <c r="D904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.35">
@@ -16435,13 +16436,13 @@
         <v>1073</v>
       </c>
       <c r="B905" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C905" t="s">
-        <v>1075</v>
+        <v>722</v>
       </c>
       <c r="D905">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.35">
@@ -16449,13 +16450,13 @@
         <v>1073</v>
       </c>
       <c r="B906" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C906" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D906">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.35">
@@ -16463,13 +16464,13 @@
         <v>1073</v>
       </c>
       <c r="B907" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C907" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D907">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.35">
@@ -16477,41 +16478,41 @@
         <v>1073</v>
       </c>
       <c r="B908" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C908" t="s">
-        <v>80</v>
+        <v>1076</v>
       </c>
       <c r="D908">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A909" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B909" t="s">
-        <v>1079</v>
+        <v>15</v>
       </c>
       <c r="C909" t="s">
-        <v>210</v>
+        <v>1077</v>
       </c>
       <c r="D909">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A910" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B910" t="s">
-        <v>914</v>
+        <v>17</v>
       </c>
       <c r="C910" t="s">
-        <v>1080</v>
+        <v>80</v>
       </c>
       <c r="D910">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.35">
@@ -16519,13 +16520,13 @@
         <v>1078</v>
       </c>
       <c r="B911" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C911" t="s">
-        <v>1082</v>
+        <v>210</v>
       </c>
       <c r="D911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.35">
@@ -16533,10 +16534,10 @@
         <v>1078</v>
       </c>
       <c r="B912" t="s">
-        <v>1083</v>
+        <v>914</v>
       </c>
       <c r="C912" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D912">
         <v>1</v>
@@ -16547,10 +16548,10 @@
         <v>1078</v>
       </c>
       <c r="B913" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C913" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="D913">
         <v>1</v>
@@ -16561,10 +16562,10 @@
         <v>1078</v>
       </c>
       <c r="B914" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="C914" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="D914">
         <v>1</v>
@@ -16575,10 +16576,10 @@
         <v>1078</v>
       </c>
       <c r="B915" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="C915" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D915">
         <v>1</v>
@@ -16589,10 +16590,10 @@
         <v>1078</v>
       </c>
       <c r="B916" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C916" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="D916">
         <v>1</v>
@@ -16603,10 +16604,10 @@
         <v>1078</v>
       </c>
       <c r="B917" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C917" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D917">
         <v>1</v>
@@ -16617,13 +16618,13 @@
         <v>1078</v>
       </c>
       <c r="B918" t="s">
-        <v>917</v>
+        <v>1091</v>
       </c>
       <c r="C918" t="s">
-        <v>1080</v>
+        <v>1092</v>
       </c>
       <c r="D918">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.35">
@@ -16631,13 +16632,13 @@
         <v>1078</v>
       </c>
       <c r="B919" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C919" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D919">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.35">
@@ -16645,10 +16646,10 @@
         <v>1078</v>
       </c>
       <c r="B920" t="s">
-        <v>1097</v>
+        <v>917</v>
       </c>
       <c r="C920" t="s">
-        <v>1098</v>
+        <v>1080</v>
       </c>
       <c r="D920">
         <v>4</v>
@@ -16659,10 +16660,10 @@
         <v>1078</v>
       </c>
       <c r="B921" t="s">
-        <v>922</v>
+        <v>1095</v>
       </c>
       <c r="C921" t="s">
-        <v>1080</v>
+        <v>1096</v>
       </c>
       <c r="D921">
         <v>4</v>
@@ -16673,13 +16674,13 @@
         <v>1078</v>
       </c>
       <c r="B922" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C922" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D922">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.35">
@@ -16687,13 +16688,13 @@
         <v>1078</v>
       </c>
       <c r="B923" t="s">
-        <v>1101</v>
+        <v>922</v>
       </c>
       <c r="C923" t="s">
-        <v>1102</v>
+        <v>1080</v>
       </c>
       <c r="D923">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.35">
@@ -16701,10 +16702,10 @@
         <v>1078</v>
       </c>
       <c r="B924" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C924" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="D924">
         <v>2</v>
@@ -16715,13 +16716,13 @@
         <v>1078</v>
       </c>
       <c r="B925" t="s">
-        <v>924</v>
+        <v>1101</v>
       </c>
       <c r="C925" t="s">
-        <v>1080</v>
+        <v>1102</v>
       </c>
       <c r="D925">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.35">
@@ -16729,13 +16730,13 @@
         <v>1078</v>
       </c>
       <c r="B926" t="s">
-        <v>926</v>
+        <v>1103</v>
       </c>
       <c r="C926" t="s">
-        <v>1080</v>
+        <v>1104</v>
       </c>
       <c r="D926">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.35">
@@ -16743,7 +16744,7 @@
         <v>1078</v>
       </c>
       <c r="B927" t="s">
-        <v>1105</v>
+        <v>924</v>
       </c>
       <c r="C927" t="s">
         <v>1080</v>
@@ -16757,13 +16758,13 @@
         <v>1078</v>
       </c>
       <c r="B928" t="s">
-        <v>1106</v>
+        <v>926</v>
       </c>
       <c r="C928" t="s">
-        <v>1107</v>
+        <v>1080</v>
       </c>
       <c r="D928">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.35">
@@ -16771,7 +16772,7 @@
         <v>1078</v>
       </c>
       <c r="B929" t="s">
-        <v>928</v>
+        <v>1105</v>
       </c>
       <c r="C929" t="s">
         <v>1080</v>
@@ -16785,10 +16786,10 @@
         <v>1078</v>
       </c>
       <c r="B930" t="s">
-        <v>930</v>
+        <v>1106</v>
       </c>
       <c r="C930" t="s">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="D930">
         <v>3</v>
@@ -16799,13 +16800,13 @@
         <v>1078</v>
       </c>
       <c r="B931" t="s">
-        <v>1108</v>
+        <v>928</v>
       </c>
       <c r="C931" t="s">
-        <v>1109</v>
+        <v>1080</v>
       </c>
       <c r="D931">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.35">
@@ -16813,10 +16814,10 @@
         <v>1078</v>
       </c>
       <c r="B932" t="s">
-        <v>1110</v>
+        <v>930</v>
       </c>
       <c r="C932" t="s">
-        <v>1111</v>
+        <v>1080</v>
       </c>
       <c r="D932">
         <v>3</v>
@@ -16827,10 +16828,10 @@
         <v>1078</v>
       </c>
       <c r="B933" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="C933" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="D933">
         <v>3</v>
@@ -16841,13 +16842,13 @@
         <v>1078</v>
       </c>
       <c r="B934" t="s">
-        <v>932</v>
+        <v>1110</v>
       </c>
       <c r="C934" t="s">
-        <v>1080</v>
+        <v>1111</v>
       </c>
       <c r="D934">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.35">
@@ -16855,13 +16856,13 @@
         <v>1078</v>
       </c>
       <c r="B935" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C935" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D935">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.35">
@@ -16869,10 +16870,10 @@
         <v>1078</v>
       </c>
       <c r="B936" t="s">
-        <v>1116</v>
+        <v>932</v>
       </c>
       <c r="C936" t="s">
-        <v>1117</v>
+        <v>1080</v>
       </c>
       <c r="D936">
         <v>4</v>
@@ -16883,10 +16884,10 @@
         <v>1078</v>
       </c>
       <c r="B937" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="C937" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="D937">
         <v>4</v>
@@ -16897,10 +16898,10 @@
         <v>1078</v>
       </c>
       <c r="B938" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="C938" t="s">
-        <v>1094</v>
+        <v>1117</v>
       </c>
       <c r="D938">
         <v>4</v>
@@ -16911,10 +16912,10 @@
         <v>1078</v>
       </c>
       <c r="B939" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C939" t="s">
-        <v>1080</v>
+        <v>1119</v>
       </c>
       <c r="D939">
         <v>4</v>
@@ -16925,10 +16926,10 @@
         <v>1078</v>
       </c>
       <c r="B940" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C940" t="s">
-        <v>1080</v>
+        <v>1094</v>
       </c>
       <c r="D940">
         <v>4</v>
@@ -16939,7 +16940,7 @@
         <v>1078</v>
       </c>
       <c r="B941" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C941" t="s">
         <v>1080</v>
@@ -16953,7 +16954,7 @@
         <v>1078</v>
       </c>
       <c r="B942" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C942" t="s">
         <v>1080</v>
@@ -16967,10 +16968,10 @@
         <v>1078</v>
       </c>
       <c r="B943" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C943" t="s">
-        <v>1126</v>
+        <v>1080</v>
       </c>
       <c r="D943">
         <v>4</v>
@@ -16981,7 +16982,7 @@
         <v>1078</v>
       </c>
       <c r="B944" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C944" t="s">
         <v>1080</v>
@@ -16995,10 +16996,10 @@
         <v>1078</v>
       </c>
       <c r="B945" t="s">
-        <v>952</v>
+        <v>1125</v>
       </c>
       <c r="C945" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D945">
         <v>4</v>
@@ -17009,10 +17010,10 @@
         <v>1078</v>
       </c>
       <c r="B946" t="s">
-        <v>954</v>
+        <v>1127</v>
       </c>
       <c r="C946" t="s">
-        <v>1129</v>
+        <v>1080</v>
       </c>
       <c r="D946">
         <v>4</v>
@@ -17023,10 +17024,10 @@
         <v>1078</v>
       </c>
       <c r="B947" t="s">
-        <v>1130</v>
+        <v>952</v>
       </c>
       <c r="C947" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D947">
         <v>4</v>
@@ -17037,13 +17038,13 @@
         <v>1078</v>
       </c>
       <c r="B948" t="s">
-        <v>1132</v>
+        <v>954</v>
       </c>
       <c r="C948" t="s">
-        <v>1080</v>
+        <v>1129</v>
       </c>
       <c r="D948">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.35">
@@ -17051,13 +17052,13 @@
         <v>1078</v>
       </c>
       <c r="B949" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="C949" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="D949">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.35">
@@ -17065,10 +17066,10 @@
         <v>1078</v>
       </c>
       <c r="B950" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C950" t="s">
-        <v>1136</v>
+        <v>1080</v>
       </c>
       <c r="D950">
         <v>6</v>
@@ -17079,10 +17080,10 @@
         <v>1078</v>
       </c>
       <c r="B951" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="C951" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="D951">
         <v>6</v>
@@ -17093,10 +17094,10 @@
         <v>1078</v>
       </c>
       <c r="B952" t="s">
-        <v>993</v>
+        <v>1135</v>
       </c>
       <c r="C952" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="D952">
         <v>6</v>
@@ -17107,10 +17108,10 @@
         <v>1078</v>
       </c>
       <c r="B953" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C953" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D953">
         <v>6</v>
@@ -17121,10 +17122,10 @@
         <v>1078</v>
       </c>
       <c r="B954" t="s">
-        <v>1142</v>
+        <v>993</v>
       </c>
       <c r="C954" t="s">
-        <v>1080</v>
+        <v>1139</v>
       </c>
       <c r="D954">
         <v>6</v>
@@ -17135,13 +17136,13 @@
         <v>1078</v>
       </c>
       <c r="B955" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C955" t="s">
-        <v>1080</v>
+        <v>1141</v>
       </c>
       <c r="D955">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.35">
@@ -17149,13 +17150,13 @@
         <v>1078</v>
       </c>
       <c r="B956" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="C956" t="s">
-        <v>1145</v>
+        <v>1080</v>
       </c>
       <c r="D956">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.35">
@@ -17163,13 +17164,13 @@
         <v>1078</v>
       </c>
       <c r="B957" t="s">
-        <v>934</v>
+        <v>1143</v>
       </c>
       <c r="C957" t="s">
         <v>1080</v>
       </c>
       <c r="D957">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.35">
@@ -17177,13 +17178,13 @@
         <v>1078</v>
       </c>
       <c r="B958" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="C958" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="D958">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.35">
@@ -17191,10 +17192,10 @@
         <v>1078</v>
       </c>
       <c r="B959" t="s">
-        <v>1148</v>
+        <v>934</v>
       </c>
       <c r="C959" t="s">
-        <v>1149</v>
+        <v>1080</v>
       </c>
       <c r="D959">
         <v>8</v>
@@ -17205,10 +17206,10 @@
         <v>1078</v>
       </c>
       <c r="B960" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C960" t="s">
-        <v>1080</v>
+        <v>1147</v>
       </c>
       <c r="D960">
         <v>8</v>
@@ -17219,10 +17220,10 @@
         <v>1078</v>
       </c>
       <c r="B961" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C961" t="s">
-        <v>1080</v>
+        <v>1149</v>
       </c>
       <c r="D961">
         <v>8</v>
@@ -17233,13 +17234,13 @@
         <v>1078</v>
       </c>
       <c r="B962" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C962" t="s">
-        <v>1153</v>
+        <v>1080</v>
       </c>
       <c r="D962">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.35">
@@ -17247,13 +17248,13 @@
         <v>1078</v>
       </c>
       <c r="B963" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C963" t="s">
-        <v>1155</v>
+        <v>1080</v>
       </c>
       <c r="D963">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.35">
@@ -17261,10 +17262,10 @@
         <v>1078</v>
       </c>
       <c r="B964" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="C964" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="D964">
         <v>9</v>
@@ -17275,10 +17276,10 @@
         <v>1078</v>
       </c>
       <c r="B965" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C965" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="D965">
         <v>9</v>
@@ -17289,10 +17290,10 @@
         <v>1078</v>
       </c>
       <c r="B966" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="C966" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="D966">
         <v>9</v>
@@ -17300,30 +17301,30 @@
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A967" t="s">
-        <v>1162</v>
+        <v>1078</v>
       </c>
       <c r="B967" t="s">
-        <v>5</v>
+        <v>1158</v>
       </c>
       <c r="C967" t="s">
-        <v>82</v>
+        <v>1159</v>
       </c>
       <c r="D967">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A968" t="s">
-        <v>1162</v>
+        <v>1078</v>
       </c>
       <c r="B968" t="s">
-        <v>7</v>
+        <v>1160</v>
       </c>
       <c r="C968" t="s">
-        <v>83</v>
+        <v>1161</v>
       </c>
       <c r="D968">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.35">
@@ -17331,13 +17332,13 @@
         <v>1162</v>
       </c>
       <c r="B969" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C969" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.35">
@@ -17345,13 +17346,13 @@
         <v>1162</v>
       </c>
       <c r="B970" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C970" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D970">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.35">
@@ -17359,13 +17360,13 @@
         <v>1162</v>
       </c>
       <c r="B971" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C971" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D971">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.35">
@@ -17373,13 +17374,13 @@
         <v>1162</v>
       </c>
       <c r="B972" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C972" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D972">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.35">
@@ -17387,13 +17388,13 @@
         <v>1162</v>
       </c>
       <c r="B973" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C973" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D973">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.35">
@@ -17401,13 +17402,13 @@
         <v>1162</v>
       </c>
       <c r="B974" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C974" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D974">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.35">
@@ -17415,38 +17416,38 @@
         <v>1162</v>
       </c>
       <c r="B975" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C975" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D975">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A976" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B976" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C976" t="s">
-        <v>1164</v>
+        <v>89</v>
       </c>
       <c r="D976">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A977" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B977" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C977" t="s">
-        <v>1165</v>
+        <v>90</v>
       </c>
       <c r="D977">
         <v>0</v>
@@ -17457,13 +17458,13 @@
         <v>1163</v>
       </c>
       <c r="B978" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C978" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D978">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.35">
@@ -17471,13 +17472,13 @@
         <v>1163</v>
       </c>
       <c r="B979" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C979" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="D979">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.35">
@@ -17485,13 +17486,13 @@
         <v>1163</v>
       </c>
       <c r="B980" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C980" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D980">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.35">
@@ -17499,13 +17500,13 @@
         <v>1163</v>
       </c>
       <c r="B981" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C981" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="D981">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.35">
@@ -17513,13 +17514,13 @@
         <v>1163</v>
       </c>
       <c r="B982" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C982" t="s">
-        <v>785</v>
+        <v>1168</v>
       </c>
       <c r="D982">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.35">
@@ -17527,10 +17528,10 @@
         <v>1163</v>
       </c>
       <c r="B983" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C983" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D983">
         <v>4</v>
@@ -17541,13 +17542,13 @@
         <v>1163</v>
       </c>
       <c r="B984" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C984" t="s">
-        <v>1171</v>
+        <v>785</v>
       </c>
       <c r="D984">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.35">
@@ -17555,13 +17556,13 @@
         <v>1163</v>
       </c>
       <c r="B985" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C985" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D985">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.35">
@@ -17569,41 +17570,41 @@
         <v>1163</v>
       </c>
       <c r="B986" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C986" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="D986">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A987" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B987" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B987" t="s">
         <v>45</v>
       </c>
       <c r="C987" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="D987">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A988" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B988" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B988" t="s">
         <v>47</v>
       </c>
       <c r="C988" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="D988">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.35">
@@ -17611,13 +17612,13 @@
         <v>1174</v>
       </c>
       <c r="B989" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C989" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D989">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.35">
@@ -17625,10 +17626,10 @@
         <v>1174</v>
       </c>
       <c r="B990" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C990" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D990">
         <v>1</v>
@@ -17639,10 +17640,10 @@
         <v>1174</v>
       </c>
       <c r="B991" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C991" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D991">
         <v>1</v>
@@ -17653,10 +17654,10 @@
         <v>1174</v>
       </c>
       <c r="B992" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C992" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D992">
         <v>1</v>
@@ -17667,10 +17668,10 @@
         <v>1174</v>
       </c>
       <c r="B993" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C993" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D993">
         <v>1</v>
@@ -17681,10 +17682,10 @@
         <v>1174</v>
       </c>
       <c r="B994" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C994" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D994">
         <v>1</v>
@@ -17695,13 +17696,13 @@
         <v>1174</v>
       </c>
       <c r="B995" s="2" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C995" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D995">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.35">
@@ -17709,13 +17710,13 @@
         <v>1174</v>
       </c>
       <c r="B996" s="2" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C996" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D996">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.35">
@@ -17723,10 +17724,10 @@
         <v>1174</v>
       </c>
       <c r="B997" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C997" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D997">
         <v>2</v>
@@ -17737,13 +17738,13 @@
         <v>1174</v>
       </c>
       <c r="B998" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C998" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D998">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.35">
@@ -17751,13 +17752,13 @@
         <v>1174</v>
       </c>
       <c r="B999" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C999" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D999">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.35">
@@ -17765,10 +17766,10 @@
         <v>1174</v>
       </c>
       <c r="B1000" s="2" t="s">
-        <v>461</v>
+        <v>101</v>
       </c>
       <c r="C1000" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D1000">
         <v>3</v>
@@ -17779,10 +17780,10 @@
         <v>1174</v>
       </c>
       <c r="B1001" s="2" t="s">
-        <v>463</v>
+        <v>103</v>
       </c>
       <c r="C1001" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D1001">
         <v>3</v>
@@ -17793,10 +17794,10 @@
         <v>1174</v>
       </c>
       <c r="B1002" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C1002" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D1002">
         <v>3</v>
@@ -17807,10 +17808,10 @@
         <v>1174</v>
       </c>
       <c r="B1003" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C1003" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D1003">
         <v>3</v>
@@ -17821,13 +17822,13 @@
         <v>1174</v>
       </c>
       <c r="B1004" s="2" t="s">
-        <v>105</v>
+        <v>465</v>
       </c>
       <c r="C1004" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D1004">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.35">
@@ -17835,13 +17836,13 @@
         <v>1174</v>
       </c>
       <c r="B1005" s="2" t="s">
-        <v>109</v>
+        <v>467</v>
       </c>
       <c r="C1005" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D1005">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.35">
@@ -17849,13 +17850,13 @@
         <v>1174</v>
       </c>
       <c r="B1006" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C1006" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D1006">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1007" spans="1:4" x14ac:dyDescent="0.35">
@@ -17863,41 +17864,41 @@
         <v>1174</v>
       </c>
       <c r="B1007" s="2" t="s">
-        <v>642</v>
+        <v>109</v>
       </c>
       <c r="C1007" t="s">
-        <v>1047</v>
+        <v>1193</v>
       </c>
       <c r="D1007">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1008" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B1008" t="s">
-        <v>5</v>
+        <v>1174</v>
+      </c>
+      <c r="B1008" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C1008" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="D1008">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1009" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B1009" t="s">
-        <v>7</v>
+        <v>1174</v>
+      </c>
+      <c r="B1009" s="2" t="s">
+        <v>642</v>
       </c>
       <c r="C1009" t="s">
-        <v>1197</v>
+        <v>1047</v>
       </c>
       <c r="D1009">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.35">
@@ -17905,13 +17906,13 @@
         <v>1195</v>
       </c>
       <c r="B1010" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1010" t="s">
-        <v>220</v>
+        <v>1196</v>
       </c>
       <c r="D1010">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.35">
@@ -17919,13 +17920,13 @@
         <v>1195</v>
       </c>
       <c r="B1011" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1011" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D1011">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.35">
@@ -17933,13 +17934,13 @@
         <v>1195</v>
       </c>
       <c r="B1012" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1012" t="s">
-        <v>1199</v>
+        <v>220</v>
       </c>
       <c r="D1012">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.35">
@@ -17947,13 +17948,13 @@
         <v>1195</v>
       </c>
       <c r="B1013" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C1013" t="s">
-        <v>532</v>
+        <v>1198</v>
       </c>
       <c r="D1013">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.35">
@@ -17961,13 +17962,13 @@
         <v>1195</v>
       </c>
       <c r="B1014" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1014" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D1014">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.35">
@@ -17975,12 +17976,40 @@
         <v>1195</v>
       </c>
       <c r="B1015" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1015">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1016" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D1016">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1017" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1017" t="s">
         <v>29</v>
       </c>
-      <c r="C1015" t="s">
+      <c r="C1017" t="s">
         <v>1201</v>
       </c>
-      <c r="D1015">
+      <c r="D1017">
         <v>6</v>
       </c>
     </row>

--- a/0_Data/9_Supplementary Information/Education.Codes.All_mapped.xlsx
+++ b/0_Data/9_Supplementary Information/Education.Codes.All_mapped.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="1223">
   <si>
     <t>Country_long</t>
   </si>
@@ -4031,10 +4031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1044"/>
+  <dimension ref="A1:D1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
-      <selection activeCell="E538" sqref="E1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A744" workbookViewId="0">
+      <selection activeCell="A758" sqref="A758"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14431,13 +14431,13 @@
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
-        <v>877</v>
-      </c>
-      <c r="B757" t="s">
-        <v>5</v>
+        <v>855</v>
+      </c>
+      <c r="B757">
+        <v>21</v>
       </c>
       <c r="C757" t="s">
-        <v>878</v>
+        <v>742</v>
       </c>
       <c r="D757">
         <v>0</v>
@@ -14448,13 +14448,13 @@
         <v>877</v>
       </c>
       <c r="B758" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C758" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.35">
@@ -14462,10 +14462,10 @@
         <v>877</v>
       </c>
       <c r="B759" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C759" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D759">
         <v>1</v>
@@ -14476,10 +14476,10 @@
         <v>877</v>
       </c>
       <c r="B760" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C760" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D760">
         <v>1</v>
@@ -14490,13 +14490,13 @@
         <v>877</v>
       </c>
       <c r="B761" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C761" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D761">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:4" x14ac:dyDescent="0.35">
@@ -14504,13 +14504,13 @@
         <v>877</v>
       </c>
       <c r="B762" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C762" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D762">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:4" x14ac:dyDescent="0.35">
@@ -14518,10 +14518,10 @@
         <v>877</v>
       </c>
       <c r="B763" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C763" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D763">
         <v>3</v>
@@ -14532,10 +14532,10 @@
         <v>877</v>
       </c>
       <c r="B764" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C764" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D764">
         <v>3</v>
@@ -14546,10 +14546,10 @@
         <v>877</v>
       </c>
       <c r="B765" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C765" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D765">
         <v>3</v>
@@ -14560,10 +14560,10 @@
         <v>877</v>
       </c>
       <c r="B766" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C766" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D766">
         <v>3</v>
@@ -14574,10 +14574,10 @@
         <v>877</v>
       </c>
       <c r="B767" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C767" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D767">
         <v>3</v>
@@ -14588,13 +14588,13 @@
         <v>877</v>
       </c>
       <c r="B768" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C768" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D768">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="769" spans="1:4" x14ac:dyDescent="0.35">
@@ -14602,10 +14602,10 @@
         <v>877</v>
       </c>
       <c r="B769" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C769" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D769">
         <v>2</v>
@@ -14616,10 +14616,10 @@
         <v>877</v>
       </c>
       <c r="B770" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C770" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D770">
         <v>2</v>
@@ -14630,13 +14630,13 @@
         <v>877</v>
       </c>
       <c r="B771" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C771" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D771">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:4" x14ac:dyDescent="0.35">
@@ -14644,13 +14644,13 @@
         <v>877</v>
       </c>
       <c r="B772" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C772" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D772">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:4" x14ac:dyDescent="0.35">
@@ -14658,10 +14658,10 @@
         <v>877</v>
       </c>
       <c r="B773" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="C773" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D773">
         <v>4</v>
@@ -14672,10 +14672,10 @@
         <v>877</v>
       </c>
       <c r="B774" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="C774" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D774">
         <v>4</v>
@@ -14686,13 +14686,13 @@
         <v>877</v>
       </c>
       <c r="B775" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C775" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D775">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.35">
@@ -14700,13 +14700,13 @@
         <v>877</v>
       </c>
       <c r="B776" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C776" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D776">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.35">
@@ -14714,35 +14714,35 @@
         <v>877</v>
       </c>
       <c r="B777" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="C777" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D777">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>877</v>
       </c>
+      <c r="B778" t="s">
+        <v>19</v>
+      </c>
+      <c r="C778" t="s">
+        <v>898</v>
+      </c>
       <c r="D778">
         <v>9</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
-        <v>899</v>
-      </c>
-      <c r="B779" t="s">
-        <v>5</v>
-      </c>
-      <c r="C779" t="s">
-        <v>900</v>
+        <v>877</v>
       </c>
       <c r="D779">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.35">
@@ -14750,13 +14750,13 @@
         <v>899</v>
       </c>
       <c r="B780" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C780" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.35">
@@ -14764,10 +14764,10 @@
         <v>899</v>
       </c>
       <c r="B781" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C781" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D781">
         <v>1</v>
@@ -14778,10 +14778,10 @@
         <v>899</v>
       </c>
       <c r="B782" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C782" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D782">
         <v>1</v>
@@ -14792,13 +14792,13 @@
         <v>899</v>
       </c>
       <c r="B783" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C783" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D783">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.35">
@@ -14806,13 +14806,13 @@
         <v>899</v>
       </c>
       <c r="B784" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C784" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D784">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.35">
@@ -14820,13 +14820,13 @@
         <v>899</v>
       </c>
       <c r="B785" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C785" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D785">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.35">
@@ -14834,10 +14834,10 @@
         <v>899</v>
       </c>
       <c r="B786" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C786" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D786">
         <v>4</v>
@@ -14848,13 +14848,13 @@
         <v>899</v>
       </c>
       <c r="B787" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C787" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D787">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.35">
@@ -14862,13 +14862,13 @@
         <v>899</v>
       </c>
       <c r="B788" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C788" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D788">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.35">
@@ -14876,13 +14876,13 @@
         <v>899</v>
       </c>
       <c r="B789" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C789" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D789">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.35">
@@ -14890,27 +14890,27 @@
         <v>899</v>
       </c>
       <c r="B790" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C790" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D790">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B791" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C791" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.35">
@@ -14918,10 +14918,10 @@
         <v>912</v>
       </c>
       <c r="B792" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C792" t="s">
-        <v>775</v>
+        <v>913</v>
       </c>
       <c r="D792">
         <v>0</v>
@@ -14932,13 +14932,13 @@
         <v>912</v>
       </c>
       <c r="B793" t="s">
-        <v>914</v>
+        <v>45</v>
       </c>
       <c r="C793" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
       <c r="D793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.35">
@@ -14946,10 +14946,10 @@
         <v>912</v>
       </c>
       <c r="B794" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C794" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D794">
         <v>1</v>
@@ -14960,10 +14960,10 @@
         <v>912</v>
       </c>
       <c r="B795" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C795" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D795">
         <v>1</v>
@@ -14974,10 +14974,10 @@
         <v>912</v>
       </c>
       <c r="B796" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C796" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D796">
         <v>1</v>
@@ -14988,10 +14988,10 @@
         <v>912</v>
       </c>
       <c r="B797" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C797" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D797">
         <v>1</v>
@@ -15002,10 +15002,10 @@
         <v>912</v>
       </c>
       <c r="B798" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C798" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D798">
         <v>1</v>
@@ -15016,10 +15016,10 @@
         <v>912</v>
       </c>
       <c r="B799" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C799" t="s">
-        <v>921</v>
+        <v>801</v>
       </c>
       <c r="D799">
         <v>1</v>
@@ -15030,13 +15030,13 @@
         <v>912</v>
       </c>
       <c r="B800" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C800" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D800">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.35">
@@ -15044,10 +15044,10 @@
         <v>912</v>
       </c>
       <c r="B801" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C801" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D801">
         <v>2</v>
@@ -15058,13 +15058,13 @@
         <v>912</v>
       </c>
       <c r="B802" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C802" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D802">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.35">
@@ -15072,10 +15072,10 @@
         <v>912</v>
       </c>
       <c r="B803" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C803" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D803">
         <v>3</v>
@@ -15086,13 +15086,13 @@
         <v>912</v>
       </c>
       <c r="B804" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C804" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="D804">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.35">
@@ -15100,10 +15100,10 @@
         <v>912</v>
       </c>
       <c r="B805" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C805" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D805">
         <v>4</v>
@@ -15114,13 +15114,13 @@
         <v>912</v>
       </c>
       <c r="B806" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C806" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D806">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.35">
@@ -15128,10 +15128,10 @@
         <v>912</v>
       </c>
       <c r="B807" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C807" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D807">
         <v>5</v>
@@ -15142,13 +15142,13 @@
         <v>912</v>
       </c>
       <c r="B808" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C808" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D808">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.35">
@@ -15156,10 +15156,10 @@
         <v>912</v>
       </c>
       <c r="B809" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C809" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D809">
         <v>6</v>
@@ -15170,13 +15170,13 @@
         <v>912</v>
       </c>
       <c r="B810" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C810" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D810">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.35">
@@ -15184,13 +15184,13 @@
         <v>912</v>
       </c>
       <c r="B811" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C811" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D811">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.35">
@@ -15198,10 +15198,10 @@
         <v>912</v>
       </c>
       <c r="B812" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C812" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D812">
         <v>5</v>
@@ -15212,10 +15212,10 @@
         <v>912</v>
       </c>
       <c r="B813" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C813" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D813">
         <v>5</v>
@@ -15226,10 +15226,10 @@
         <v>912</v>
       </c>
       <c r="B814" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C814" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D814">
         <v>5</v>
@@ -15240,10 +15240,10 @@
         <v>912</v>
       </c>
       <c r="B815" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C815" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D815">
         <v>5</v>
@@ -15254,10 +15254,10 @@
         <v>912</v>
       </c>
       <c r="B816" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C816" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D816">
         <v>5</v>
@@ -15268,10 +15268,10 @@
         <v>912</v>
       </c>
       <c r="B817" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C817" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D817">
         <v>5</v>
@@ -15282,10 +15282,10 @@
         <v>912</v>
       </c>
       <c r="B818" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C818" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D818">
         <v>5</v>
@@ -15296,10 +15296,10 @@
         <v>912</v>
       </c>
       <c r="B819" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C819" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D819">
         <v>5</v>
@@ -15310,10 +15310,10 @@
         <v>912</v>
       </c>
       <c r="B820" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C820" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D820">
         <v>5</v>
@@ -15324,10 +15324,10 @@
         <v>912</v>
       </c>
       <c r="B821" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C821" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D821">
         <v>5</v>
@@ -15338,10 +15338,10 @@
         <v>912</v>
       </c>
       <c r="B822" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C822" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D822">
         <v>5</v>
@@ -15352,10 +15352,10 @@
         <v>912</v>
       </c>
       <c r="B823" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C823" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D823">
         <v>5</v>
@@ -15366,10 +15366,10 @@
         <v>912</v>
       </c>
       <c r="B824" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C824" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D824">
         <v>5</v>
@@ -15380,10 +15380,10 @@
         <v>912</v>
       </c>
       <c r="B825" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C825" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D825">
         <v>5</v>
@@ -15394,10 +15394,10 @@
         <v>912</v>
       </c>
       <c r="B826" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C826" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D826">
         <v>5</v>
@@ -15408,10 +15408,10 @@
         <v>912</v>
       </c>
       <c r="B827" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C827" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D827">
         <v>5</v>
@@ -15422,10 +15422,10 @@
         <v>912</v>
       </c>
       <c r="B828" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C828" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D828">
         <v>5</v>
@@ -15436,10 +15436,10 @@
         <v>912</v>
       </c>
       <c r="B829" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C829" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D829">
         <v>5</v>
@@ -15450,10 +15450,10 @@
         <v>912</v>
       </c>
       <c r="B830" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C830" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D830">
         <v>5</v>
@@ -15464,10 +15464,10 @@
         <v>912</v>
       </c>
       <c r="B831" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C831" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D831">
         <v>5</v>
@@ -15478,10 +15478,10 @@
         <v>912</v>
       </c>
       <c r="B832" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C832" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D832">
         <v>5</v>
@@ -15492,10 +15492,10 @@
         <v>912</v>
       </c>
       <c r="B833" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C833" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D833">
         <v>5</v>
@@ -15506,10 +15506,10 @@
         <v>912</v>
       </c>
       <c r="B834" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C834" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D834">
         <v>5</v>
@@ -15520,13 +15520,13 @@
         <v>912</v>
       </c>
       <c r="B835" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C835" t="s">
-        <v>945</v>
+        <v>991</v>
       </c>
       <c r="D835">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.35">
@@ -15534,10 +15534,10 @@
         <v>912</v>
       </c>
       <c r="B836" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C836" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="D836">
         <v>6</v>
@@ -15548,10 +15548,10 @@
         <v>912</v>
       </c>
       <c r="B837" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C837" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D837">
         <v>6</v>
@@ -15562,10 +15562,10 @@
         <v>912</v>
       </c>
       <c r="B838" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C838" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D838">
         <v>6</v>
@@ -15576,10 +15576,10 @@
         <v>912</v>
       </c>
       <c r="B839" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C839" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D839">
         <v>6</v>
@@ -15590,10 +15590,10 @@
         <v>912</v>
       </c>
       <c r="B840" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C840" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D840">
         <v>6</v>
@@ -15604,10 +15604,10 @@
         <v>912</v>
       </c>
       <c r="B841" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C841" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D841">
         <v>6</v>
@@ -15618,10 +15618,10 @@
         <v>912</v>
       </c>
       <c r="B842" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C842" t="s">
-        <v>1000</v>
+        <v>961</v>
       </c>
       <c r="D842">
         <v>6</v>
@@ -15632,10 +15632,10 @@
         <v>912</v>
       </c>
       <c r="B843" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C843" t="s">
-        <v>963</v>
+        <v>1000</v>
       </c>
       <c r="D843">
         <v>6</v>
@@ -15646,10 +15646,10 @@
         <v>912</v>
       </c>
       <c r="B844" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C844" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D844">
         <v>6</v>
@@ -15660,10 +15660,10 @@
         <v>912</v>
       </c>
       <c r="B845" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C845" t="s">
-        <v>1004</v>
+        <v>965</v>
       </c>
       <c r="D845">
         <v>6</v>
@@ -15674,10 +15674,10 @@
         <v>912</v>
       </c>
       <c r="B846" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C846" t="s">
-        <v>967</v>
+        <v>1004</v>
       </c>
       <c r="D846">
         <v>6</v>
@@ -15688,10 +15688,10 @@
         <v>912</v>
       </c>
       <c r="B847" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C847" t="s">
-        <v>1007</v>
+        <v>967</v>
       </c>
       <c r="D847">
         <v>6</v>
@@ -15702,10 +15702,10 @@
         <v>912</v>
       </c>
       <c r="B848" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C848" t="s">
-        <v>971</v>
+        <v>1007</v>
       </c>
       <c r="D848">
         <v>6</v>
@@ -15716,10 +15716,10 @@
         <v>912</v>
       </c>
       <c r="B849" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C849" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D849">
         <v>6</v>
@@ -15730,10 +15730,10 @@
         <v>912</v>
       </c>
       <c r="B850" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C850" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D850">
         <v>6</v>
@@ -15744,10 +15744,10 @@
         <v>912</v>
       </c>
       <c r="B851" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C851" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D851">
         <v>6</v>
@@ -15758,10 +15758,10 @@
         <v>912</v>
       </c>
       <c r="B852" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C852" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D852">
         <v>6</v>
@@ -15772,10 +15772,10 @@
         <v>912</v>
       </c>
       <c r="B853" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C853" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D853">
         <v>6</v>
@@ -15786,10 +15786,10 @@
         <v>912</v>
       </c>
       <c r="B854" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C854" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D854">
         <v>6</v>
@@ -15800,10 +15800,10 @@
         <v>912</v>
       </c>
       <c r="B855" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C855" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D855">
         <v>6</v>
@@ -15814,10 +15814,10 @@
         <v>912</v>
       </c>
       <c r="B856" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C856" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D856">
         <v>6</v>
@@ -15828,10 +15828,10 @@
         <v>912</v>
       </c>
       <c r="B857" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C857" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D857">
         <v>6</v>
@@ -15842,10 +15842,10 @@
         <v>912</v>
       </c>
       <c r="B858" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C858" t="s">
-        <v>1019</v>
+        <v>989</v>
       </c>
       <c r="D858">
         <v>6</v>
@@ -15853,16 +15853,16 @@
     </row>
     <row r="859" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A859" t="s">
-        <v>1020</v>
+        <v>912</v>
       </c>
       <c r="B859" t="s">
-        <v>5</v>
+        <v>1018</v>
       </c>
       <c r="C859" t="s">
-        <v>734</v>
+        <v>1019</v>
       </c>
       <c r="D859">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="860" spans="1:4" x14ac:dyDescent="0.35">
@@ -15870,10 +15870,10 @@
         <v>1020</v>
       </c>
       <c r="B860" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C860" t="s">
-        <v>1021</v>
+        <v>734</v>
       </c>
       <c r="D860">
         <v>0</v>
@@ -15884,13 +15884,13 @@
         <v>1020</v>
       </c>
       <c r="B861" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C861" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:4" x14ac:dyDescent="0.35">
@@ -15898,10 +15898,10 @@
         <v>1020</v>
       </c>
       <c r="B862" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C862" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D862">
         <v>1</v>
@@ -15912,10 +15912,10 @@
         <v>1020</v>
       </c>
       <c r="B863" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C863" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D863">
         <v>1</v>
@@ -15926,10 +15926,10 @@
         <v>1020</v>
       </c>
       <c r="B864" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C864" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D864">
         <v>1</v>
@@ -15940,10 +15940,10 @@
         <v>1020</v>
       </c>
       <c r="B865" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C865" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D865">
         <v>1</v>
@@ -15954,10 +15954,10 @@
         <v>1020</v>
       </c>
       <c r="B866" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C866" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D866">
         <v>1</v>
@@ -15968,13 +15968,13 @@
         <v>1020</v>
       </c>
       <c r="B867" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="C867" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D867">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.35">
@@ -15982,10 +15982,10 @@
         <v>1020</v>
       </c>
       <c r="B868" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C868" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D868">
         <v>2</v>
@@ -15996,10 +15996,10 @@
         <v>1020</v>
       </c>
       <c r="B869" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C869" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D869">
         <v>2</v>
@@ -16010,10 +16010,10 @@
         <v>1020</v>
       </c>
       <c r="B870" t="s">
-        <v>451</v>
+        <v>99</v>
       </c>
       <c r="C870" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D870">
         <v>2</v>
@@ -16024,10 +16024,10 @@
         <v>1020</v>
       </c>
       <c r="B871" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C871" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D871">
         <v>2</v>
@@ -16038,10 +16038,10 @@
         <v>1020</v>
       </c>
       <c r="B872" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C872" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D872">
         <v>2</v>
@@ -16052,13 +16052,13 @@
         <v>1020</v>
       </c>
       <c r="B873" t="s">
-        <v>101</v>
+        <v>455</v>
       </c>
       <c r="C873" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D873">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.35">
@@ -16066,10 +16066,10 @@
         <v>1020</v>
       </c>
       <c r="B874" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C874" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D874">
         <v>3</v>
@@ -16080,10 +16080,10 @@
         <v>1020</v>
       </c>
       <c r="B875" t="s">
-        <v>461</v>
+        <v>103</v>
       </c>
       <c r="C875" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D875">
         <v>3</v>
@@ -16094,10 +16094,10 @@
         <v>1020</v>
       </c>
       <c r="B876" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C876" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D876">
         <v>3</v>
@@ -16108,10 +16108,10 @@
         <v>1020</v>
       </c>
       <c r="B877" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C877" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D877">
         <v>3</v>
@@ -16122,10 +16122,10 @@
         <v>1020</v>
       </c>
       <c r="B878" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C878" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D878">
         <v>3</v>
@@ -16136,13 +16136,13 @@
         <v>1020</v>
       </c>
       <c r="B879" t="s">
-        <v>105</v>
+        <v>467</v>
       </c>
       <c r="C879" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D879">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="880" spans="1:4" x14ac:dyDescent="0.35">
@@ -16150,10 +16150,10 @@
         <v>1020</v>
       </c>
       <c r="B880" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C880" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D880">
         <v>6</v>
@@ -16164,10 +16164,10 @@
         <v>1020</v>
       </c>
       <c r="B881" t="s">
-        <v>475</v>
+        <v>107</v>
       </c>
       <c r="C881" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D881">
         <v>6</v>
@@ -16178,10 +16178,10 @@
         <v>1020</v>
       </c>
       <c r="B882" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C882" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D882">
         <v>6</v>
@@ -16192,10 +16192,10 @@
         <v>1020</v>
       </c>
       <c r="B883" t="s">
-        <v>841</v>
+        <v>477</v>
       </c>
       <c r="C883" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D883">
         <v>6</v>
@@ -16206,10 +16206,10 @@
         <v>1020</v>
       </c>
       <c r="B884" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C884" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D884">
         <v>6</v>
@@ -16220,10 +16220,10 @@
         <v>1020</v>
       </c>
       <c r="B885" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C885" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D885">
         <v>6</v>
@@ -16234,27 +16234,27 @@
         <v>1020</v>
       </c>
       <c r="B886" t="s">
-        <v>642</v>
+        <v>843</v>
       </c>
       <c r="C886" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D886">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A887" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
       <c r="B887" t="s">
-        <v>5</v>
+        <v>642</v>
       </c>
       <c r="C887" t="s">
-        <v>82</v>
+        <v>1047</v>
       </c>
       <c r="D887">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.35">
@@ -16262,13 +16262,13 @@
         <v>1048</v>
       </c>
       <c r="B888" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C888" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.35">
@@ -16276,13 +16276,13 @@
         <v>1048</v>
       </c>
       <c r="B889" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C889" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D889">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.35">
@@ -16290,10 +16290,10 @@
         <v>1048</v>
       </c>
       <c r="B890" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C890" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D890">
         <v>2</v>
@@ -16304,13 +16304,13 @@
         <v>1048</v>
       </c>
       <c r="B891" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C891" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D891">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.35">
@@ -16318,10 +16318,10 @@
         <v>1048</v>
       </c>
       <c r="B892" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C892" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D892">
         <v>3</v>
@@ -16332,13 +16332,13 @@
         <v>1048</v>
       </c>
       <c r="B893" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C893" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D893">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.35">
@@ -16346,13 +16346,13 @@
         <v>1048</v>
       </c>
       <c r="B894" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C894" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D894">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.35">
@@ -16360,27 +16360,27 @@
         <v>1048</v>
       </c>
       <c r="B895" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C895" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D895">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A896" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B896" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C896" t="s">
-        <v>1050</v>
+        <v>90</v>
       </c>
       <c r="D896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.35">
@@ -16388,10 +16388,10 @@
         <v>1049</v>
       </c>
       <c r="B897" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C897" t="s">
-        <v>796</v>
+        <v>1050</v>
       </c>
       <c r="D897">
         <v>1</v>
@@ -16402,10 +16402,10 @@
         <v>1049</v>
       </c>
       <c r="B898" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C898" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D898">
         <v>1</v>
@@ -16416,10 +16416,10 @@
         <v>1049</v>
       </c>
       <c r="B899" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C899" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D899">
         <v>1</v>
@@ -16430,10 +16430,10 @@
         <v>1049</v>
       </c>
       <c r="B900" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C900" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D900">
         <v>1</v>
@@ -16444,10 +16444,10 @@
         <v>1049</v>
       </c>
       <c r="B901" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C901" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D901">
         <v>1</v>
@@ -16458,10 +16458,10 @@
         <v>1049</v>
       </c>
       <c r="B902" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C902" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D902">
         <v>1</v>
@@ -16472,10 +16472,10 @@
         <v>1049</v>
       </c>
       <c r="B903" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C903" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D903">
         <v>1</v>
@@ -16486,13 +16486,13 @@
         <v>1049</v>
       </c>
       <c r="B904" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C904" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D904">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.35">
@@ -16500,10 +16500,10 @@
         <v>1049</v>
       </c>
       <c r="B905" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C905" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D905">
         <v>2</v>
@@ -16514,10 +16514,10 @@
         <v>1049</v>
       </c>
       <c r="B906" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C906" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D906">
         <v>2</v>
@@ -16528,10 +16528,10 @@
         <v>1049</v>
       </c>
       <c r="B907" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C907" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D907">
         <v>2</v>
@@ -16542,10 +16542,10 @@
         <v>1049</v>
       </c>
       <c r="B908" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C908" t="s">
-        <v>1051</v>
+        <v>806</v>
       </c>
       <c r="D908">
         <v>2</v>
@@ -16556,10 +16556,10 @@
         <v>1049</v>
       </c>
       <c r="B909" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C909" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D909">
         <v>2</v>
@@ -16570,13 +16570,13 @@
         <v>1049</v>
       </c>
       <c r="B910" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C910" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D910">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.35">
@@ -16584,10 +16584,10 @@
         <v>1049</v>
       </c>
       <c r="B911" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C911" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D911">
         <v>3</v>
@@ -16598,10 +16598,10 @@
         <v>1049</v>
       </c>
       <c r="B912" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C912" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D912">
         <v>3</v>
@@ -16612,10 +16612,10 @@
         <v>1049</v>
       </c>
       <c r="B913" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C913" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D913">
         <v>3</v>
@@ -16626,10 +16626,10 @@
         <v>1049</v>
       </c>
       <c r="B914" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C914" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D914">
         <v>3</v>
@@ -16640,10 +16640,10 @@
         <v>1049</v>
       </c>
       <c r="B915" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="C915" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D915">
         <v>3</v>
@@ -16654,10 +16654,10 @@
         <v>1049</v>
       </c>
       <c r="B916" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="C916" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D916">
         <v>3</v>
@@ -16668,10 +16668,10 @@
         <v>1049</v>
       </c>
       <c r="B917" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C917" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D917">
         <v>3</v>
@@ -16682,10 +16682,10 @@
         <v>1049</v>
       </c>
       <c r="B918" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C918" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D918">
         <v>3</v>
@@ -16696,10 +16696,10 @@
         <v>1049</v>
       </c>
       <c r="B919" t="s">
-        <v>451</v>
+        <v>99</v>
       </c>
       <c r="C919" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D919">
         <v>3</v>
@@ -16710,13 +16710,13 @@
         <v>1049</v>
       </c>
       <c r="B920" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C920" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D920">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.35">
@@ -16724,10 +16724,10 @@
         <v>1049</v>
       </c>
       <c r="B921" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C921" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D921">
         <v>4</v>
@@ -16738,13 +16738,13 @@
         <v>1049</v>
       </c>
       <c r="B922" t="s">
-        <v>623</v>
+        <v>455</v>
       </c>
       <c r="C922" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D922">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.35">
@@ -16752,10 +16752,10 @@
         <v>1049</v>
       </c>
       <c r="B923" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C923" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D923">
         <v>6</v>
@@ -16766,13 +16766,13 @@
         <v>1049</v>
       </c>
       <c r="B924" t="s">
-        <v>457</v>
+        <v>625</v>
       </c>
       <c r="C924" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D924">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.35">
@@ -16780,13 +16780,13 @@
         <v>1049</v>
       </c>
       <c r="B925" t="s">
-        <v>161</v>
+        <v>457</v>
       </c>
       <c r="C925" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D925">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.35">
@@ -16794,13 +16794,13 @@
         <v>1049</v>
       </c>
       <c r="B926" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="C926" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D926">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.35">
@@ -16808,10 +16808,10 @@
         <v>1049</v>
       </c>
       <c r="B927" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C927" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D927">
         <v>9</v>
@@ -16822,10 +16822,10 @@
         <v>1049</v>
       </c>
       <c r="B928" t="s">
-        <v>642</v>
+        <v>103</v>
       </c>
       <c r="C928" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D928">
         <v>9</v>
@@ -16836,10 +16836,10 @@
         <v>1049</v>
       </c>
       <c r="B929" t="s">
-        <v>19</v>
+        <v>642</v>
       </c>
       <c r="C929" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D929">
         <v>9</v>
@@ -16847,16 +16847,16 @@
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A930" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="B930" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C930" t="s">
-        <v>67</v>
+        <v>1072</v>
       </c>
       <c r="D930">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.35">
@@ -16864,13 +16864,13 @@
         <v>1073</v>
       </c>
       <c r="B931" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C931" t="s">
-        <v>722</v>
+        <v>67</v>
       </c>
       <c r="D931">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.35">
@@ -16878,13 +16878,13 @@
         <v>1073</v>
       </c>
       <c r="B932" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C932" t="s">
-        <v>1074</v>
+        <v>722</v>
       </c>
       <c r="D932">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.35">
@@ -16892,13 +16892,13 @@
         <v>1073</v>
       </c>
       <c r="B933" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C933" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D933">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.35">
@@ -16906,13 +16906,13 @@
         <v>1073</v>
       </c>
       <c r="B934" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C934" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D934">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.35">
@@ -16920,13 +16920,13 @@
         <v>1073</v>
       </c>
       <c r="B935" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C935" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D935">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.35">
@@ -16934,27 +16934,27 @@
         <v>1073</v>
       </c>
       <c r="B936" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C936" t="s">
-        <v>80</v>
+        <v>1077</v>
       </c>
       <c r="D936">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A937" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B937" t="s">
-        <v>1079</v>
+        <v>17</v>
       </c>
       <c r="C937" t="s">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="D937">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.35">
@@ -16962,13 +16962,13 @@
         <v>1078</v>
       </c>
       <c r="B938" t="s">
-        <v>914</v>
+        <v>1079</v>
       </c>
       <c r="C938" t="s">
-        <v>1080</v>
+        <v>210</v>
       </c>
       <c r="D938">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.35">
@@ -16976,10 +16976,10 @@
         <v>1078</v>
       </c>
       <c r="B939" t="s">
-        <v>1081</v>
+        <v>914</v>
       </c>
       <c r="C939" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D939">
         <v>1</v>
@@ -16990,10 +16990,10 @@
         <v>1078</v>
       </c>
       <c r="B940" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C940" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="D940">
         <v>1</v>
@@ -17004,10 +17004,10 @@
         <v>1078</v>
       </c>
       <c r="B941" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C941" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D941">
         <v>1</v>
@@ -17018,10 +17018,10 @@
         <v>1078</v>
       </c>
       <c r="B942" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C942" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D942">
         <v>1</v>
@@ -17032,10 +17032,10 @@
         <v>1078</v>
       </c>
       <c r="B943" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C943" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D943">
         <v>1</v>
@@ -17046,10 +17046,10 @@
         <v>1078</v>
       </c>
       <c r="B944" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C944" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D944">
         <v>1</v>
@@ -17060,10 +17060,10 @@
         <v>1078</v>
       </c>
       <c r="B945" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C945" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D945">
         <v>1</v>
@@ -17074,13 +17074,13 @@
         <v>1078</v>
       </c>
       <c r="B946" t="s">
-        <v>917</v>
+        <v>1093</v>
       </c>
       <c r="C946" t="s">
-        <v>1080</v>
+        <v>1094</v>
       </c>
       <c r="D946">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.35">
@@ -17088,10 +17088,10 @@
         <v>1078</v>
       </c>
       <c r="B947" t="s">
-        <v>1095</v>
+        <v>917</v>
       </c>
       <c r="C947" t="s">
-        <v>1096</v>
+        <v>1080</v>
       </c>
       <c r="D947">
         <v>4</v>
@@ -17102,10 +17102,10 @@
         <v>1078</v>
       </c>
       <c r="B948" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C948" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D948">
         <v>4</v>
@@ -17116,10 +17116,10 @@
         <v>1078</v>
       </c>
       <c r="B949" t="s">
-        <v>922</v>
+        <v>1097</v>
       </c>
       <c r="C949" t="s">
-        <v>1080</v>
+        <v>1098</v>
       </c>
       <c r="D949">
         <v>4</v>
@@ -17130,13 +17130,13 @@
         <v>1078</v>
       </c>
       <c r="B950" t="s">
-        <v>1099</v>
+        <v>922</v>
       </c>
       <c r="C950" t="s">
-        <v>1100</v>
+        <v>1080</v>
       </c>
       <c r="D950">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.35">
@@ -17144,10 +17144,10 @@
         <v>1078</v>
       </c>
       <c r="B951" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C951" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D951">
         <v>2</v>
@@ -17158,10 +17158,10 @@
         <v>1078</v>
       </c>
       <c r="B952" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C952" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="D952">
         <v>2</v>
@@ -17172,13 +17172,13 @@
         <v>1078</v>
       </c>
       <c r="B953" t="s">
-        <v>924</v>
+        <v>1103</v>
       </c>
       <c r="C953" t="s">
-        <v>1080</v>
+        <v>1104</v>
       </c>
       <c r="D953">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.35">
@@ -17186,7 +17186,7 @@
         <v>1078</v>
       </c>
       <c r="B954" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C954" t="s">
         <v>1080</v>
@@ -17200,7 +17200,7 @@
         <v>1078</v>
       </c>
       <c r="B955" t="s">
-        <v>1105</v>
+        <v>926</v>
       </c>
       <c r="C955" t="s">
         <v>1080</v>
@@ -17214,13 +17214,13 @@
         <v>1078</v>
       </c>
       <c r="B956" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C956" t="s">
-        <v>1107</v>
+        <v>1080</v>
       </c>
       <c r="D956">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.35">
@@ -17228,13 +17228,13 @@
         <v>1078</v>
       </c>
       <c r="B957" t="s">
-        <v>928</v>
+        <v>1106</v>
       </c>
       <c r="C957" t="s">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="D957">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.35">
@@ -17242,13 +17242,13 @@
         <v>1078</v>
       </c>
       <c r="B958" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C958" t="s">
         <v>1080</v>
       </c>
       <c r="D958">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.35">
@@ -17256,10 +17256,10 @@
         <v>1078</v>
       </c>
       <c r="B959" t="s">
-        <v>1108</v>
+        <v>930</v>
       </c>
       <c r="C959" t="s">
-        <v>1109</v>
+        <v>1080</v>
       </c>
       <c r="D959">
         <v>3</v>
@@ -17270,10 +17270,10 @@
         <v>1078</v>
       </c>
       <c r="B960" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C960" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D960">
         <v>3</v>
@@ -17284,10 +17284,10 @@
         <v>1078</v>
       </c>
       <c r="B961" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C961" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D961">
         <v>3</v>
@@ -17298,13 +17298,13 @@
         <v>1078</v>
       </c>
       <c r="B962" t="s">
-        <v>932</v>
+        <v>1112</v>
       </c>
       <c r="C962" t="s">
-        <v>1080</v>
+        <v>1113</v>
       </c>
       <c r="D962">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.35">
@@ -17312,10 +17312,10 @@
         <v>1078</v>
       </c>
       <c r="B963" t="s">
-        <v>1114</v>
+        <v>932</v>
       </c>
       <c r="C963" t="s">
-        <v>1115</v>
+        <v>1080</v>
       </c>
       <c r="D963">
         <v>4</v>
@@ -17326,10 +17326,10 @@
         <v>1078</v>
       </c>
       <c r="B964" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C964" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D964">
         <v>4</v>
@@ -17340,10 +17340,10 @@
         <v>1078</v>
       </c>
       <c r="B965" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C965" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D965">
         <v>4</v>
@@ -17354,10 +17354,10 @@
         <v>1078</v>
       </c>
       <c r="B966" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C966" t="s">
-        <v>1094</v>
+        <v>1119</v>
       </c>
       <c r="D966">
         <v>4</v>
@@ -17368,10 +17368,10 @@
         <v>1078</v>
       </c>
       <c r="B967" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C967" t="s">
-        <v>1080</v>
+        <v>1094</v>
       </c>
       <c r="D967">
         <v>4</v>
@@ -17382,7 +17382,7 @@
         <v>1078</v>
       </c>
       <c r="B968" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C968" t="s">
         <v>1080</v>
@@ -17396,7 +17396,7 @@
         <v>1078</v>
       </c>
       <c r="B969" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C969" t="s">
         <v>1080</v>
@@ -17410,7 +17410,7 @@
         <v>1078</v>
       </c>
       <c r="B970" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C970" t="s">
         <v>1080</v>
@@ -17424,10 +17424,10 @@
         <v>1078</v>
       </c>
       <c r="B971" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C971" t="s">
-        <v>1126</v>
+        <v>1080</v>
       </c>
       <c r="D971">
         <v>4</v>
@@ -17438,10 +17438,10 @@
         <v>1078</v>
       </c>
       <c r="B972" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C972" t="s">
-        <v>1080</v>
+        <v>1126</v>
       </c>
       <c r="D972">
         <v>4</v>
@@ -17452,10 +17452,10 @@
         <v>1078</v>
       </c>
       <c r="B973" t="s">
-        <v>952</v>
+        <v>1127</v>
       </c>
       <c r="C973" t="s">
-        <v>1128</v>
+        <v>1080</v>
       </c>
       <c r="D973">
         <v>4</v>
@@ -17466,10 +17466,10 @@
         <v>1078</v>
       </c>
       <c r="B974" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C974" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D974">
         <v>4</v>
@@ -17480,10 +17480,10 @@
         <v>1078</v>
       </c>
       <c r="B975" t="s">
-        <v>1130</v>
+        <v>954</v>
       </c>
       <c r="C975" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D975">
         <v>4</v>
@@ -17494,13 +17494,13 @@
         <v>1078</v>
       </c>
       <c r="B976" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C976" t="s">
-        <v>1080</v>
+        <v>1131</v>
       </c>
       <c r="D976">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.35">
@@ -17508,10 +17508,10 @@
         <v>1078</v>
       </c>
       <c r="B977" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C977" t="s">
-        <v>1134</v>
+        <v>1080</v>
       </c>
       <c r="D977">
         <v>6</v>
@@ -17522,10 +17522,10 @@
         <v>1078</v>
       </c>
       <c r="B978" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C978" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D978">
         <v>6</v>
@@ -17536,10 +17536,10 @@
         <v>1078</v>
       </c>
       <c r="B979" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C979" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D979">
         <v>6</v>
@@ -17550,10 +17550,10 @@
         <v>1078</v>
       </c>
       <c r="B980" t="s">
-        <v>993</v>
+        <v>1137</v>
       </c>
       <c r="C980" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D980">
         <v>6</v>
@@ -17564,10 +17564,10 @@
         <v>1078</v>
       </c>
       <c r="B981" t="s">
-        <v>1140</v>
+        <v>993</v>
       </c>
       <c r="C981" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D981">
         <v>6</v>
@@ -17578,10 +17578,10 @@
         <v>1078</v>
       </c>
       <c r="B982" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C982" t="s">
-        <v>1080</v>
+        <v>1141</v>
       </c>
       <c r="D982">
         <v>6</v>
@@ -17592,13 +17592,13 @@
         <v>1078</v>
       </c>
       <c r="B983" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C983" t="s">
         <v>1080</v>
       </c>
       <c r="D983">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.35">
@@ -17606,10 +17606,10 @@
         <v>1078</v>
       </c>
       <c r="B984" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C984" t="s">
-        <v>1145</v>
+        <v>1080</v>
       </c>
       <c r="D984">
         <v>7</v>
@@ -17620,13 +17620,13 @@
         <v>1078</v>
       </c>
       <c r="B985" t="s">
-        <v>934</v>
+        <v>1144</v>
       </c>
       <c r="C985" t="s">
-        <v>1080</v>
+        <v>1145</v>
       </c>
       <c r="D985">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.35">
@@ -17634,10 +17634,10 @@
         <v>1078</v>
       </c>
       <c r="B986" t="s">
-        <v>1146</v>
+        <v>934</v>
       </c>
       <c r="C986" t="s">
-        <v>1147</v>
+        <v>1080</v>
       </c>
       <c r="D986">
         <v>8</v>
@@ -17648,10 +17648,10 @@
         <v>1078</v>
       </c>
       <c r="B987" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="C987" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D987">
         <v>8</v>
@@ -17662,10 +17662,10 @@
         <v>1078</v>
       </c>
       <c r="B988" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="C988" t="s">
-        <v>1080</v>
+        <v>1149</v>
       </c>
       <c r="D988">
         <v>8</v>
@@ -17676,7 +17676,7 @@
         <v>1078</v>
       </c>
       <c r="B989" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C989" t="s">
         <v>1080</v>
@@ -17690,13 +17690,13 @@
         <v>1078</v>
       </c>
       <c r="B990" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C990" t="s">
-        <v>1153</v>
+        <v>1080</v>
       </c>
       <c r="D990">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.35">
@@ -17704,10 +17704,10 @@
         <v>1078</v>
       </c>
       <c r="B991" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C991" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D991">
         <v>9</v>
@@ -17718,10 +17718,10 @@
         <v>1078</v>
       </c>
       <c r="B992" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C992" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D992">
         <v>9</v>
@@ -17732,10 +17732,10 @@
         <v>1078</v>
       </c>
       <c r="B993" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C993" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D993">
         <v>9</v>
@@ -17746,10 +17746,10 @@
         <v>1078</v>
       </c>
       <c r="B994" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="C994" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="D994">
         <v>9</v>
@@ -17757,16 +17757,16 @@
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A995" t="s">
-        <v>1162</v>
+        <v>1078</v>
       </c>
       <c r="B995" t="s">
-        <v>5</v>
+        <v>1160</v>
       </c>
       <c r="C995" t="s">
-        <v>82</v>
+        <v>1161</v>
       </c>
       <c r="D995">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.35">
@@ -17774,13 +17774,13 @@
         <v>1162</v>
       </c>
       <c r="B996" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C996" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D996">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.35">
@@ -17788,13 +17788,13 @@
         <v>1162</v>
       </c>
       <c r="B997" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C997" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D997">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.35">
@@ -17802,10 +17802,10 @@
         <v>1162</v>
       </c>
       <c r="B998" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C998" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D998">
         <v>2</v>
@@ -17816,13 +17816,13 @@
         <v>1162</v>
       </c>
       <c r="B999" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C999" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D999">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.35">
@@ -17830,10 +17830,10 @@
         <v>1162</v>
       </c>
       <c r="B1000" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1000" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1000">
         <v>3</v>
@@ -17844,13 +17844,13 @@
         <v>1162</v>
       </c>
       <c r="B1001" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1001" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1001">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.35">
@@ -17858,13 +17858,13 @@
         <v>1162</v>
       </c>
       <c r="B1002" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1002" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1002">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.35">
@@ -17872,24 +17872,24 @@
         <v>1162</v>
       </c>
       <c r="B1003" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1003" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D1003">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1004" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1004" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B1004" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C1004" t="s">
-        <v>1164</v>
+        <v>90</v>
       </c>
       <c r="D1004">
         <v>0</v>
@@ -17900,10 +17900,10 @@
         <v>1163</v>
       </c>
       <c r="B1005" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1005" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D1005">
         <v>0</v>
@@ -17914,13 +17914,13 @@
         <v>1163</v>
       </c>
       <c r="B1006" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1006" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D1006">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:4" x14ac:dyDescent="0.35">
@@ -17928,10 +17928,10 @@
         <v>1163</v>
       </c>
       <c r="B1007" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1007" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D1007">
         <v>1</v>
@@ -17942,13 +17942,13 @@
         <v>1163</v>
       </c>
       <c r="B1008" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1008" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D1008">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.35">
@@ -17956,13 +17956,13 @@
         <v>1163</v>
       </c>
       <c r="B1009" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1009" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D1009">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.35">
@@ -17970,13 +17970,13 @@
         <v>1163</v>
       </c>
       <c r="B1010" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1010" t="s">
-        <v>785</v>
+        <v>1169</v>
       </c>
       <c r="D1010">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.35">
@@ -17984,13 +17984,13 @@
         <v>1163</v>
       </c>
       <c r="B1011" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C1011" t="s">
-        <v>1170</v>
+        <v>785</v>
       </c>
       <c r="D1011">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.35">
@@ -17998,13 +17998,13 @@
         <v>1163</v>
       </c>
       <c r="B1012" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1012" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D1012">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.35">
@@ -18012,13 +18012,13 @@
         <v>1163</v>
       </c>
       <c r="B1013" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C1013" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="D1013">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.35">
@@ -18026,27 +18026,27 @@
         <v>1163</v>
       </c>
       <c r="B1014" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1014" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D1014">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1015" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1015" s="2" t="s">
-        <v>45</v>
+        <v>1163</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>47</v>
       </c>
       <c r="C1015" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D1015">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.35">
@@ -18054,13 +18054,13 @@
         <v>1174</v>
       </c>
       <c r="B1016" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1016" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D1016">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.35">
@@ -18068,10 +18068,10 @@
         <v>1174</v>
       </c>
       <c r="B1017" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1017" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D1017">
         <v>1</v>
@@ -18082,10 +18082,10 @@
         <v>1174</v>
       </c>
       <c r="B1018" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1018" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D1018">
         <v>1</v>
@@ -18096,10 +18096,10 @@
         <v>1174</v>
       </c>
       <c r="B1019" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1019" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D1019">
         <v>1</v>
@@ -18110,10 +18110,10 @@
         <v>1174</v>
       </c>
       <c r="B1020" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1020" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D1020">
         <v>1</v>
@@ -18124,10 +18124,10 @@
         <v>1174</v>
       </c>
       <c r="B1021" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1021" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D1021">
         <v>1</v>
@@ -18138,10 +18138,10 @@
         <v>1174</v>
       </c>
       <c r="B1022" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C1022" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D1022">
         <v>1</v>
@@ -18152,13 +18152,13 @@
         <v>1174</v>
       </c>
       <c r="B1023" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C1023" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D1023">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.35">
@@ -18166,10 +18166,10 @@
         <v>1174</v>
       </c>
       <c r="B1024" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C1024" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D1024">
         <v>2</v>
@@ -18180,10 +18180,10 @@
         <v>1174</v>
       </c>
       <c r="B1025" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C1025" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D1025">
         <v>2</v>
@@ -18194,13 +18194,13 @@
         <v>1174</v>
       </c>
       <c r="B1026" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1026" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D1026">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:4" x14ac:dyDescent="0.35">
@@ -18208,10 +18208,10 @@
         <v>1174</v>
       </c>
       <c r="B1027" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1027" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D1027">
         <v>3</v>
@@ -18222,10 +18222,10 @@
         <v>1174</v>
       </c>
       <c r="B1028" s="2" t="s">
-        <v>461</v>
+        <v>103</v>
       </c>
       <c r="C1028" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D1028">
         <v>3</v>
@@ -18236,10 +18236,10 @@
         <v>1174</v>
       </c>
       <c r="B1029" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C1029" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D1029">
         <v>3</v>
@@ -18250,10 +18250,10 @@
         <v>1174</v>
       </c>
       <c r="B1030" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C1030" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D1030">
         <v>3</v>
@@ -18264,10 +18264,10 @@
         <v>1174</v>
       </c>
       <c r="B1031" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C1031" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D1031">
         <v>3</v>
@@ -18278,13 +18278,13 @@
         <v>1174</v>
       </c>
       <c r="B1032" s="2" t="s">
-        <v>105</v>
+        <v>467</v>
       </c>
       <c r="C1032" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D1032">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.35">
@@ -18292,13 +18292,13 @@
         <v>1174</v>
       </c>
       <c r="B1033" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C1033" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D1033">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1034" spans="1:4" x14ac:dyDescent="0.35">
@@ -18306,13 +18306,13 @@
         <v>1174</v>
       </c>
       <c r="B1034" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C1034" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D1034">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.35">
@@ -18320,41 +18320,41 @@
         <v>1174</v>
       </c>
       <c r="B1035" s="2" t="s">
-        <v>642</v>
+        <v>113</v>
       </c>
       <c r="C1035" t="s">
-        <v>1047</v>
+        <v>1194</v>
       </c>
       <c r="D1035">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1036" t="s">
         <v>1174</v>
       </c>
-      <c r="B1036" s="4">
-        <v>99</v>
+      <c r="B1036" s="2" t="s">
+        <v>642</v>
       </c>
       <c r="C1036" t="s">
-        <v>67</v>
+        <v>1047</v>
       </c>
       <c r="D1036">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1037" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>5</v>
+        <v>1174</v>
+      </c>
+      <c r="B1037" s="4">
+        <v>99</v>
       </c>
       <c r="C1037" t="s">
-        <v>1196</v>
+        <v>67</v>
       </c>
       <c r="D1037">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.35">
@@ -18362,13 +18362,13 @@
         <v>1195</v>
       </c>
       <c r="B1038" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1038" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D1038">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:4" x14ac:dyDescent="0.35">
@@ -18376,13 +18376,13 @@
         <v>1195</v>
       </c>
       <c r="B1039" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C1039" t="s">
-        <v>220</v>
+        <v>1197</v>
       </c>
       <c r="D1039">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.35">
@@ -18390,13 +18390,13 @@
         <v>1195</v>
       </c>
       <c r="B1040" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1040" t="s">
-        <v>1198</v>
+        <v>220</v>
       </c>
       <c r="D1040">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.35">
@@ -18404,13 +18404,13 @@
         <v>1195</v>
       </c>
       <c r="B1041" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1041" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D1041">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.35">
@@ -18418,13 +18418,13 @@
         <v>1195</v>
       </c>
       <c r="B1042" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1042" t="s">
-        <v>532</v>
+        <v>1199</v>
       </c>
       <c r="D1042">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.35">
@@ -18432,13 +18432,13 @@
         <v>1195</v>
       </c>
       <c r="B1043" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1043" t="s">
-        <v>1200</v>
+        <v>532</v>
       </c>
       <c r="D1043">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.35">
@@ -18446,12 +18446,26 @@
         <v>1195</v>
       </c>
       <c r="B1044" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D1044">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1045" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1045" t="s">
         <v>29</v>
       </c>
-      <c r="C1044" t="s">
+      <c r="C1045" t="s">
         <v>1201</v>
       </c>
-      <c r="D1044">
+      <c r="D1045">
         <v>6</v>
       </c>
     </row>

--- a/0_Data/9_Supplementary Information/Education.Codes.All_mapped.xlsx
+++ b/0_Data/9_Supplementary Information/Education.Codes.All_mapped.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="1229">
   <si>
     <t>Country_long</t>
   </si>
@@ -3688,6 +3688,24 @@
   </si>
   <si>
     <t>630</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>No answer</t>
+  </si>
+  <si>
+    <t>No degree</t>
+  </si>
+  <si>
+    <t>Higher secondary</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -4031,10 +4049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1045"/>
+  <dimension ref="A1:D1055"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A744" workbookViewId="0">
-      <selection activeCell="A758" sqref="A758"/>
+    <sheetView tabSelected="1" topLeftCell="A1038" workbookViewId="0">
+      <selection activeCell="A1046" sqref="A1046:D1055"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18469,6 +18487,146 @@
         <v>6</v>
       </c>
     </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1046" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D1046">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1047" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D1047">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1048" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>722</v>
+      </c>
+      <c r="D1048">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1049" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D1049">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1050" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D1050">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1051" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1051">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1052" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>745</v>
+      </c>
+      <c r="D1052">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1053" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D1053">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1054" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1054">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1055" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D1055">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/0_Data/9_Supplementary Information/Education.Codes.All_mapped.xlsx
+++ b/0_Data/9_Supplementary Information/Education.Codes.All_mapped.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="1287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="1314">
   <si>
     <t>Country_long</t>
   </si>
@@ -3880,6 +3880,87 @@
   </si>
   <si>
     <t>doctor of philosophy</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>Literacy</t>
+  </si>
+  <si>
+    <t>Primary EP1</t>
+  </si>
+  <si>
+    <t>Primary EP2</t>
+  </si>
+  <si>
+    <t>Secondary ESG1</t>
+  </si>
+  <si>
+    <t>Secondary EGS2</t>
+  </si>
+  <si>
+    <t>Elementary Technician</t>
+  </si>
+  <si>
+    <t>Basic technician</t>
+  </si>
+  <si>
+    <t>Medium technician</t>
+  </si>
+  <si>
+    <t>For. of teachers</t>
+  </si>
+  <si>
+    <t>Higher</t>
+  </si>
+  <si>
+    <t>Do not know</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>General or incomplete secondary school</t>
+  </si>
+  <si>
+    <t>Complete secondary school</t>
+  </si>
+  <si>
+    <t>Vocational training without secondary education</t>
+  </si>
+  <si>
+    <t>Vocational training with secondary education</t>
+  </si>
+  <si>
+    <t>Technial community college, medical, music, pedagogical</t>
+  </si>
+  <si>
+    <t>Graduate course</t>
+  </si>
+  <si>
+    <t>Post-graduate course</t>
+  </si>
+  <si>
+    <t>Institute, university, academy, specialist diploma</t>
+  </si>
+  <si>
+    <t>Institute, university, academy, bachelor's degree</t>
+  </si>
+  <si>
+    <t>Institute, university, academy, master's degree</t>
+  </si>
+  <si>
+    <t>Doctoral</t>
+  </si>
+  <si>
+    <t>Does not know</t>
+  </si>
+  <si>
+    <t>Professional courses of driving, accounting, typing</t>
   </si>
 </sst>
 </file>
@@ -4223,10 +4304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1112"/>
+  <dimension ref="A1:D1138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A957" workbookViewId="0">
-      <selection activeCell="C987" sqref="C987"/>
+    <sheetView tabSelected="1" topLeftCell="A906" workbookViewId="0">
+      <selection activeCell="C929" sqref="C929"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13278,27 +13359,27 @@
     </row>
     <row r="649" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
-        <v>795</v>
-      </c>
-      <c r="B649" t="s">
-        <v>34</v>
+        <v>1287</v>
+      </c>
+      <c r="B649" s="3" t="s">
+        <v>1288</v>
       </c>
       <c r="C649" t="s">
-        <v>67</v>
+        <v>1289</v>
       </c>
       <c r="D649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
-        <v>795</v>
-      </c>
-      <c r="B650" t="s">
-        <v>5</v>
+        <v>1287</v>
+      </c>
+      <c r="B650" s="3" t="s">
+        <v>773</v>
       </c>
       <c r="C650" t="s">
-        <v>796</v>
+        <v>1290</v>
       </c>
       <c r="D650">
         <v>1</v>
@@ -13306,13 +13387,13 @@
     </row>
     <row r="651" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
-        <v>795</v>
-      </c>
-      <c r="B651" t="s">
-        <v>7</v>
+        <v>1287</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>774</v>
       </c>
       <c r="C651" t="s">
-        <v>797</v>
+        <v>1291</v>
       </c>
       <c r="D651">
         <v>1</v>
@@ -13320,128 +13401,128 @@
     </row>
     <row r="652" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
-        <v>795</v>
-      </c>
-      <c r="B652" t="s">
-        <v>9</v>
+        <v>1287</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>776</v>
       </c>
       <c r="C652" t="s">
-        <v>798</v>
+        <v>1292</v>
       </c>
       <c r="D652">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
-        <v>795</v>
-      </c>
-      <c r="B653" t="s">
-        <v>11</v>
+        <v>1287</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>778</v>
       </c>
       <c r="C653" t="s">
-        <v>799</v>
+        <v>1293</v>
       </c>
       <c r="D653">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="654" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
-        <v>795</v>
-      </c>
-      <c r="B654" t="s">
-        <v>13</v>
+        <v>1287</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>779</v>
       </c>
       <c r="C654" t="s">
-        <v>800</v>
+        <v>1294</v>
       </c>
       <c r="D654">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="655" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
-        <v>795</v>
-      </c>
-      <c r="B655" t="s">
-        <v>15</v>
+        <v>1287</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>781</v>
       </c>
       <c r="C655" t="s">
-        <v>801</v>
+        <v>1295</v>
       </c>
       <c r="D655">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="656" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
-        <v>795</v>
-      </c>
-      <c r="B656" t="s">
-        <v>17</v>
+        <v>1287</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>782</v>
       </c>
       <c r="C656" t="s">
-        <v>802</v>
+        <v>1296</v>
       </c>
       <c r="D656">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="657" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
-        <v>795</v>
-      </c>
-      <c r="B657" t="s">
-        <v>29</v>
+        <v>1287</v>
+      </c>
+      <c r="B657" s="3" t="s">
+        <v>784</v>
       </c>
       <c r="C657" t="s">
-        <v>803</v>
+        <v>1297</v>
       </c>
       <c r="D657">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="658" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
-        <v>795</v>
-      </c>
-      <c r="B658" t="s">
-        <v>31</v>
+        <v>1287</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>786</v>
       </c>
       <c r="C658" t="s">
-        <v>804</v>
+        <v>1298</v>
       </c>
       <c r="D658">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="659" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
-        <v>795</v>
-      </c>
-      <c r="B659" t="s">
-        <v>45</v>
+        <v>1287</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>642</v>
       </c>
       <c r="C659" t="s">
-        <v>805</v>
+        <v>1299</v>
       </c>
       <c r="D659">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="660" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
-        <v>795</v>
-      </c>
-      <c r="B660" t="s">
-        <v>47</v>
+        <v>1287</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C660" t="s">
-        <v>806</v>
+        <v>742</v>
       </c>
       <c r="D660">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:4" x14ac:dyDescent="0.35">
@@ -13449,13 +13530,13 @@
         <v>795</v>
       </c>
       <c r="B661" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C661" t="s">
-        <v>717</v>
+        <v>67</v>
       </c>
       <c r="D661">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:4" x14ac:dyDescent="0.35">
@@ -13463,13 +13544,13 @@
         <v>795</v>
       </c>
       <c r="B662" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C662" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="D662">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:4" x14ac:dyDescent="0.35">
@@ -13477,13 +13558,13 @@
         <v>795</v>
       </c>
       <c r="B663" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C663" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="D663">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:4" x14ac:dyDescent="0.35">
@@ -13491,13 +13572,13 @@
         <v>795</v>
       </c>
       <c r="B664" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C664" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="D664">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:4" x14ac:dyDescent="0.35">
@@ -13505,13 +13586,13 @@
         <v>795</v>
       </c>
       <c r="B665" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C665" t="s">
-        <v>718</v>
+        <v>799</v>
       </c>
       <c r="D665">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:4" x14ac:dyDescent="0.35">
@@ -13519,13 +13600,13 @@
         <v>795</v>
       </c>
       <c r="B666" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="C666" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="D666">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:4" x14ac:dyDescent="0.35">
@@ -13533,13 +13614,13 @@
         <v>795</v>
       </c>
       <c r="B667" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C667" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="D667">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:4" x14ac:dyDescent="0.35">
@@ -13547,13 +13628,13 @@
         <v>795</v>
       </c>
       <c r="B668" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C668" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="D668">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:4" x14ac:dyDescent="0.35">
@@ -13561,181 +13642,181 @@
         <v>795</v>
       </c>
       <c r="B669" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="C669" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D669">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B670" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C670" t="s">
-        <v>525</v>
+        <v>804</v>
       </c>
       <c r="D670">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="671" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B671" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C671" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="D671">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="672" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B672" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C672" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="D672">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="673" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B673" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C673" t="s">
-        <v>533</v>
+        <v>717</v>
       </c>
       <c r="D673">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="674" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B674" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C674" t="s">
-        <v>534</v>
+        <v>807</v>
       </c>
       <c r="D674">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="675" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B675" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C675" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="D675">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="676" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B676" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C676" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="D676">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="677" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B677" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C677" t="s">
-        <v>819</v>
+        <v>718</v>
       </c>
       <c r="D677">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="678" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B678" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C678" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="D678">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="679" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B679" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C679" t="s">
-        <v>522</v>
+        <v>811</v>
       </c>
       <c r="D679">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="680" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B680" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C680" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="D680">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="681" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B681" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="C681" t="s">
-        <v>670</v>
+        <v>813</v>
       </c>
       <c r="D681">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="682" spans="1:4" x14ac:dyDescent="0.35">
@@ -13743,13 +13824,13 @@
         <v>814</v>
       </c>
       <c r="B682" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C682" t="s">
-        <v>822</v>
+        <v>525</v>
       </c>
       <c r="D682">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:4" x14ac:dyDescent="0.35">
@@ -13757,13 +13838,13 @@
         <v>814</v>
       </c>
       <c r="B683" t="s">
-        <v>642</v>
+        <v>5</v>
       </c>
       <c r="C683" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D683">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:4" x14ac:dyDescent="0.35">
@@ -13771,307 +13852,307 @@
         <v>814</v>
       </c>
       <c r="B684" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C684" t="s">
-        <v>510</v>
+        <v>816</v>
       </c>
       <c r="D684">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B685" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C685" t="s">
-        <v>82</v>
+        <v>533</v>
       </c>
       <c r="D685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B686" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C686" t="s">
-        <v>83</v>
+        <v>534</v>
       </c>
       <c r="D686">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B687" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C687" t="s">
-        <v>512</v>
+        <v>817</v>
       </c>
       <c r="D687">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="688" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B688" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C688" t="s">
-        <v>513</v>
+        <v>818</v>
       </c>
       <c r="D688">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="689" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B689" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C689" t="s">
-        <v>514</v>
+        <v>819</v>
       </c>
       <c r="D689">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="690" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B690" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C690" t="s">
-        <v>515</v>
+        <v>820</v>
       </c>
       <c r="D690">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="691" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B691" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C691" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="D691">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="692" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B692" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C692" t="s">
-        <v>89</v>
+        <v>821</v>
       </c>
       <c r="D692">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="693" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="B693" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C693" t="s">
-        <v>90</v>
+        <v>670</v>
       </c>
       <c r="D693">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="694" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="B694" t="s">
+        <v>49</v>
+      </c>
+      <c r="C694" t="s">
+        <v>822</v>
+      </c>
+      <c r="D694">
         <v>5</v>
-      </c>
-      <c r="C694" t="s">
-        <v>826</v>
-      </c>
-      <c r="D694">
-        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="B695" t="s">
-        <v>7</v>
+        <v>642</v>
       </c>
       <c r="C695" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D695">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="696" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="B696" t="s">
+        <v>19</v>
+      </c>
+      <c r="C696" t="s">
+        <v>510</v>
+      </c>
+      <c r="D696">
         <v>9</v>
-      </c>
-      <c r="C696" t="s">
-        <v>828</v>
-      </c>
-      <c r="D696">
-        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B697" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C697" t="s">
-        <v>829</v>
+        <v>82</v>
       </c>
       <c r="D697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B698" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C698" t="s">
-        <v>830</v>
+        <v>83</v>
       </c>
       <c r="D698">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B699" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C699" t="s">
-        <v>831</v>
+        <v>512</v>
       </c>
       <c r="D699">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B700" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C700" t="s">
-        <v>832</v>
+        <v>513</v>
       </c>
       <c r="D700">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B701" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C701" t="s">
-        <v>833</v>
+        <v>514</v>
       </c>
       <c r="D701">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="702" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B702" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C702" t="s">
-        <v>834</v>
+        <v>515</v>
       </c>
       <c r="D702">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="703" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B703" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C703" t="s">
-        <v>835</v>
+        <v>516</v>
       </c>
       <c r="D703">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="704" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B704" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C704" t="s">
-        <v>836</v>
+        <v>89</v>
       </c>
       <c r="D704">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="705" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B705" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="C705" t="s">
-        <v>837</v>
+        <v>90</v>
       </c>
       <c r="D705">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:4" x14ac:dyDescent="0.35">
@@ -14079,145 +14160,181 @@
         <v>825</v>
       </c>
       <c r="B706" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="C706" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="D706">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A707" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B707" s="1" t="s">
-        <v>31</v>
+      <c r="A707" t="s">
+        <v>825</v>
+      </c>
+      <c r="B707" t="s">
+        <v>7</v>
+      </c>
+      <c r="C707" t="s">
+        <v>827</v>
       </c>
       <c r="D707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A708" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B708" s="1" t="s">
-        <v>63</v>
+      <c r="A708" t="s">
+        <v>825</v>
+      </c>
+      <c r="B708" t="s">
+        <v>9</v>
+      </c>
+      <c r="C708" t="s">
+        <v>828</v>
       </c>
       <c r="D708">
         <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A709" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B709" s="1" t="s">
-        <v>200</v>
+      <c r="A709" t="s">
+        <v>825</v>
+      </c>
+      <c r="B709" t="s">
+        <v>13</v>
+      </c>
+      <c r="C709" t="s">
+        <v>829</v>
       </c>
       <c r="D709">
         <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A710" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B710" s="1" t="s">
-        <v>457</v>
+      <c r="A710" t="s">
+        <v>825</v>
+      </c>
+      <c r="B710" t="s">
+        <v>15</v>
+      </c>
+      <c r="C710" t="s">
+        <v>830</v>
       </c>
       <c r="D710">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="711" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A711" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B711" s="1" t="s">
-        <v>161</v>
+      <c r="A711" t="s">
+        <v>825</v>
+      </c>
+      <c r="B711" t="s">
+        <v>17</v>
+      </c>
+      <c r="C711" t="s">
+        <v>831</v>
       </c>
       <c r="D711">
         <v>3</v>
       </c>
     </row>
     <row r="712" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A712" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B712" s="1" t="s">
-        <v>101</v>
+      <c r="A712" t="s">
+        <v>825</v>
+      </c>
+      <c r="B712" t="s">
+        <v>29</v>
+      </c>
+      <c r="C712" t="s">
+        <v>832</v>
       </c>
       <c r="D712">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="713" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A713" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B713" s="1" t="s">
-        <v>103</v>
+      <c r="A713" t="s">
+        <v>825</v>
+      </c>
+      <c r="B713" t="s">
+        <v>31</v>
+      </c>
+      <c r="C713" t="s">
+        <v>833</v>
       </c>
       <c r="D713">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="714" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A714" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B714" s="1" t="s">
-        <v>463</v>
+      <c r="A714" t="s">
+        <v>825</v>
+      </c>
+      <c r="B714" t="s">
+        <v>47</v>
+      </c>
+      <c r="C714" t="s">
+        <v>834</v>
       </c>
       <c r="D714">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="715" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A715" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B715" s="1" t="s">
-        <v>465</v>
+      <c r="A715" t="s">
+        <v>825</v>
+      </c>
+      <c r="B715" t="s">
+        <v>49</v>
+      </c>
+      <c r="C715" t="s">
+        <v>835</v>
       </c>
       <c r="D715">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="716" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A716" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B716" s="1" t="s">
-        <v>467</v>
+      <c r="A716" t="s">
+        <v>825</v>
+      </c>
+      <c r="B716" t="s">
+        <v>51</v>
+      </c>
+      <c r="C716" t="s">
+        <v>836</v>
       </c>
       <c r="D716">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="717" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A717" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B717" s="1" t="s">
-        <v>469</v>
+      <c r="A717" t="s">
+        <v>825</v>
+      </c>
+      <c r="B717" t="s">
+        <v>105</v>
+      </c>
+      <c r="C717" t="s">
+        <v>837</v>
       </c>
       <c r="D717">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="718" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A718" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="B718" s="1" t="s">
-        <v>840</v>
+      <c r="A718" t="s">
+        <v>825</v>
+      </c>
+      <c r="B718" t="s">
+        <v>107</v>
+      </c>
+      <c r="C718" t="s">
+        <v>838</v>
       </c>
       <c r="D718">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="719" spans="1:4" x14ac:dyDescent="0.35">
@@ -14225,10 +14342,10 @@
         <v>839</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="D719">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:4" x14ac:dyDescent="0.35">
@@ -14236,10 +14353,10 @@
         <v>839</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="D720">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:4" x14ac:dyDescent="0.35">
@@ -14247,10 +14364,10 @@
         <v>839</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
       <c r="D721">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:4" x14ac:dyDescent="0.35">
@@ -14258,10 +14375,10 @@
         <v>839</v>
       </c>
       <c r="B722" s="1" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="D722">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:4" x14ac:dyDescent="0.35">
@@ -14269,7 +14386,7 @@
         <v>839</v>
       </c>
       <c r="B723" s="1" t="s">
-        <v>477</v>
+        <v>161</v>
       </c>
       <c r="D723">
         <v>3</v>
@@ -14280,7 +14397,7 @@
         <v>839</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>841</v>
+        <v>101</v>
       </c>
       <c r="D724">
         <v>3</v>
@@ -14291,7 +14408,7 @@
         <v>839</v>
       </c>
       <c r="B725" s="1" t="s">
-        <v>842</v>
+        <v>103</v>
       </c>
       <c r="D725">
         <v>3</v>
@@ -14302,7 +14419,7 @@
         <v>839</v>
       </c>
       <c r="B726" s="1" t="s">
-        <v>843</v>
+        <v>463</v>
       </c>
       <c r="D726">
         <v>3</v>
@@ -14313,7 +14430,7 @@
         <v>839</v>
       </c>
       <c r="B727" s="1" t="s">
-        <v>844</v>
+        <v>465</v>
       </c>
       <c r="D727">
         <v>3</v>
@@ -14324,7 +14441,7 @@
         <v>839</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D728">
         <v>3</v>
@@ -14335,10 +14452,10 @@
         <v>839</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>165</v>
+        <v>469</v>
       </c>
       <c r="D729">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="730" spans="1:4" x14ac:dyDescent="0.35">
@@ -14346,10 +14463,10 @@
         <v>839</v>
       </c>
       <c r="B730" s="1" t="s">
-        <v>109</v>
+        <v>840</v>
       </c>
       <c r="D730">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="731" spans="1:4" x14ac:dyDescent="0.35">
@@ -14357,10 +14474,10 @@
         <v>839</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>485</v>
+        <v>163</v>
       </c>
       <c r="D731">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="732" spans="1:4" x14ac:dyDescent="0.35">
@@ -14368,10 +14485,10 @@
         <v>839</v>
       </c>
       <c r="B732" s="1" t="s">
-        <v>487</v>
+        <v>105</v>
       </c>
       <c r="D732">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="733" spans="1:4" x14ac:dyDescent="0.35">
@@ -14379,10 +14496,10 @@
         <v>839</v>
       </c>
       <c r="B733" s="1" t="s">
-        <v>489</v>
+        <v>107</v>
       </c>
       <c r="D733">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="734" spans="1:4" x14ac:dyDescent="0.35">
@@ -14390,10 +14507,10 @@
         <v>839</v>
       </c>
       <c r="B734" s="1" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="D734">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="735" spans="1:4" x14ac:dyDescent="0.35">
@@ -14401,10 +14518,10 @@
         <v>839</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>113</v>
+        <v>477</v>
       </c>
       <c r="D735">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="736" spans="1:4" x14ac:dyDescent="0.35">
@@ -14412,10 +14529,10 @@
         <v>839</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>115</v>
+        <v>841</v>
       </c>
       <c r="D736">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="737" spans="1:4" x14ac:dyDescent="0.35">
@@ -14423,10 +14540,10 @@
         <v>839</v>
       </c>
       <c r="B737" s="1" t="s">
-        <v>117</v>
+        <v>842</v>
       </c>
       <c r="D737">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="738" spans="1:4" x14ac:dyDescent="0.35">
@@ -14434,10 +14551,10 @@
         <v>839</v>
       </c>
       <c r="B738" s="1" t="s">
-        <v>119</v>
+        <v>843</v>
       </c>
       <c r="D738">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="739" spans="1:4" x14ac:dyDescent="0.35">
@@ -14445,10 +14562,10 @@
         <v>839</v>
       </c>
       <c r="B739" s="1" t="s">
-        <v>121</v>
+        <v>844</v>
       </c>
       <c r="D739">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="740" spans="1:4" x14ac:dyDescent="0.35">
@@ -14456,10 +14573,10 @@
         <v>839</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>845</v>
+        <v>479</v>
       </c>
       <c r="D740">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="741" spans="1:4" x14ac:dyDescent="0.35">
@@ -14467,10 +14584,10 @@
         <v>839</v>
       </c>
       <c r="B741" s="1" t="s">
-        <v>846</v>
+        <v>165</v>
       </c>
       <c r="D741">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="742" spans="1:4" x14ac:dyDescent="0.35">
@@ -14478,10 +14595,10 @@
         <v>839</v>
       </c>
       <c r="B742" s="1" t="s">
-        <v>847</v>
+        <v>109</v>
       </c>
       <c r="D742">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="743" spans="1:4" x14ac:dyDescent="0.35">
@@ -14489,10 +14606,10 @@
         <v>839</v>
       </c>
       <c r="B743" s="1" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="D743">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="744" spans="1:4" x14ac:dyDescent="0.35">
@@ -14500,10 +14617,10 @@
         <v>839</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>123</v>
+        <v>487</v>
       </c>
       <c r="D744">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="745" spans="1:4" x14ac:dyDescent="0.35">
@@ -14511,10 +14628,10 @@
         <v>839</v>
       </c>
       <c r="B745" s="1" t="s">
-        <v>125</v>
+        <v>489</v>
       </c>
       <c r="D745">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="746" spans="1:4" x14ac:dyDescent="0.35">
@@ -14522,10 +14639,10 @@
         <v>839</v>
       </c>
       <c r="B746" s="1" t="s">
-        <v>127</v>
+        <v>493</v>
       </c>
       <c r="D746">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="747" spans="1:4" x14ac:dyDescent="0.35">
@@ -14533,10 +14650,10 @@
         <v>839</v>
       </c>
       <c r="B747" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D747">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="748" spans="1:4" x14ac:dyDescent="0.35">
@@ -14544,10 +14661,10 @@
         <v>839</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D748">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="749" spans="1:4" x14ac:dyDescent="0.35">
@@ -14555,10 +14672,10 @@
         <v>839</v>
       </c>
       <c r="B749" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D749">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="750" spans="1:4" x14ac:dyDescent="0.35">
@@ -14566,10 +14683,10 @@
         <v>839</v>
       </c>
       <c r="B750" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D750">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="751" spans="1:4" x14ac:dyDescent="0.35">
@@ -14577,10 +14694,10 @@
         <v>839</v>
       </c>
       <c r="B751" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D751">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="752" spans="1:4" x14ac:dyDescent="0.35">
@@ -14588,10 +14705,10 @@
         <v>839</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>143</v>
+        <v>845</v>
       </c>
       <c r="D752">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="753" spans="1:4" x14ac:dyDescent="0.35">
@@ -14599,10 +14716,10 @@
         <v>839</v>
       </c>
       <c r="B753" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D753">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="754" spans="1:4" x14ac:dyDescent="0.35">
@@ -14610,10 +14727,10 @@
         <v>839</v>
       </c>
       <c r="B754" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D754">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="755" spans="1:4" x14ac:dyDescent="0.35">
@@ -14621,10 +14738,10 @@
         <v>839</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>850</v>
+        <v>502</v>
       </c>
       <c r="D755">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="756" spans="1:4" x14ac:dyDescent="0.35">
@@ -14632,10 +14749,10 @@
         <v>839</v>
       </c>
       <c r="B756" s="1" t="s">
-        <v>851</v>
+        <v>123</v>
       </c>
       <c r="D756">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="757" spans="1:4" x14ac:dyDescent="0.35">
@@ -14643,10 +14760,10 @@
         <v>839</v>
       </c>
       <c r="B757" s="1" t="s">
-        <v>852</v>
+        <v>125</v>
       </c>
       <c r="D757">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="758" spans="1:4" x14ac:dyDescent="0.35">
@@ -14654,10 +14771,10 @@
         <v>839</v>
       </c>
       <c r="B758" s="1" t="s">
-        <v>853</v>
+        <v>127</v>
       </c>
       <c r="D758">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="759" spans="1:4" x14ac:dyDescent="0.35">
@@ -14665,10 +14782,10 @@
         <v>839</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>854</v>
+        <v>129</v>
       </c>
       <c r="D759">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="760" spans="1:4" x14ac:dyDescent="0.35">
@@ -14676,187 +14793,151 @@
         <v>839</v>
       </c>
       <c r="B760" s="1" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="D760">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="761" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A761" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B761" s="1"/>
+      <c r="B761" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="D761">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A762" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B762" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D762">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A763" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B763" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D763">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A764" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B764" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D764">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A765" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D765">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A766" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D766">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A767" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D767">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A768" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D768">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A769" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D769">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A770" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D770">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A771" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D771">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A772" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B772" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D772">
         <v>9</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A762" t="s">
-        <v>855</v>
-      </c>
-      <c r="B762" t="s">
-        <v>34</v>
-      </c>
-      <c r="C762" t="s">
-        <v>856</v>
-      </c>
-      <c r="D762">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A763" t="s">
-        <v>855</v>
-      </c>
-      <c r="B763" t="s">
-        <v>5</v>
-      </c>
-      <c r="C763" t="s">
-        <v>857</v>
-      </c>
-      <c r="D763">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A764" t="s">
-        <v>855</v>
-      </c>
-      <c r="B764" t="s">
-        <v>7</v>
-      </c>
-      <c r="C764" t="s">
-        <v>858</v>
-      </c>
-      <c r="D764">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A765" t="s">
-        <v>855</v>
-      </c>
-      <c r="B765" t="s">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A773" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B773" s="1"/>
+      <c r="D773">
         <v>9</v>
-      </c>
-      <c r="C765" t="s">
-        <v>859</v>
-      </c>
-      <c r="D765">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A766" t="s">
-        <v>855</v>
-      </c>
-      <c r="B766" t="s">
-        <v>11</v>
-      </c>
-      <c r="C766" t="s">
-        <v>860</v>
-      </c>
-      <c r="D766">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A767" t="s">
-        <v>855</v>
-      </c>
-      <c r="B767" t="s">
-        <v>13</v>
-      </c>
-      <c r="C767" t="s">
-        <v>861</v>
-      </c>
-      <c r="D767">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A768" t="s">
-        <v>855</v>
-      </c>
-      <c r="B768" t="s">
-        <v>15</v>
-      </c>
-      <c r="C768" t="s">
-        <v>862</v>
-      </c>
-      <c r="D768">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A769" t="s">
-        <v>855</v>
-      </c>
-      <c r="B769" t="s">
-        <v>17</v>
-      </c>
-      <c r="C769" t="s">
-        <v>863</v>
-      </c>
-      <c r="D769">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A770" t="s">
-        <v>855</v>
-      </c>
-      <c r="B770" t="s">
-        <v>29</v>
-      </c>
-      <c r="C770" t="s">
-        <v>864</v>
-      </c>
-      <c r="D770">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A771" t="s">
-        <v>855</v>
-      </c>
-      <c r="B771" t="s">
-        <v>31</v>
-      </c>
-      <c r="C771" t="s">
-        <v>865</v>
-      </c>
-      <c r="D771">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A772" t="s">
-        <v>855</v>
-      </c>
-      <c r="B772" t="s">
-        <v>45</v>
-      </c>
-      <c r="C772" t="s">
-        <v>866</v>
-      </c>
-      <c r="D772">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A773" t="s">
-        <v>855</v>
-      </c>
-      <c r="B773" t="s">
-        <v>47</v>
-      </c>
-      <c r="C773" t="s">
-        <v>867</v>
-      </c>
-      <c r="D773">
-        <v>5</v>
       </c>
     </row>
     <row r="774" spans="1:4" x14ac:dyDescent="0.35">
@@ -14864,13 +14945,13 @@
         <v>855</v>
       </c>
       <c r="B774" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C774" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="D774">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:4" x14ac:dyDescent="0.35">
@@ -14878,13 +14959,13 @@
         <v>855</v>
       </c>
       <c r="B775" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C775" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="D775">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:4" x14ac:dyDescent="0.35">
@@ -14892,13 +14973,13 @@
         <v>855</v>
       </c>
       <c r="B776" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="C776" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="D776">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="1:4" x14ac:dyDescent="0.35">
@@ -14906,13 +14987,13 @@
         <v>855</v>
       </c>
       <c r="B777" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C777" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="D777">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:4" x14ac:dyDescent="0.35">
@@ -14920,13 +15001,13 @@
         <v>855</v>
       </c>
       <c r="B778" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C778" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="D778">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:4" x14ac:dyDescent="0.35">
@@ -14934,13 +15015,13 @@
         <v>855</v>
       </c>
       <c r="B779" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="C779" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="D779">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:4" x14ac:dyDescent="0.35">
@@ -14948,13 +15029,13 @@
         <v>855</v>
       </c>
       <c r="B780" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C780" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="D780">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:4" x14ac:dyDescent="0.35">
@@ -14962,13 +15043,13 @@
         <v>855</v>
       </c>
       <c r="B781" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="C781" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="D781">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:4" x14ac:dyDescent="0.35">
@@ -14976,195 +15057,195 @@
         <v>855</v>
       </c>
       <c r="B782" t="s">
-        <v>200</v>
+        <v>29</v>
       </c>
       <c r="C782" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="D782">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="783" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>855</v>
       </c>
-      <c r="B783">
-        <v>21</v>
+      <c r="B783" t="s">
+        <v>31</v>
       </c>
       <c r="C783" t="s">
-        <v>742</v>
+        <v>865</v>
       </c>
       <c r="D783">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="784" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="B784" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C784" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="D784">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="785" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="B785" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C785" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="D785">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="786" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="B786" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C786" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="D786">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="787" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="B787" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C787" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="D787">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="788" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="B788" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C788" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="D788">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="789" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="B789" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C789" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="D789">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="790" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="B790" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C790" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="D790">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="791" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="B791" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C791" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="D791">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="792" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="B792" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C792" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="D792">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="793" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="B793" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C793" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="D793">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="794" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="B794" t="s">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="C794" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="D794">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="795" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
-        <v>877</v>
-      </c>
-      <c r="B795" t="s">
-        <v>51</v>
+        <v>855</v>
+      </c>
+      <c r="B795">
+        <v>21</v>
       </c>
       <c r="C795" t="s">
-        <v>889</v>
+        <v>742</v>
       </c>
       <c r="D795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:4" x14ac:dyDescent="0.35">
@@ -15172,13 +15253,13 @@
         <v>877</v>
       </c>
       <c r="B796" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="C796" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:4" x14ac:dyDescent="0.35">
@@ -15186,13 +15267,13 @@
         <v>877</v>
       </c>
       <c r="B797" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="C797" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="D797">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:4" x14ac:dyDescent="0.35">
@@ -15200,10 +15281,10 @@
         <v>877</v>
       </c>
       <c r="B798" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C798" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="D798">
         <v>1</v>
@@ -15214,13 +15295,13 @@
         <v>877</v>
       </c>
       <c r="B799" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C799" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="D799">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:4" x14ac:dyDescent="0.35">
@@ -15228,13 +15309,13 @@
         <v>877</v>
       </c>
       <c r="B800" t="s">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="C800" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="D800">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:4" x14ac:dyDescent="0.35">
@@ -15242,13 +15323,13 @@
         <v>877</v>
       </c>
       <c r="B801" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C801" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="D801">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="802" spans="1:4" x14ac:dyDescent="0.35">
@@ -15256,13 +15337,13 @@
         <v>877</v>
       </c>
       <c r="B802" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="C802" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="D802">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="803" spans="1:4" x14ac:dyDescent="0.35">
@@ -15270,13 +15351,13 @@
         <v>877</v>
       </c>
       <c r="B803" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="C803" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="D803">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="804" spans="1:4" x14ac:dyDescent="0.35">
@@ -15284,116 +15365,122 @@
         <v>877</v>
       </c>
       <c r="B804" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C804" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="D804">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="805" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>877</v>
       </c>
+      <c r="B805" t="s">
+        <v>47</v>
+      </c>
+      <c r="C805" t="s">
+        <v>887</v>
+      </c>
       <c r="D805">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="806" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="B806" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C806" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="D806">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="807" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="B807" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C807" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="D807">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="B808" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C808" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="D808">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="B809" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C809" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="D809">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="B810" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C810" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="D810">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="B811" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C811" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="D811">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="812" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="B812" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="C812" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="D812">
         <v>4</v>
@@ -15401,13 +15488,13 @@
     </row>
     <row r="813" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="B813" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="C813" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="D813">
         <v>4</v>
@@ -15415,27 +15502,27 @@
     </row>
     <row r="814" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="B814" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C814" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="D814">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="815" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="B815" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C815" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="D815">
         <v>7</v>
@@ -15443,41 +15530,35 @@
     </row>
     <row r="816" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="B816" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C816" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="D816">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="817" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
-        <v>899</v>
-      </c>
-      <c r="B817" t="s">
-        <v>49</v>
-      </c>
-      <c r="C817" t="s">
-        <v>911</v>
+        <v>877</v>
       </c>
       <c r="D817">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="818" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B818" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C818" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="D818">
         <v>0</v>
@@ -15485,27 +15566,27 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B819" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C819" t="s">
-        <v>775</v>
+        <v>901</v>
       </c>
       <c r="D819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B820" t="s">
-        <v>914</v>
+        <v>9</v>
       </c>
       <c r="C820" t="s">
-        <v>796</v>
+        <v>902</v>
       </c>
       <c r="D820">
         <v>1</v>
@@ -15513,13 +15594,13 @@
     </row>
     <row r="821" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B821" t="s">
-        <v>915</v>
+        <v>11</v>
       </c>
       <c r="C821" t="s">
-        <v>797</v>
+        <v>903</v>
       </c>
       <c r="D821">
         <v>1</v>
@@ -15527,114 +15608,114 @@
     </row>
     <row r="822" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B822" t="s">
-        <v>916</v>
+        <v>13</v>
       </c>
       <c r="C822" t="s">
-        <v>798</v>
+        <v>904</v>
       </c>
       <c r="D822">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B823" t="s">
-        <v>917</v>
+        <v>15</v>
       </c>
       <c r="C823" t="s">
-        <v>799</v>
+        <v>905</v>
       </c>
       <c r="D823">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="824" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B824" t="s">
-        <v>918</v>
+        <v>17</v>
       </c>
       <c r="C824" t="s">
-        <v>800</v>
+        <v>906</v>
       </c>
       <c r="D824">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="825" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B825" t="s">
-        <v>919</v>
+        <v>29</v>
       </c>
       <c r="C825" t="s">
-        <v>801</v>
+        <v>907</v>
       </c>
       <c r="D825">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="826" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B826" t="s">
-        <v>920</v>
+        <v>31</v>
       </c>
       <c r="C826" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="D826">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="827" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B827" t="s">
-        <v>922</v>
+        <v>45</v>
       </c>
       <c r="C827" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="D827">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B828" t="s">
-        <v>924</v>
+        <v>47</v>
       </c>
       <c r="C828" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="D828">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="B829" t="s">
-        <v>926</v>
+        <v>49</v>
       </c>
       <c r="C829" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="D829">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:4" x14ac:dyDescent="0.35">
@@ -15642,13 +15723,13 @@
         <v>912</v>
       </c>
       <c r="B830" t="s">
-        <v>928</v>
+        <v>34</v>
       </c>
       <c r="C830" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
       <c r="D830">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.35">
@@ -15656,13 +15737,13 @@
         <v>912</v>
       </c>
       <c r="B831" t="s">
-        <v>930</v>
+        <v>45</v>
       </c>
       <c r="C831" t="s">
-        <v>931</v>
+        <v>775</v>
       </c>
       <c r="D831">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.35">
@@ -15670,13 +15751,13 @@
         <v>912</v>
       </c>
       <c r="B832" t="s">
-        <v>932</v>
+        <v>914</v>
       </c>
       <c r="C832" t="s">
-        <v>933</v>
+        <v>796</v>
       </c>
       <c r="D832">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.35">
@@ -15684,13 +15765,13 @@
         <v>912</v>
       </c>
       <c r="B833" t="s">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="C833" t="s">
-        <v>935</v>
+        <v>797</v>
       </c>
       <c r="D833">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.35">
@@ -15698,13 +15779,13 @@
         <v>912</v>
       </c>
       <c r="B834" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
       <c r="C834" t="s">
-        <v>937</v>
+        <v>798</v>
       </c>
       <c r="D834">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:4" x14ac:dyDescent="0.35">
@@ -15712,13 +15793,13 @@
         <v>912</v>
       </c>
       <c r="B835" t="s">
-        <v>938</v>
+        <v>917</v>
       </c>
       <c r="C835" t="s">
-        <v>939</v>
+        <v>799</v>
       </c>
       <c r="D835">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:4" x14ac:dyDescent="0.35">
@@ -15726,13 +15807,13 @@
         <v>912</v>
       </c>
       <c r="B836" t="s">
-        <v>940</v>
+        <v>918</v>
       </c>
       <c r="C836" t="s">
-        <v>941</v>
+        <v>800</v>
       </c>
       <c r="D836">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:4" x14ac:dyDescent="0.35">
@@ -15740,13 +15821,13 @@
         <v>912</v>
       </c>
       <c r="B837" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
       <c r="C837" t="s">
-        <v>943</v>
+        <v>801</v>
       </c>
       <c r="D837">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:4" x14ac:dyDescent="0.35">
@@ -15754,13 +15835,13 @@
         <v>912</v>
       </c>
       <c r="B838" t="s">
-        <v>944</v>
+        <v>920</v>
       </c>
       <c r="C838" t="s">
-        <v>945</v>
+        <v>921</v>
       </c>
       <c r="D838">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:4" x14ac:dyDescent="0.35">
@@ -15768,13 +15849,13 @@
         <v>912</v>
       </c>
       <c r="B839" t="s">
-        <v>946</v>
+        <v>922</v>
       </c>
       <c r="C839" t="s">
-        <v>947</v>
+        <v>923</v>
       </c>
       <c r="D839">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.35">
@@ -15782,13 +15863,13 @@
         <v>912</v>
       </c>
       <c r="B840" t="s">
-        <v>948</v>
+        <v>924</v>
       </c>
       <c r="C840" t="s">
-        <v>949</v>
+        <v>925</v>
       </c>
       <c r="D840">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:4" x14ac:dyDescent="0.35">
@@ -15796,13 +15877,13 @@
         <v>912</v>
       </c>
       <c r="B841" t="s">
-        <v>950</v>
+        <v>926</v>
       </c>
       <c r="C841" t="s">
-        <v>951</v>
+        <v>927</v>
       </c>
       <c r="D841">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.35">
@@ -15810,13 +15891,13 @@
         <v>912</v>
       </c>
       <c r="B842" t="s">
-        <v>952</v>
+        <v>928</v>
       </c>
       <c r="C842" t="s">
-        <v>953</v>
+        <v>929</v>
       </c>
       <c r="D842">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="843" spans="1:4" x14ac:dyDescent="0.35">
@@ -15824,13 +15905,13 @@
         <v>912</v>
       </c>
       <c r="B843" t="s">
-        <v>954</v>
+        <v>930</v>
       </c>
       <c r="C843" t="s">
-        <v>955</v>
+        <v>931</v>
       </c>
       <c r="D843">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.35">
@@ -15838,13 +15919,13 @@
         <v>912</v>
       </c>
       <c r="B844" t="s">
-        <v>956</v>
+        <v>932</v>
       </c>
       <c r="C844" t="s">
-        <v>957</v>
+        <v>933</v>
       </c>
       <c r="D844">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.35">
@@ -15852,10 +15933,10 @@
         <v>912</v>
       </c>
       <c r="B845" t="s">
-        <v>958</v>
+        <v>934</v>
       </c>
       <c r="C845" t="s">
-        <v>959</v>
+        <v>935</v>
       </c>
       <c r="D845">
         <v>5</v>
@@ -15866,10 +15947,10 @@
         <v>912</v>
       </c>
       <c r="B846" t="s">
-        <v>960</v>
+        <v>936</v>
       </c>
       <c r="C846" t="s">
-        <v>961</v>
+        <v>937</v>
       </c>
       <c r="D846">
         <v>5</v>
@@ -15880,13 +15961,13 @@
         <v>912</v>
       </c>
       <c r="B847" t="s">
-        <v>962</v>
+        <v>938</v>
       </c>
       <c r="C847" t="s">
-        <v>963</v>
+        <v>939</v>
       </c>
       <c r="D847">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="848" spans="1:4" x14ac:dyDescent="0.35">
@@ -15894,13 +15975,13 @@
         <v>912</v>
       </c>
       <c r="B848" t="s">
-        <v>964</v>
+        <v>940</v>
       </c>
       <c r="C848" t="s">
-        <v>965</v>
+        <v>941</v>
       </c>
       <c r="D848">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="849" spans="1:4" x14ac:dyDescent="0.35">
@@ -15908,13 +15989,13 @@
         <v>912</v>
       </c>
       <c r="B849" t="s">
-        <v>966</v>
+        <v>942</v>
       </c>
       <c r="C849" t="s">
-        <v>967</v>
+        <v>943</v>
       </c>
       <c r="D849">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="850" spans="1:4" x14ac:dyDescent="0.35">
@@ -15922,10 +16003,10 @@
         <v>912</v>
       </c>
       <c r="B850" t="s">
-        <v>968</v>
+        <v>944</v>
       </c>
       <c r="C850" t="s">
-        <v>969</v>
+        <v>945</v>
       </c>
       <c r="D850">
         <v>5</v>
@@ -15936,10 +16017,10 @@
         <v>912</v>
       </c>
       <c r="B851" t="s">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="C851" t="s">
-        <v>971</v>
+        <v>947</v>
       </c>
       <c r="D851">
         <v>5</v>
@@ -15950,10 +16031,10 @@
         <v>912</v>
       </c>
       <c r="B852" t="s">
-        <v>972</v>
+        <v>948</v>
       </c>
       <c r="C852" t="s">
-        <v>973</v>
+        <v>949</v>
       </c>
       <c r="D852">
         <v>5</v>
@@ -15964,10 +16045,10 @@
         <v>912</v>
       </c>
       <c r="B853" t="s">
-        <v>974</v>
+        <v>950</v>
       </c>
       <c r="C853" t="s">
-        <v>975</v>
+        <v>951</v>
       </c>
       <c r="D853">
         <v>5</v>
@@ -15978,10 +16059,10 @@
         <v>912</v>
       </c>
       <c r="B854" t="s">
-        <v>976</v>
+        <v>952</v>
       </c>
       <c r="C854" t="s">
-        <v>977</v>
+        <v>953</v>
       </c>
       <c r="D854">
         <v>5</v>
@@ -15992,10 +16073,10 @@
         <v>912</v>
       </c>
       <c r="B855" t="s">
-        <v>978</v>
+        <v>954</v>
       </c>
       <c r="C855" t="s">
-        <v>979</v>
+        <v>955</v>
       </c>
       <c r="D855">
         <v>5</v>
@@ -16006,10 +16087,10 @@
         <v>912</v>
       </c>
       <c r="B856" t="s">
-        <v>980</v>
+        <v>956</v>
       </c>
       <c r="C856" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
       <c r="D856">
         <v>5</v>
@@ -16020,10 +16101,10 @@
         <v>912</v>
       </c>
       <c r="B857" t="s">
-        <v>982</v>
+        <v>958</v>
       </c>
       <c r="C857" t="s">
-        <v>983</v>
+        <v>959</v>
       </c>
       <c r="D857">
         <v>5</v>
@@ -16034,10 +16115,10 @@
         <v>912</v>
       </c>
       <c r="B858" t="s">
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="C858" t="s">
-        <v>985</v>
+        <v>961</v>
       </c>
       <c r="D858">
         <v>5</v>
@@ -16048,10 +16129,10 @@
         <v>912</v>
       </c>
       <c r="B859" t="s">
-        <v>986</v>
+        <v>962</v>
       </c>
       <c r="C859" t="s">
-        <v>987</v>
+        <v>963</v>
       </c>
       <c r="D859">
         <v>5</v>
@@ -16062,10 +16143,10 @@
         <v>912</v>
       </c>
       <c r="B860" t="s">
-        <v>988</v>
+        <v>964</v>
       </c>
       <c r="C860" t="s">
-        <v>989</v>
+        <v>965</v>
       </c>
       <c r="D860">
         <v>5</v>
@@ -16076,10 +16157,10 @@
         <v>912</v>
       </c>
       <c r="B861" t="s">
-        <v>990</v>
+        <v>966</v>
       </c>
       <c r="C861" t="s">
-        <v>991</v>
+        <v>967</v>
       </c>
       <c r="D861">
         <v>5</v>
@@ -16090,13 +16171,13 @@
         <v>912</v>
       </c>
       <c r="B862" t="s">
-        <v>992</v>
+        <v>968</v>
       </c>
       <c r="C862" t="s">
-        <v>945</v>
+        <v>969</v>
       </c>
       <c r="D862">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="863" spans="1:4" x14ac:dyDescent="0.35">
@@ -16104,13 +16185,13 @@
         <v>912</v>
       </c>
       <c r="B863" t="s">
-        <v>993</v>
+        <v>970</v>
       </c>
       <c r="C863" t="s">
-        <v>951</v>
+        <v>971</v>
       </c>
       <c r="D863">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="864" spans="1:4" x14ac:dyDescent="0.35">
@@ -16118,13 +16199,13 @@
         <v>912</v>
       </c>
       <c r="B864" t="s">
-        <v>994</v>
+        <v>972</v>
       </c>
       <c r="C864" t="s">
-        <v>953</v>
+        <v>973</v>
       </c>
       <c r="D864">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="865" spans="1:4" x14ac:dyDescent="0.35">
@@ -16132,13 +16213,13 @@
         <v>912</v>
       </c>
       <c r="B865" t="s">
-        <v>995</v>
+        <v>974</v>
       </c>
       <c r="C865" t="s">
-        <v>955</v>
+        <v>975</v>
       </c>
       <c r="D865">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="866" spans="1:4" x14ac:dyDescent="0.35">
@@ -16146,13 +16227,13 @@
         <v>912</v>
       </c>
       <c r="B866" t="s">
-        <v>996</v>
+        <v>976</v>
       </c>
       <c r="C866" t="s">
-        <v>957</v>
+        <v>977</v>
       </c>
       <c r="D866">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="867" spans="1:4" x14ac:dyDescent="0.35">
@@ -16160,13 +16241,13 @@
         <v>912</v>
       </c>
       <c r="B867" t="s">
-        <v>997</v>
+        <v>978</v>
       </c>
       <c r="C867" t="s">
-        <v>959</v>
+        <v>979</v>
       </c>
       <c r="D867">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="868" spans="1:4" x14ac:dyDescent="0.35">
@@ -16174,13 +16255,13 @@
         <v>912</v>
       </c>
       <c r="B868" t="s">
-        <v>998</v>
+        <v>980</v>
       </c>
       <c r="C868" t="s">
-        <v>961</v>
+        <v>981</v>
       </c>
       <c r="D868">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="869" spans="1:4" x14ac:dyDescent="0.35">
@@ -16188,13 +16269,13 @@
         <v>912</v>
       </c>
       <c r="B869" t="s">
-        <v>999</v>
+        <v>982</v>
       </c>
       <c r="C869" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="D869">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="870" spans="1:4" x14ac:dyDescent="0.35">
@@ -16202,13 +16283,13 @@
         <v>912</v>
       </c>
       <c r="B870" t="s">
-        <v>1001</v>
+        <v>984</v>
       </c>
       <c r="C870" t="s">
-        <v>963</v>
+        <v>985</v>
       </c>
       <c r="D870">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="871" spans="1:4" x14ac:dyDescent="0.35">
@@ -16216,13 +16297,13 @@
         <v>912</v>
       </c>
       <c r="B871" t="s">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="C871" t="s">
-        <v>965</v>
+        <v>987</v>
       </c>
       <c r="D871">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="872" spans="1:4" x14ac:dyDescent="0.35">
@@ -16230,13 +16311,13 @@
         <v>912</v>
       </c>
       <c r="B872" t="s">
-        <v>1003</v>
+        <v>988</v>
       </c>
       <c r="C872" t="s">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="D872">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="873" spans="1:4" x14ac:dyDescent="0.35">
@@ -16244,13 +16325,13 @@
         <v>912</v>
       </c>
       <c r="B873" t="s">
-        <v>1005</v>
+        <v>990</v>
       </c>
       <c r="C873" t="s">
-        <v>967</v>
+        <v>991</v>
       </c>
       <c r="D873">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="874" spans="1:4" x14ac:dyDescent="0.35">
@@ -16258,10 +16339,10 @@
         <v>912</v>
       </c>
       <c r="B874" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="C874" t="s">
-        <v>1007</v>
+        <v>945</v>
       </c>
       <c r="D874">
         <v>6</v>
@@ -16272,10 +16353,10 @@
         <v>912</v>
       </c>
       <c r="B875" t="s">
-        <v>1008</v>
+        <v>993</v>
       </c>
       <c r="C875" t="s">
-        <v>971</v>
+        <v>951</v>
       </c>
       <c r="D875">
         <v>6</v>
@@ -16286,10 +16367,10 @@
         <v>912</v>
       </c>
       <c r="B876" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
       <c r="C876" t="s">
-        <v>973</v>
+        <v>953</v>
       </c>
       <c r="D876">
         <v>6</v>
@@ -16300,10 +16381,10 @@
         <v>912</v>
       </c>
       <c r="B877" t="s">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="C877" t="s">
-        <v>975</v>
+        <v>955</v>
       </c>
       <c r="D877">
         <v>6</v>
@@ -16314,10 +16395,10 @@
         <v>912</v>
       </c>
       <c r="B878" t="s">
-        <v>1011</v>
+        <v>996</v>
       </c>
       <c r="C878" t="s">
-        <v>977</v>
+        <v>957</v>
       </c>
       <c r="D878">
         <v>6</v>
@@ -16328,10 +16409,10 @@
         <v>912</v>
       </c>
       <c r="B879" t="s">
-        <v>1012</v>
+        <v>997</v>
       </c>
       <c r="C879" t="s">
-        <v>979</v>
+        <v>959</v>
       </c>
       <c r="D879">
         <v>6</v>
@@ -16342,10 +16423,10 @@
         <v>912</v>
       </c>
       <c r="B880" t="s">
-        <v>1013</v>
+        <v>998</v>
       </c>
       <c r="C880" t="s">
-        <v>981</v>
+        <v>961</v>
       </c>
       <c r="D880">
         <v>6</v>
@@ -16356,10 +16437,10 @@
         <v>912</v>
       </c>
       <c r="B881" t="s">
-        <v>1014</v>
+        <v>999</v>
       </c>
       <c r="C881" t="s">
-        <v>983</v>
+        <v>1000</v>
       </c>
       <c r="D881">
         <v>6</v>
@@ -16370,10 +16451,10 @@
         <v>912</v>
       </c>
       <c r="B882" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
       <c r="C882" t="s">
-        <v>985</v>
+        <v>963</v>
       </c>
       <c r="D882">
         <v>6</v>
@@ -16384,10 +16465,10 @@
         <v>912</v>
       </c>
       <c r="B883" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="C883" t="s">
-        <v>987</v>
+        <v>965</v>
       </c>
       <c r="D883">
         <v>6</v>
@@ -16398,10 +16479,10 @@
         <v>912</v>
       </c>
       <c r="B884" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
       <c r="C884" t="s">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="D884">
         <v>6</v>
@@ -16412,10 +16493,10 @@
         <v>912</v>
       </c>
       <c r="B885" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="C885" t="s">
-        <v>1019</v>
+        <v>967</v>
       </c>
       <c r="D885">
         <v>6</v>
@@ -16423,170 +16504,170 @@
     </row>
     <row r="886" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A886" t="s">
-        <v>1020</v>
+        <v>912</v>
       </c>
       <c r="B886" t="s">
-        <v>5</v>
+        <v>1006</v>
       </c>
       <c r="C886" t="s">
-        <v>734</v>
+        <v>1007</v>
       </c>
       <c r="D886">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="887" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A887" t="s">
-        <v>1020</v>
+        <v>912</v>
       </c>
       <c r="B887" t="s">
-        <v>45</v>
+        <v>1008</v>
       </c>
       <c r="C887" t="s">
-        <v>1021</v>
+        <v>971</v>
       </c>
       <c r="D887">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="888" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A888" t="s">
-        <v>1020</v>
+        <v>912</v>
       </c>
       <c r="B888" t="s">
-        <v>47</v>
+        <v>1009</v>
       </c>
       <c r="C888" t="s">
-        <v>1022</v>
+        <v>973</v>
       </c>
       <c r="D888">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="889" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A889" t="s">
-        <v>1020</v>
+        <v>912</v>
       </c>
       <c r="B889" t="s">
-        <v>49</v>
+        <v>1010</v>
       </c>
       <c r="C889" t="s">
-        <v>1023</v>
+        <v>975</v>
       </c>
       <c r="D889">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="890" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A890" t="s">
-        <v>1020</v>
+        <v>912</v>
       </c>
       <c r="B890" t="s">
-        <v>51</v>
+        <v>1011</v>
       </c>
       <c r="C890" t="s">
-        <v>1024</v>
+        <v>977</v>
       </c>
       <c r="D890">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="891" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A891" t="s">
-        <v>1020</v>
+        <v>912</v>
       </c>
       <c r="B891" t="s">
-        <v>53</v>
+        <v>1012</v>
       </c>
       <c r="C891" t="s">
-        <v>1025</v>
+        <v>979</v>
       </c>
       <c r="D891">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="892" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A892" t="s">
-        <v>1020</v>
+        <v>912</v>
       </c>
       <c r="B892" t="s">
-        <v>55</v>
+        <v>1013</v>
       </c>
       <c r="C892" t="s">
-        <v>1026</v>
+        <v>981</v>
       </c>
       <c r="D892">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="893" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A893" t="s">
-        <v>1020</v>
+        <v>912</v>
       </c>
       <c r="B893" t="s">
-        <v>57</v>
+        <v>1014</v>
       </c>
       <c r="C893" t="s">
-        <v>1027</v>
+        <v>983</v>
       </c>
       <c r="D893">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="894" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A894" t="s">
-        <v>1020</v>
+        <v>912</v>
       </c>
       <c r="B894" t="s">
-        <v>95</v>
+        <v>1015</v>
       </c>
       <c r="C894" t="s">
-        <v>1028</v>
+        <v>985</v>
       </c>
       <c r="D894">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="895" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A895" t="s">
-        <v>1020</v>
+        <v>912</v>
       </c>
       <c r="B895" t="s">
-        <v>97</v>
+        <v>1016</v>
       </c>
       <c r="C895" t="s">
-        <v>1029</v>
+        <v>987</v>
       </c>
       <c r="D895">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="896" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A896" t="s">
-        <v>1020</v>
+        <v>912</v>
       </c>
       <c r="B896" t="s">
-        <v>99</v>
+        <v>1017</v>
       </c>
       <c r="C896" t="s">
-        <v>1030</v>
+        <v>989</v>
       </c>
       <c r="D896">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="897" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A897" t="s">
-        <v>1020</v>
+        <v>912</v>
       </c>
       <c r="B897" t="s">
-        <v>451</v>
+        <v>1018</v>
       </c>
       <c r="C897" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="D897">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="898" spans="1:4" x14ac:dyDescent="0.35">
@@ -16594,13 +16675,13 @@
         <v>1020</v>
       </c>
       <c r="B898" t="s">
-        <v>453</v>
+        <v>5</v>
       </c>
       <c r="C898" t="s">
-        <v>1032</v>
+        <v>734</v>
       </c>
       <c r="D898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:4" x14ac:dyDescent="0.35">
@@ -16608,13 +16689,13 @@
         <v>1020</v>
       </c>
       <c r="B899" t="s">
-        <v>455</v>
+        <v>45</v>
       </c>
       <c r="C899" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="D899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:4" x14ac:dyDescent="0.35">
@@ -16622,13 +16703,13 @@
         <v>1020</v>
       </c>
       <c r="B900" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C900" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
       <c r="D900">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:4" x14ac:dyDescent="0.35">
@@ -16636,13 +16717,13 @@
         <v>1020</v>
       </c>
       <c r="B901" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C901" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="D901">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:4" x14ac:dyDescent="0.35">
@@ -16650,13 +16731,13 @@
         <v>1020</v>
       </c>
       <c r="B902" t="s">
-        <v>461</v>
+        <v>51</v>
       </c>
       <c r="C902" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
       <c r="D902">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:4" x14ac:dyDescent="0.35">
@@ -16664,13 +16745,13 @@
         <v>1020</v>
       </c>
       <c r="B903" t="s">
-        <v>463</v>
+        <v>53</v>
       </c>
       <c r="C903" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="D903">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:4" x14ac:dyDescent="0.35">
@@ -16678,13 +16759,13 @@
         <v>1020</v>
       </c>
       <c r="B904" t="s">
-        <v>465</v>
+        <v>55</v>
       </c>
       <c r="C904" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
       <c r="D904">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:4" x14ac:dyDescent="0.35">
@@ -16692,13 +16773,13 @@
         <v>1020</v>
       </c>
       <c r="B905" t="s">
-        <v>467</v>
+        <v>57</v>
       </c>
       <c r="C905" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="D905">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:4" x14ac:dyDescent="0.35">
@@ -16706,13 +16787,13 @@
         <v>1020</v>
       </c>
       <c r="B906" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C906" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="D906">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:4" x14ac:dyDescent="0.35">
@@ -16720,13 +16801,13 @@
         <v>1020</v>
       </c>
       <c r="B907" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C907" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="D907">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:4" x14ac:dyDescent="0.35">
@@ -16734,13 +16815,13 @@
         <v>1020</v>
       </c>
       <c r="B908" t="s">
-        <v>475</v>
+        <v>99</v>
       </c>
       <c r="C908" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="D908">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:4" x14ac:dyDescent="0.35">
@@ -16748,13 +16829,13 @@
         <v>1020</v>
       </c>
       <c r="B909" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="C909" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="D909">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:4" x14ac:dyDescent="0.35">
@@ -16762,13 +16843,13 @@
         <v>1020</v>
       </c>
       <c r="B910" t="s">
-        <v>841</v>
+        <v>453</v>
       </c>
       <c r="C910" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="D910">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:4" x14ac:dyDescent="0.35">
@@ -16776,13 +16857,13 @@
         <v>1020</v>
       </c>
       <c r="B911" t="s">
-        <v>842</v>
+        <v>455</v>
       </c>
       <c r="C911" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="D911">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:4" x14ac:dyDescent="0.35">
@@ -16790,13 +16871,13 @@
         <v>1020</v>
       </c>
       <c r="B912" t="s">
-        <v>843</v>
+        <v>101</v>
       </c>
       <c r="C912" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="D912">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="913" spans="1:4" x14ac:dyDescent="0.35">
@@ -16804,122 +16885,122 @@
         <v>1020</v>
       </c>
       <c r="B913" t="s">
-        <v>642</v>
+        <v>103</v>
       </c>
       <c r="C913" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="D913">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="914" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A914" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
       <c r="B914" t="s">
-        <v>5</v>
+        <v>461</v>
       </c>
       <c r="C914" t="s">
-        <v>82</v>
+        <v>1036</v>
       </c>
       <c r="D914">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="915" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A915" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
       <c r="B915" t="s">
-        <v>7</v>
+        <v>463</v>
       </c>
       <c r="C915" t="s">
-        <v>83</v>
+        <v>1037</v>
       </c>
       <c r="D915">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="916" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A916" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
       <c r="B916" t="s">
-        <v>9</v>
+        <v>465</v>
       </c>
       <c r="C916" t="s">
-        <v>84</v>
+        <v>1038</v>
       </c>
       <c r="D916">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="917" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A917" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
       <c r="B917" t="s">
-        <v>11</v>
+        <v>467</v>
       </c>
       <c r="C917" t="s">
-        <v>85</v>
+        <v>1039</v>
       </c>
       <c r="D917">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="918" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A918" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
       <c r="B918" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="C918" t="s">
-        <v>86</v>
+        <v>1040</v>
       </c>
       <c r="D918">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="919" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A919" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
       <c r="B919" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="C919" t="s">
-        <v>87</v>
+        <v>1041</v>
       </c>
       <c r="D919">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="920" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A920" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
       <c r="B920" t="s">
-        <v>17</v>
+        <v>475</v>
       </c>
       <c r="C920" t="s">
-        <v>88</v>
+        <v>1042</v>
       </c>
       <c r="D920">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="921" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A921" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
       <c r="B921" t="s">
-        <v>29</v>
+        <v>477</v>
       </c>
       <c r="C921" t="s">
-        <v>89</v>
+        <v>1043</v>
       </c>
       <c r="D921">
         <v>6</v>
@@ -16927,83 +17008,83 @@
     </row>
     <row r="922" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A922" t="s">
-        <v>1048</v>
+        <v>1020</v>
       </c>
       <c r="B922" t="s">
-        <v>34</v>
+        <v>841</v>
       </c>
       <c r="C922" t="s">
-        <v>90</v>
+        <v>1044</v>
       </c>
       <c r="D922">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="923" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A923" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B923">
-        <v>1</v>
+        <v>1020</v>
+      </c>
+      <c r="B923" t="s">
+        <v>842</v>
       </c>
       <c r="C923" t="s">
-        <v>1264</v>
+        <v>1045</v>
       </c>
       <c r="D923">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="924" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A924" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B924">
-        <v>2</v>
+        <v>1020</v>
+      </c>
+      <c r="B924" t="s">
+        <v>843</v>
       </c>
       <c r="C924" t="s">
-        <v>1265</v>
+        <v>1046</v>
       </c>
       <c r="D924">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="925" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A925" t="s">
-        <v>1263</v>
-      </c>
-      <c r="B925">
-        <v>3</v>
+        <v>1020</v>
+      </c>
+      <c r="B925" t="s">
+        <v>642</v>
       </c>
       <c r="C925" t="s">
-        <v>1266</v>
+        <v>1047</v>
       </c>
       <c r="D925">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="926" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A926" t="s">
-        <v>1263</v>
+        <v>1300</v>
       </c>
       <c r="B926">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C926" t="s">
-        <v>1267</v>
+        <v>1301</v>
       </c>
       <c r="D926">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A927" t="s">
-        <v>1263</v>
+        <v>1300</v>
       </c>
       <c r="B927">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C927" t="s">
-        <v>1268</v>
+        <v>1302</v>
       </c>
       <c r="D927">
         <v>2</v>
@@ -17011,13 +17092,13 @@
     </row>
     <row r="928" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A928" t="s">
-        <v>1263</v>
+        <v>1300</v>
       </c>
       <c r="B928">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C928" t="s">
-        <v>1269</v>
+        <v>1313</v>
       </c>
       <c r="D928">
         <v>3</v>
@@ -17025,27 +17106,27 @@
     </row>
     <row r="929" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A929" t="s">
-        <v>1263</v>
+        <v>1300</v>
       </c>
       <c r="B929">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C929" t="s">
-        <v>1270</v>
+        <v>1303</v>
       </c>
       <c r="D929">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="930" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A930" t="s">
-        <v>1263</v>
+        <v>1300</v>
       </c>
       <c r="B930">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C930" t="s">
-        <v>1271</v>
+        <v>1304</v>
       </c>
       <c r="D930">
         <v>4</v>
@@ -17053,153 +17134,153 @@
     </row>
     <row r="931" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A931" t="s">
-        <v>1263</v>
+        <v>1300</v>
       </c>
       <c r="B931">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C931" t="s">
-        <v>1272</v>
+        <v>1305</v>
       </c>
       <c r="D931">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="932" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A932" t="s">
-        <v>1263</v>
+        <v>1300</v>
       </c>
       <c r="B932">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C932" t="s">
-        <v>1273</v>
+        <v>1306</v>
       </c>
       <c r="D932">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="933" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A933" t="s">
-        <v>1263</v>
+        <v>1300</v>
       </c>
       <c r="B933">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C933" t="s">
-        <v>1274</v>
+        <v>1307</v>
       </c>
       <c r="D933">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="934" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A934" t="s">
-        <v>1263</v>
+        <v>1300</v>
       </c>
       <c r="B934">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C934" t="s">
-        <v>1275</v>
+        <v>1308</v>
       </c>
       <c r="D934">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="935" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A935" t="s">
-        <v>1263</v>
+        <v>1300</v>
       </c>
       <c r="B935">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C935" t="s">
-        <v>1276</v>
+        <v>1309</v>
       </c>
       <c r="D935">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="936" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A936" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B936" t="s">
-        <v>5</v>
+        <v>1300</v>
+      </c>
+      <c r="B936">
+        <v>12</v>
       </c>
       <c r="C936" t="s">
-        <v>1050</v>
+        <v>1310</v>
       </c>
       <c r="D936">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="937" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A937" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B937" t="s">
-        <v>7</v>
+        <v>1300</v>
+      </c>
+      <c r="B937">
+        <v>13</v>
       </c>
       <c r="C937" t="s">
-        <v>796</v>
+        <v>218</v>
       </c>
       <c r="D937">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="938" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A938" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B938" t="s">
-        <v>9</v>
+        <v>1300</v>
+      </c>
+      <c r="B938">
+        <v>14</v>
       </c>
       <c r="C938" t="s">
-        <v>797</v>
+        <v>1311</v>
       </c>
       <c r="D938">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="939" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A939" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B939" t="s">
-        <v>11</v>
+        <v>1300</v>
+      </c>
+      <c r="B939">
+        <v>97</v>
       </c>
       <c r="C939" t="s">
-        <v>798</v>
+        <v>1312</v>
       </c>
       <c r="D939">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="940" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A940" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B940" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C940" t="s">
-        <v>799</v>
+        <v>82</v>
       </c>
       <c r="D940">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A941" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B941" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C941" t="s">
-        <v>800</v>
+        <v>83</v>
       </c>
       <c r="D941">
         <v>1</v>
@@ -17207,181 +17288,181 @@
     </row>
     <row r="942" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A942" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B942" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C942" t="s">
-        <v>801</v>
+        <v>84</v>
       </c>
       <c r="D942">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A943" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B943" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C943" t="s">
-        <v>802</v>
+        <v>85</v>
       </c>
       <c r="D943">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A944" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B944" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C944" t="s">
-        <v>803</v>
+        <v>86</v>
       </c>
       <c r="D944">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="945" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A945" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B945" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C945" t="s">
-        <v>804</v>
+        <v>87</v>
       </c>
       <c r="D945">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="946" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A946" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B946" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C946" t="s">
-        <v>805</v>
+        <v>88</v>
       </c>
       <c r="D946">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="947" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A947" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B947" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C947" t="s">
-        <v>806</v>
+        <v>89</v>
       </c>
       <c r="D947">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="948" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A948" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B948" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C948" t="s">
-        <v>1051</v>
+        <v>90</v>
       </c>
       <c r="D948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A949" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B949" t="s">
-        <v>53</v>
+        <v>1263</v>
+      </c>
+      <c r="B949">
+        <v>1</v>
       </c>
       <c r="C949" t="s">
-        <v>1052</v>
+        <v>1264</v>
       </c>
       <c r="D949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A950" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B950" t="s">
-        <v>55</v>
+        <v>1263</v>
+      </c>
+      <c r="B950">
+        <v>2</v>
       </c>
       <c r="C950" t="s">
-        <v>1053</v>
+        <v>1265</v>
       </c>
       <c r="D950">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="951" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A951" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B951" t="s">
-        <v>57</v>
+        <v>1263</v>
+      </c>
+      <c r="B951">
+        <v>3</v>
       </c>
       <c r="C951" t="s">
-        <v>1054</v>
+        <v>1266</v>
       </c>
       <c r="D951">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A952" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B952" t="s">
-        <v>59</v>
+        <v>1263</v>
+      </c>
+      <c r="B952">
+        <v>4</v>
       </c>
       <c r="C952" t="s">
-        <v>1055</v>
+        <v>1267</v>
       </c>
       <c r="D952">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A953" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B953" t="s">
-        <v>61</v>
+        <v>1263</v>
+      </c>
+      <c r="B953">
+        <v>5</v>
       </c>
       <c r="C953" t="s">
-        <v>1056</v>
+        <v>1268</v>
       </c>
       <c r="D953">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A954" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B954" t="s">
-        <v>63</v>
+        <v>1263</v>
+      </c>
+      <c r="B954">
+        <v>6</v>
       </c>
       <c r="C954" t="s">
-        <v>1057</v>
+        <v>1269</v>
       </c>
       <c r="D954">
         <v>3</v>
@@ -17389,13 +17470,13 @@
     </row>
     <row r="955" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A955" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B955" t="s">
-        <v>200</v>
+        <v>1263</v>
+      </c>
+      <c r="B955">
+        <v>7</v>
       </c>
       <c r="C955" t="s">
-        <v>1058</v>
+        <v>1270</v>
       </c>
       <c r="D955">
         <v>3</v>
@@ -17403,86 +17484,86 @@
     </row>
     <row r="956" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A956" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B956" t="s">
-        <v>95</v>
+        <v>1263</v>
+      </c>
+      <c r="B956">
+        <v>8</v>
       </c>
       <c r="C956" t="s">
-        <v>1059</v>
+        <v>1271</v>
       </c>
       <c r="D956">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="957" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A957" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B957" t="s">
-        <v>97</v>
+        <v>1263</v>
+      </c>
+      <c r="B957">
+        <v>9</v>
       </c>
       <c r="C957" t="s">
-        <v>1060</v>
+        <v>1272</v>
       </c>
       <c r="D957">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="958" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A958" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B958" t="s">
-        <v>99</v>
+        <v>1263</v>
+      </c>
+      <c r="B958">
+        <v>10</v>
       </c>
       <c r="C958" t="s">
-        <v>1061</v>
+        <v>1273</v>
       </c>
       <c r="D958">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="959" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A959" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B959" t="s">
-        <v>451</v>
+        <v>1263</v>
+      </c>
+      <c r="B959">
+        <v>11</v>
       </c>
       <c r="C959" t="s">
-        <v>1062</v>
+        <v>1274</v>
       </c>
       <c r="D959">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="960" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A960" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B960" t="s">
-        <v>453</v>
+        <v>1263</v>
+      </c>
+      <c r="B960">
+        <v>12</v>
       </c>
       <c r="C960" t="s">
-        <v>1063</v>
+        <v>1275</v>
       </c>
       <c r="D960">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="961" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A961" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B961" t="s">
-        <v>455</v>
+        <v>1263</v>
+      </c>
+      <c r="B961">
+        <v>13</v>
       </c>
       <c r="C961" t="s">
-        <v>1064</v>
+        <v>1276</v>
       </c>
       <c r="D961">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="962" spans="1:4" x14ac:dyDescent="0.35">
@@ -17490,13 +17571,13 @@
         <v>1049</v>
       </c>
       <c r="B962" t="s">
-        <v>623</v>
+        <v>5</v>
       </c>
       <c r="C962" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="D962">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:4" x14ac:dyDescent="0.35">
@@ -17504,13 +17585,13 @@
         <v>1049</v>
       </c>
       <c r="B963" t="s">
-        <v>625</v>
+        <v>7</v>
       </c>
       <c r="C963" t="s">
-        <v>1066</v>
+        <v>796</v>
       </c>
       <c r="D963">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="964" spans="1:4" x14ac:dyDescent="0.35">
@@ -17518,13 +17599,13 @@
         <v>1049</v>
       </c>
       <c r="B964" t="s">
-        <v>457</v>
+        <v>9</v>
       </c>
       <c r="C964" t="s">
-        <v>1067</v>
+        <v>797</v>
       </c>
       <c r="D964">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="965" spans="1:4" x14ac:dyDescent="0.35">
@@ -17532,13 +17613,13 @@
         <v>1049</v>
       </c>
       <c r="B965" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="C965" t="s">
-        <v>1068</v>
+        <v>798</v>
       </c>
       <c r="D965">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="966" spans="1:4" x14ac:dyDescent="0.35">
@@ -17546,13 +17627,13 @@
         <v>1049</v>
       </c>
       <c r="B966" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="C966" t="s">
-        <v>1069</v>
+        <v>799</v>
       </c>
       <c r="D966">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:4" x14ac:dyDescent="0.35">
@@ -17560,13 +17641,13 @@
         <v>1049</v>
       </c>
       <c r="B967" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="C967" t="s">
-        <v>1070</v>
+        <v>800</v>
       </c>
       <c r="D967">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.35">
@@ -17574,13 +17655,13 @@
         <v>1049</v>
       </c>
       <c r="B968" t="s">
-        <v>642</v>
+        <v>17</v>
       </c>
       <c r="C968" t="s">
-        <v>1071</v>
+        <v>801</v>
       </c>
       <c r="D968">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="969" spans="1:4" x14ac:dyDescent="0.35">
@@ -17588,52 +17669,52 @@
         <v>1049</v>
       </c>
       <c r="B969" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C969" t="s">
-        <v>1072</v>
+        <v>802</v>
       </c>
       <c r="D969">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="970" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A970" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="B970" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C970" t="s">
-        <v>67</v>
+        <v>803</v>
       </c>
       <c r="D970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A971" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="B971" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C971" t="s">
-        <v>722</v>
+        <v>804</v>
       </c>
       <c r="D971">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A972" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="B972" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C972" t="s">
-        <v>1074</v>
+        <v>805</v>
       </c>
       <c r="D972">
         <v>2</v>
@@ -17641,125 +17722,125 @@
     </row>
     <row r="973" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A973" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="B973" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C973" t="s">
-        <v>1075</v>
+        <v>806</v>
       </c>
       <c r="D973">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A974" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="B974" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C974" t="s">
-        <v>1076</v>
+        <v>1051</v>
       </c>
       <c r="D974">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A975" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="B975" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C975" t="s">
-        <v>1077</v>
+        <v>1052</v>
       </c>
       <c r="D975">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A976" t="s">
-        <v>1073</v>
+        <v>1049</v>
       </c>
       <c r="B976" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C976" t="s">
-        <v>80</v>
+        <v>1053</v>
       </c>
       <c r="D976">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="977" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A977" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B977">
-        <v>1</v>
+        <v>1049</v>
+      </c>
+      <c r="B977" t="s">
+        <v>57</v>
       </c>
       <c r="C977" t="s">
-        <v>1278</v>
+        <v>1054</v>
       </c>
       <c r="D977">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="978" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A978" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B978">
-        <v>2</v>
+        <v>1049</v>
+      </c>
+      <c r="B978" t="s">
+        <v>59</v>
       </c>
       <c r="C978" t="s">
-        <v>1279</v>
+        <v>1055</v>
       </c>
       <c r="D978">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="979" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A979" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B979">
+        <v>1049</v>
+      </c>
+      <c r="B979" t="s">
+        <v>61</v>
+      </c>
+      <c r="C979" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D979">
         <v>3</v>
-      </c>
-      <c r="C979" t="s">
-        <v>682</v>
-      </c>
-      <c r="D979">
-        <v>1</v>
       </c>
     </row>
     <row r="980" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A980" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B980">
-        <v>4</v>
+        <v>1049</v>
+      </c>
+      <c r="B980" t="s">
+        <v>63</v>
       </c>
       <c r="C980" t="s">
-        <v>1280</v>
+        <v>1057</v>
       </c>
       <c r="D980">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="981" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A981" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B981">
-        <v>5</v>
+        <v>1049</v>
+      </c>
+      <c r="B981" t="s">
+        <v>200</v>
       </c>
       <c r="C981" t="s">
-        <v>1281</v>
+        <v>1058</v>
       </c>
       <c r="D981">
         <v>3</v>
@@ -17767,436 +17848,436 @@
     </row>
     <row r="982" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A982" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B982">
-        <v>6</v>
+        <v>1049</v>
+      </c>
+      <c r="B982" t="s">
+        <v>95</v>
       </c>
       <c r="C982" t="s">
-        <v>1282</v>
+        <v>1059</v>
       </c>
       <c r="D982">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="983" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A983" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B983">
-        <v>7</v>
+        <v>1049</v>
+      </c>
+      <c r="B983" t="s">
+        <v>97</v>
       </c>
       <c r="C983" t="s">
-        <v>1283</v>
+        <v>1060</v>
       </c>
       <c r="D983">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="984" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A984" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B984">
-        <v>8</v>
+        <v>1049</v>
+      </c>
+      <c r="B984" t="s">
+        <v>99</v>
       </c>
       <c r="C984" t="s">
-        <v>1284</v>
+        <v>1061</v>
       </c>
       <c r="D984">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="985" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A985" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B985">
-        <v>9</v>
+        <v>1049</v>
+      </c>
+      <c r="B985" t="s">
+        <v>451</v>
       </c>
       <c r="C985" t="s">
-        <v>1285</v>
+        <v>1062</v>
       </c>
       <c r="D985">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="986" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A986" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B986">
-        <v>10</v>
+        <v>1049</v>
+      </c>
+      <c r="B986" t="s">
+        <v>453</v>
       </c>
       <c r="C986" t="s">
-        <v>1286</v>
+        <v>1063</v>
       </c>
       <c r="D986">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="987" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A987" t="s">
-        <v>1078</v>
+        <v>1049</v>
       </c>
       <c r="B987" t="s">
-        <v>1079</v>
+        <v>455</v>
       </c>
       <c r="C987" t="s">
-        <v>210</v>
+        <v>1064</v>
       </c>
       <c r="D987">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="988" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A988" t="s">
-        <v>1078</v>
+        <v>1049</v>
       </c>
       <c r="B988" t="s">
-        <v>914</v>
+        <v>623</v>
       </c>
       <c r="C988" t="s">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="D988">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="989" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A989" t="s">
-        <v>1078</v>
+        <v>1049</v>
       </c>
       <c r="B989" t="s">
-        <v>1081</v>
+        <v>625</v>
       </c>
       <c r="C989" t="s">
-        <v>1082</v>
+        <v>1066</v>
       </c>
       <c r="D989">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="990" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A990" t="s">
-        <v>1078</v>
+        <v>1049</v>
       </c>
       <c r="B990" t="s">
-        <v>1083</v>
+        <v>457</v>
       </c>
       <c r="C990" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
       <c r="D990">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="991" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A991" t="s">
-        <v>1078</v>
+        <v>1049</v>
       </c>
       <c r="B991" t="s">
-        <v>1085</v>
+        <v>161</v>
       </c>
       <c r="C991" t="s">
-        <v>1086</v>
+        <v>1068</v>
       </c>
       <c r="D991">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="992" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A992" t="s">
-        <v>1078</v>
+        <v>1049</v>
       </c>
       <c r="B992" t="s">
-        <v>1087</v>
+        <v>101</v>
       </c>
       <c r="C992" t="s">
-        <v>1088</v>
+        <v>1069</v>
       </c>
       <c r="D992">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="993" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A993" t="s">
-        <v>1078</v>
+        <v>1049</v>
       </c>
       <c r="B993" t="s">
-        <v>1089</v>
+        <v>103</v>
       </c>
       <c r="C993" t="s">
-        <v>1090</v>
+        <v>1070</v>
       </c>
       <c r="D993">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="994" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A994" t="s">
-        <v>1078</v>
+        <v>1049</v>
       </c>
       <c r="B994" t="s">
-        <v>1091</v>
+        <v>642</v>
       </c>
       <c r="C994" t="s">
-        <v>1092</v>
+        <v>1071</v>
       </c>
       <c r="D994">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="995" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A995" t="s">
-        <v>1078</v>
+        <v>1049</v>
       </c>
       <c r="B995" t="s">
-        <v>1093</v>
+        <v>19</v>
       </c>
       <c r="C995" t="s">
-        <v>1094</v>
+        <v>1072</v>
       </c>
       <c r="D995">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="996" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A996" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B996" t="s">
-        <v>917</v>
+        <v>5</v>
       </c>
       <c r="C996" t="s">
-        <v>1080</v>
+        <v>67</v>
       </c>
       <c r="D996">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A997" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B997" t="s">
-        <v>1095</v>
+        <v>7</v>
       </c>
       <c r="C997" t="s">
-        <v>1096</v>
+        <v>722</v>
       </c>
       <c r="D997">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A998" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B998" t="s">
-        <v>1097</v>
+        <v>9</v>
       </c>
       <c r="C998" t="s">
-        <v>1098</v>
+        <v>1074</v>
       </c>
       <c r="D998">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A999" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B999" t="s">
-        <v>922</v>
+        <v>11</v>
       </c>
       <c r="C999" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="D999">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1000" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1000" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B1000" t="s">
-        <v>1099</v>
+        <v>13</v>
       </c>
       <c r="C1000" t="s">
-        <v>1100</v>
+        <v>1076</v>
       </c>
       <c r="D1000">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1001" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1001" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B1001" t="s">
-        <v>1101</v>
+        <v>15</v>
       </c>
       <c r="C1001" t="s">
-        <v>1102</v>
+        <v>1077</v>
       </c>
       <c r="D1001">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1002" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1002" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="B1002" t="s">
-        <v>1103</v>
+        <v>17</v>
       </c>
       <c r="C1002" t="s">
-        <v>1104</v>
+        <v>80</v>
       </c>
       <c r="D1002">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1003" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1003" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B1003" t="s">
-        <v>924</v>
+        <v>1277</v>
+      </c>
+      <c r="B1003">
+        <v>1</v>
       </c>
       <c r="C1003" t="s">
-        <v>1080</v>
+        <v>1278</v>
       </c>
       <c r="D1003">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1004" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B1004" t="s">
-        <v>926</v>
+        <v>1277</v>
+      </c>
+      <c r="B1004">
+        <v>2</v>
       </c>
       <c r="C1004" t="s">
-        <v>1080</v>
+        <v>1279</v>
       </c>
       <c r="D1004">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1005" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B1005" t="s">
-        <v>1105</v>
+        <v>1277</v>
+      </c>
+      <c r="B1005">
+        <v>3</v>
       </c>
       <c r="C1005" t="s">
-        <v>1080</v>
+        <v>682</v>
       </c>
       <c r="D1005">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1006" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B1006" t="s">
-        <v>1106</v>
+        <v>1277</v>
+      </c>
+      <c r="B1006">
+        <v>4</v>
       </c>
       <c r="C1006" t="s">
-        <v>1107</v>
+        <v>1280</v>
       </c>
       <c r="D1006">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1007" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1007" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B1007" t="s">
-        <v>928</v>
+        <v>1277</v>
+      </c>
+      <c r="B1007">
+        <v>5</v>
       </c>
       <c r="C1007" t="s">
-        <v>1080</v>
+        <v>1281</v>
       </c>
       <c r="D1007">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1008" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1008" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B1008" t="s">
-        <v>930</v>
+        <v>1277</v>
+      </c>
+      <c r="B1008">
+        <v>6</v>
       </c>
       <c r="C1008" t="s">
-        <v>1080</v>
+        <v>1282</v>
       </c>
       <c r="D1008">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1009" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1009" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B1009" t="s">
-        <v>1108</v>
+        <v>1277</v>
+      </c>
+      <c r="B1009">
+        <v>7</v>
       </c>
       <c r="C1009" t="s">
-        <v>1109</v>
+        <v>1283</v>
       </c>
       <c r="D1009">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1010" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1010" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>1110</v>
+        <v>1277</v>
+      </c>
+      <c r="B1010">
+        <v>8</v>
       </c>
       <c r="C1010" t="s">
-        <v>1111</v>
+        <v>1284</v>
       </c>
       <c r="D1010">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1011" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1011" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B1011" t="s">
-        <v>1112</v>
+        <v>1277</v>
+      </c>
+      <c r="B1011">
+        <v>9</v>
       </c>
       <c r="C1011" t="s">
-        <v>1113</v>
+        <v>1285</v>
       </c>
       <c r="D1011">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1012" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1012" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B1012" t="s">
-        <v>932</v>
+        <v>1277</v>
+      </c>
+      <c r="B1012">
+        <v>10</v>
       </c>
       <c r="C1012" t="s">
-        <v>1080</v>
+        <v>1286</v>
       </c>
       <c r="D1012">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1013" spans="1:4" x14ac:dyDescent="0.35">
@@ -18204,13 +18285,13 @@
         <v>1078</v>
       </c>
       <c r="B1013" t="s">
-        <v>1114</v>
+        <v>1079</v>
       </c>
       <c r="C1013" t="s">
-        <v>1115</v>
+        <v>210</v>
       </c>
       <c r="D1013">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:4" x14ac:dyDescent="0.35">
@@ -18218,13 +18299,13 @@
         <v>1078</v>
       </c>
       <c r="B1014" t="s">
-        <v>1116</v>
+        <v>914</v>
       </c>
       <c r="C1014" t="s">
-        <v>1117</v>
+        <v>1080</v>
       </c>
       <c r="D1014">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1015" spans="1:4" x14ac:dyDescent="0.35">
@@ -18232,13 +18313,13 @@
         <v>1078</v>
       </c>
       <c r="B1015" t="s">
-        <v>1118</v>
+        <v>1081</v>
       </c>
       <c r="C1015" t="s">
-        <v>1119</v>
+        <v>1082</v>
       </c>
       <c r="D1015">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:4" x14ac:dyDescent="0.35">
@@ -18246,13 +18327,13 @@
         <v>1078</v>
       </c>
       <c r="B1016" t="s">
-        <v>1120</v>
+        <v>1083</v>
       </c>
       <c r="C1016" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="D1016">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1017" spans="1:4" x14ac:dyDescent="0.35">
@@ -18260,13 +18341,13 @@
         <v>1078</v>
       </c>
       <c r="B1017" t="s">
-        <v>1121</v>
+        <v>1085</v>
       </c>
       <c r="C1017" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="D1017">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.35">
@@ -18274,13 +18355,13 @@
         <v>1078</v>
       </c>
       <c r="B1018" t="s">
-        <v>1122</v>
+        <v>1087</v>
       </c>
       <c r="C1018" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="D1018">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1019" spans="1:4" x14ac:dyDescent="0.35">
@@ -18288,13 +18369,13 @@
         <v>1078</v>
       </c>
       <c r="B1019" t="s">
-        <v>1123</v>
+        <v>1089</v>
       </c>
       <c r="C1019" t="s">
-        <v>1080</v>
+        <v>1090</v>
       </c>
       <c r="D1019">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020" spans="1:4" x14ac:dyDescent="0.35">
@@ -18302,13 +18383,13 @@
         <v>1078</v>
       </c>
       <c r="B1020" t="s">
-        <v>1124</v>
+        <v>1091</v>
       </c>
       <c r="C1020" t="s">
-        <v>1080</v>
+        <v>1092</v>
       </c>
       <c r="D1020">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.35">
@@ -18316,13 +18397,13 @@
         <v>1078</v>
       </c>
       <c r="B1021" t="s">
-        <v>1125</v>
+        <v>1093</v>
       </c>
       <c r="C1021" t="s">
-        <v>1126</v>
+        <v>1094</v>
       </c>
       <c r="D1021">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.35">
@@ -18330,7 +18411,7 @@
         <v>1078</v>
       </c>
       <c r="B1022" t="s">
-        <v>1127</v>
+        <v>917</v>
       </c>
       <c r="C1022" t="s">
         <v>1080</v>
@@ -18344,10 +18425,10 @@
         <v>1078</v>
       </c>
       <c r="B1023" t="s">
-        <v>952</v>
+        <v>1095</v>
       </c>
       <c r="C1023" t="s">
-        <v>1128</v>
+        <v>1096</v>
       </c>
       <c r="D1023">
         <v>4</v>
@@ -18358,10 +18439,10 @@
         <v>1078</v>
       </c>
       <c r="B1024" t="s">
-        <v>954</v>
+        <v>1097</v>
       </c>
       <c r="C1024" t="s">
-        <v>1129</v>
+        <v>1098</v>
       </c>
       <c r="D1024">
         <v>4</v>
@@ -18372,10 +18453,10 @@
         <v>1078</v>
       </c>
       <c r="B1025" t="s">
-        <v>1130</v>
+        <v>922</v>
       </c>
       <c r="C1025" t="s">
-        <v>1131</v>
+        <v>1080</v>
       </c>
       <c r="D1025">
         <v>4</v>
@@ -18386,13 +18467,13 @@
         <v>1078</v>
       </c>
       <c r="B1026" t="s">
-        <v>1132</v>
+        <v>1099</v>
       </c>
       <c r="C1026" t="s">
-        <v>1080</v>
+        <v>1100</v>
       </c>
       <c r="D1026">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:4" x14ac:dyDescent="0.35">
@@ -18400,13 +18481,13 @@
         <v>1078</v>
       </c>
       <c r="B1027" t="s">
-        <v>1133</v>
+        <v>1101</v>
       </c>
       <c r="C1027" t="s">
-        <v>1134</v>
+        <v>1102</v>
       </c>
       <c r="D1027">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:4" x14ac:dyDescent="0.35">
@@ -18414,13 +18495,13 @@
         <v>1078</v>
       </c>
       <c r="B1028" t="s">
-        <v>1135</v>
+        <v>1103</v>
       </c>
       <c r="C1028" t="s">
-        <v>1136</v>
+        <v>1104</v>
       </c>
       <c r="D1028">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:4" x14ac:dyDescent="0.35">
@@ -18428,13 +18509,13 @@
         <v>1078</v>
       </c>
       <c r="B1029" t="s">
-        <v>1137</v>
+        <v>924</v>
       </c>
       <c r="C1029" t="s">
-        <v>1138</v>
+        <v>1080</v>
       </c>
       <c r="D1029">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1030" spans="1:4" x14ac:dyDescent="0.35">
@@ -18442,13 +18523,13 @@
         <v>1078</v>
       </c>
       <c r="B1030" t="s">
-        <v>993</v>
+        <v>926</v>
       </c>
       <c r="C1030" t="s">
-        <v>1139</v>
+        <v>1080</v>
       </c>
       <c r="D1030">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1031" spans="1:4" x14ac:dyDescent="0.35">
@@ -18456,13 +18537,13 @@
         <v>1078</v>
       </c>
       <c r="B1031" t="s">
-        <v>1140</v>
+        <v>1105</v>
       </c>
       <c r="C1031" t="s">
-        <v>1141</v>
+        <v>1080</v>
       </c>
       <c r="D1031">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1032" spans="1:4" x14ac:dyDescent="0.35">
@@ -18470,13 +18551,13 @@
         <v>1078</v>
       </c>
       <c r="B1032" t="s">
-        <v>1142</v>
+        <v>1106</v>
       </c>
       <c r="C1032" t="s">
-        <v>1080</v>
+        <v>1107</v>
       </c>
       <c r="D1032">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.35">
@@ -18484,13 +18565,13 @@
         <v>1078</v>
       </c>
       <c r="B1033" t="s">
-        <v>1143</v>
+        <v>928</v>
       </c>
       <c r="C1033" t="s">
         <v>1080</v>
       </c>
       <c r="D1033">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1034" spans="1:4" x14ac:dyDescent="0.35">
@@ -18498,13 +18579,13 @@
         <v>1078</v>
       </c>
       <c r="B1034" t="s">
-        <v>1144</v>
+        <v>930</v>
       </c>
       <c r="C1034" t="s">
-        <v>1145</v>
+        <v>1080</v>
       </c>
       <c r="D1034">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.35">
@@ -18512,13 +18593,13 @@
         <v>1078</v>
       </c>
       <c r="B1035" t="s">
-        <v>934</v>
+        <v>1108</v>
       </c>
       <c r="C1035" t="s">
-        <v>1080</v>
+        <v>1109</v>
       </c>
       <c r="D1035">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.35">
@@ -18526,13 +18607,13 @@
         <v>1078</v>
       </c>
       <c r="B1036" t="s">
-        <v>1146</v>
+        <v>1110</v>
       </c>
       <c r="C1036" t="s">
-        <v>1147</v>
+        <v>1111</v>
       </c>
       <c r="D1036">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.35">
@@ -18540,13 +18621,13 @@
         <v>1078</v>
       </c>
       <c r="B1037" t="s">
-        <v>1148</v>
+        <v>1112</v>
       </c>
       <c r="C1037" t="s">
-        <v>1149</v>
+        <v>1113</v>
       </c>
       <c r="D1037">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.35">
@@ -18554,13 +18635,13 @@
         <v>1078</v>
       </c>
       <c r="B1038" t="s">
-        <v>1150</v>
+        <v>932</v>
       </c>
       <c r="C1038" t="s">
         <v>1080</v>
       </c>
       <c r="D1038">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1039" spans="1:4" x14ac:dyDescent="0.35">
@@ -18568,13 +18649,13 @@
         <v>1078</v>
       </c>
       <c r="B1039" t="s">
-        <v>1151</v>
+        <v>1114</v>
       </c>
       <c r="C1039" t="s">
-        <v>1080</v>
+        <v>1115</v>
       </c>
       <c r="D1039">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.35">
@@ -18582,13 +18663,13 @@
         <v>1078</v>
       </c>
       <c r="B1040" t="s">
-        <v>1152</v>
+        <v>1116</v>
       </c>
       <c r="C1040" t="s">
-        <v>1153</v>
+        <v>1117</v>
       </c>
       <c r="D1040">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.35">
@@ -18596,13 +18677,13 @@
         <v>1078</v>
       </c>
       <c r="B1041" t="s">
-        <v>1154</v>
+        <v>1118</v>
       </c>
       <c r="C1041" t="s">
-        <v>1155</v>
+        <v>1119</v>
       </c>
       <c r="D1041">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.35">
@@ -18610,13 +18691,13 @@
         <v>1078</v>
       </c>
       <c r="B1042" t="s">
-        <v>1156</v>
+        <v>1120</v>
       </c>
       <c r="C1042" t="s">
-        <v>1157</v>
+        <v>1094</v>
       </c>
       <c r="D1042">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.35">
@@ -18624,13 +18705,13 @@
         <v>1078</v>
       </c>
       <c r="B1043" t="s">
-        <v>1158</v>
+        <v>1121</v>
       </c>
       <c r="C1043" t="s">
-        <v>1159</v>
+        <v>1080</v>
       </c>
       <c r="D1043">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.35">
@@ -18638,80 +18719,80 @@
         <v>1078</v>
       </c>
       <c r="B1044" t="s">
-        <v>1160</v>
+        <v>1122</v>
       </c>
       <c r="C1044" t="s">
-        <v>1161</v>
+        <v>1080</v>
       </c>
       <c r="D1044">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1045" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B1045">
-        <v>1</v>
+        <v>1078</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1123</v>
       </c>
       <c r="C1045" t="s">
-        <v>1240</v>
+        <v>1080</v>
       </c>
       <c r="D1045">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1046" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1046" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B1046">
-        <v>2</v>
+        <v>1078</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1124</v>
       </c>
       <c r="C1046" t="s">
-        <v>1241</v>
+        <v>1080</v>
       </c>
       <c r="D1046">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1047" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1047" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B1047">
-        <v>3</v>
+        <v>1078</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1125</v>
       </c>
       <c r="C1047" t="s">
-        <v>1242</v>
+        <v>1126</v>
       </c>
       <c r="D1047">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1048" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1048" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B1048">
+        <v>1078</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D1048">
         <v>4</v>
-      </c>
-      <c r="C1048" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D1048">
-        <v>3</v>
       </c>
     </row>
     <row r="1049" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1049" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B1049">
-        <v>5</v>
+        <v>1078</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>952</v>
       </c>
       <c r="C1049" t="s">
-        <v>1244</v>
+        <v>1128</v>
       </c>
       <c r="D1049">
         <v>4</v>
@@ -18719,13 +18800,13 @@
     </row>
     <row r="1050" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1050" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B1050">
-        <v>6</v>
+        <v>1078</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>954</v>
       </c>
       <c r="C1050" t="s">
-        <v>1245</v>
+        <v>1129</v>
       </c>
       <c r="D1050">
         <v>4</v>
@@ -18733,419 +18814,419 @@
     </row>
     <row r="1051" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1051" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B1051">
-        <v>7</v>
+        <v>1078</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1130</v>
       </c>
       <c r="C1051" t="s">
-        <v>1246</v>
+        <v>1131</v>
       </c>
       <c r="D1051">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1052" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B1052">
-        <v>8</v>
+        <v>1078</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1132</v>
       </c>
       <c r="C1052" t="s">
-        <v>1247</v>
+        <v>1080</v>
       </c>
       <c r="D1052">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1053" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1053" t="s">
-        <v>1162</v>
+        <v>1078</v>
       </c>
       <c r="B1053" t="s">
-        <v>5</v>
+        <v>1133</v>
       </c>
       <c r="C1053" t="s">
-        <v>82</v>
+        <v>1134</v>
       </c>
       <c r="D1053">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1054" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1054" t="s">
-        <v>1162</v>
+        <v>1078</v>
       </c>
       <c r="B1054" t="s">
-        <v>7</v>
+        <v>1135</v>
       </c>
       <c r="C1054" t="s">
-        <v>83</v>
+        <v>1136</v>
       </c>
       <c r="D1054">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1055" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1055" t="s">
-        <v>1162</v>
+        <v>1078</v>
       </c>
       <c r="B1055" t="s">
-        <v>9</v>
+        <v>1137</v>
       </c>
       <c r="C1055" t="s">
-        <v>84</v>
+        <v>1138</v>
       </c>
       <c r="D1055">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1056" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1056" t="s">
-        <v>1162</v>
+        <v>1078</v>
       </c>
       <c r="B1056" t="s">
-        <v>11</v>
+        <v>993</v>
       </c>
       <c r="C1056" t="s">
-        <v>85</v>
+        <v>1139</v>
       </c>
       <c r="D1056">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1057" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1057" t="s">
-        <v>1162</v>
+        <v>1078</v>
       </c>
       <c r="B1057" t="s">
-        <v>13</v>
+        <v>1140</v>
       </c>
       <c r="C1057" t="s">
-        <v>86</v>
+        <v>1141</v>
       </c>
       <c r="D1057">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1058" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1058" t="s">
-        <v>1162</v>
+        <v>1078</v>
       </c>
       <c r="B1058" t="s">
-        <v>15</v>
+        <v>1142</v>
       </c>
       <c r="C1058" t="s">
-        <v>87</v>
+        <v>1080</v>
       </c>
       <c r="D1058">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1059" t="s">
-        <v>1162</v>
+        <v>1078</v>
       </c>
       <c r="B1059" t="s">
-        <v>17</v>
+        <v>1143</v>
       </c>
       <c r="C1059" t="s">
-        <v>88</v>
+        <v>1080</v>
       </c>
       <c r="D1059">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1060" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1060" t="s">
-        <v>1162</v>
+        <v>1078</v>
       </c>
       <c r="B1060" t="s">
-        <v>29</v>
+        <v>1144</v>
       </c>
       <c r="C1060" t="s">
-        <v>89</v>
+        <v>1145</v>
       </c>
       <c r="D1060">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1061" t="s">
-        <v>1162</v>
+        <v>1078</v>
       </c>
       <c r="B1061" t="s">
-        <v>34</v>
+        <v>934</v>
       </c>
       <c r="C1061" t="s">
-        <v>90</v>
+        <v>1080</v>
       </c>
       <c r="D1061">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1062" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="B1062" t="s">
-        <v>5</v>
+        <v>1146</v>
       </c>
       <c r="C1062" t="s">
-        <v>1164</v>
+        <v>1147</v>
       </c>
       <c r="D1062">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1063" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="B1063" t="s">
-        <v>7</v>
+        <v>1148</v>
       </c>
       <c r="C1063" t="s">
-        <v>1165</v>
+        <v>1149</v>
       </c>
       <c r="D1063">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1064" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="B1064" t="s">
-        <v>9</v>
+        <v>1150</v>
       </c>
       <c r="C1064" t="s">
-        <v>1166</v>
+        <v>1080</v>
       </c>
       <c r="D1064">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1065" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="B1065" t="s">
-        <v>11</v>
+        <v>1151</v>
       </c>
       <c r="C1065" t="s">
-        <v>1167</v>
+        <v>1080</v>
       </c>
       <c r="D1065">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1066" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1066" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="B1066" t="s">
-        <v>13</v>
+        <v>1152</v>
       </c>
       <c r="C1066" t="s">
-        <v>1168</v>
+        <v>1153</v>
       </c>
       <c r="D1066">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1067" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1067" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="B1067" t="s">
-        <v>15</v>
+        <v>1154</v>
       </c>
       <c r="C1067" t="s">
-        <v>1169</v>
+        <v>1155</v>
       </c>
       <c r="D1067">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1068" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1068" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="B1068" t="s">
-        <v>17</v>
+        <v>1156</v>
       </c>
       <c r="C1068" t="s">
-        <v>785</v>
+        <v>1157</v>
       </c>
       <c r="D1068">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1069" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1069" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="B1069" t="s">
-        <v>29</v>
+        <v>1158</v>
       </c>
       <c r="C1069" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="D1069">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1070" t="s">
-        <v>1163</v>
+        <v>1078</v>
       </c>
       <c r="B1070" t="s">
-        <v>31</v>
+        <v>1160</v>
       </c>
       <c r="C1070" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="D1070">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1071" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1071" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B1071" t="s">
-        <v>45</v>
+        <v>1239</v>
+      </c>
+      <c r="B1071">
+        <v>1</v>
       </c>
       <c r="C1071" t="s">
-        <v>1172</v>
+        <v>1240</v>
       </c>
       <c r="D1071">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1072" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B1072" t="s">
-        <v>47</v>
+        <v>1239</v>
+      </c>
+      <c r="B1072">
+        <v>2</v>
       </c>
       <c r="C1072" t="s">
-        <v>1173</v>
+        <v>1241</v>
       </c>
       <c r="D1072">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1073" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1073" s="2" t="s">
-        <v>45</v>
+        <v>1239</v>
+      </c>
+      <c r="B1073">
+        <v>3</v>
       </c>
       <c r="C1073" t="s">
-        <v>1175</v>
+        <v>1242</v>
       </c>
       <c r="D1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1074" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1074" s="2" t="s">
-        <v>47</v>
+        <v>1239</v>
+      </c>
+      <c r="B1074">
+        <v>4</v>
       </c>
       <c r="C1074" t="s">
-        <v>1176</v>
+        <v>1243</v>
       </c>
       <c r="D1074">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1075" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1075" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1075" s="2" t="s">
-        <v>49</v>
+        <v>1239</v>
+      </c>
+      <c r="B1075">
+        <v>5</v>
       </c>
       <c r="C1075" t="s">
-        <v>1177</v>
+        <v>1244</v>
       </c>
       <c r="D1075">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1076" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1076" s="2" t="s">
-        <v>51</v>
+        <v>1239</v>
+      </c>
+      <c r="B1076">
+        <v>6</v>
       </c>
       <c r="C1076" t="s">
-        <v>1178</v>
+        <v>1245</v>
       </c>
       <c r="D1076">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1077" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1077" s="2" t="s">
-        <v>53</v>
+        <v>1239</v>
+      </c>
+      <c r="B1077">
+        <v>7</v>
       </c>
       <c r="C1077" t="s">
-        <v>1179</v>
+        <v>1246</v>
       </c>
       <c r="D1077">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1078" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1078" s="2" t="s">
-        <v>55</v>
+        <v>1239</v>
+      </c>
+      <c r="B1078">
+        <v>8</v>
       </c>
       <c r="C1078" t="s">
-        <v>1180</v>
+        <v>1247</v>
       </c>
       <c r="D1078">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1079" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1079" s="2" t="s">
-        <v>57</v>
+        <v>1162</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>5</v>
       </c>
       <c r="C1079" t="s">
-        <v>1181</v>
+        <v>82</v>
       </c>
       <c r="D1079">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1080" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1080" s="2" t="s">
-        <v>59</v>
+        <v>1162</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>7</v>
       </c>
       <c r="C1080" t="s">
-        <v>1182</v>
+        <v>83</v>
       </c>
       <c r="D1080">
         <v>1</v>
@@ -19153,13 +19234,13 @@
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1081" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1081" s="2" t="s">
-        <v>95</v>
+        <v>1162</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>9</v>
       </c>
       <c r="C1081" t="s">
-        <v>1183</v>
+        <v>84</v>
       </c>
       <c r="D1081">
         <v>2</v>
@@ -19167,13 +19248,13 @@
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1082" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1082" s="2" t="s">
-        <v>97</v>
+        <v>1162</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>11</v>
       </c>
       <c r="C1082" t="s">
-        <v>1184</v>
+        <v>85</v>
       </c>
       <c r="D1082">
         <v>2</v>
@@ -19181,27 +19262,27 @@
     </row>
     <row r="1083" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1083" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1083" s="2" t="s">
-        <v>99</v>
+        <v>1162</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>13</v>
       </c>
       <c r="C1083" t="s">
-        <v>1185</v>
+        <v>86</v>
       </c>
       <c r="D1083">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1084" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1084" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1084" s="2" t="s">
-        <v>101</v>
+        <v>1162</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>15</v>
       </c>
       <c r="C1084" t="s">
-        <v>1186</v>
+        <v>87</v>
       </c>
       <c r="D1084">
         <v>3</v>
@@ -19209,293 +19290,293 @@
     </row>
     <row r="1085" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1085" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1085" s="2" t="s">
-        <v>103</v>
+        <v>1162</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>17</v>
       </c>
       <c r="C1085" t="s">
-        <v>1187</v>
+        <v>88</v>
       </c>
       <c r="D1085">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1086" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1086" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1086" s="2" t="s">
-        <v>461</v>
+        <v>1162</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>29</v>
       </c>
       <c r="C1086" t="s">
-        <v>1188</v>
+        <v>89</v>
       </c>
       <c r="D1086">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1087" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1087" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1087" s="2" t="s">
-        <v>463</v>
+        <v>1162</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>34</v>
       </c>
       <c r="C1087" t="s">
-        <v>1189</v>
+        <v>90</v>
       </c>
       <c r="D1087">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1088" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1088" s="2" t="s">
-        <v>465</v>
+        <v>1163</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>5</v>
       </c>
       <c r="C1088" t="s">
-        <v>1190</v>
+        <v>1164</v>
       </c>
       <c r="D1088">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1089" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1089" s="2" t="s">
-        <v>467</v>
+        <v>1163</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>7</v>
       </c>
       <c r="C1089" t="s">
-        <v>1191</v>
+        <v>1165</v>
       </c>
       <c r="D1089">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1090" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1090" s="2" t="s">
-        <v>105</v>
+        <v>1163</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>9</v>
       </c>
       <c r="C1090" t="s">
-        <v>1192</v>
+        <v>1166</v>
       </c>
       <c r="D1090">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1091" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1091" s="2" t="s">
-        <v>109</v>
+        <v>1163</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>11</v>
       </c>
       <c r="C1091" t="s">
-        <v>1193</v>
+        <v>1167</v>
       </c>
       <c r="D1091">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1092" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1092" s="2" t="s">
-        <v>113</v>
+        <v>1163</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>13</v>
       </c>
       <c r="C1092" t="s">
-        <v>1194</v>
+        <v>1168</v>
       </c>
       <c r="D1092">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1093" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1093" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1093" s="2" t="s">
-        <v>642</v>
+        <v>1163</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>15</v>
       </c>
       <c r="C1093" t="s">
-        <v>1047</v>
+        <v>1169</v>
       </c>
       <c r="D1093">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1094" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1094" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B1094" s="4">
-        <v>99</v>
+        <v>1163</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>17</v>
       </c>
       <c r="C1094" t="s">
-        <v>67</v>
+        <v>785</v>
       </c>
       <c r="D1094">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1095" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1095" t="s">
-        <v>1195</v>
+        <v>1163</v>
       </c>
       <c r="B1095" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C1095" t="s">
-        <v>1196</v>
+        <v>1170</v>
       </c>
       <c r="D1095">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1096" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1096" t="s">
-        <v>1195</v>
+        <v>1163</v>
       </c>
       <c r="B1096" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C1096" t="s">
-        <v>1197</v>
+        <v>1171</v>
       </c>
       <c r="D1096">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1097" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1097" t="s">
-        <v>1195</v>
+        <v>1163</v>
       </c>
       <c r="B1097" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C1097" t="s">
-        <v>220</v>
+        <v>1172</v>
       </c>
       <c r="D1097">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1098" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1098" t="s">
-        <v>1195</v>
+        <v>1163</v>
       </c>
       <c r="B1098" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C1098" t="s">
-        <v>1198</v>
+        <v>1173</v>
       </c>
       <c r="D1098">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1099" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1099" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B1099" t="s">
-        <v>13</v>
+        <v>1174</v>
+      </c>
+      <c r="B1099" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C1099" t="s">
-        <v>1199</v>
+        <v>1175</v>
       </c>
       <c r="D1099">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1100" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B1100" t="s">
-        <v>15</v>
+        <v>1174</v>
+      </c>
+      <c r="B1100" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C1100" t="s">
-        <v>532</v>
+        <v>1176</v>
       </c>
       <c r="D1100">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1101" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B1101" t="s">
-        <v>17</v>
+        <v>1174</v>
+      </c>
+      <c r="B1101" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C1101" t="s">
-        <v>1200</v>
+        <v>1177</v>
       </c>
       <c r="D1101">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1102" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B1102" t="s">
-        <v>29</v>
+        <v>1174</v>
+      </c>
+      <c r="B1102" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="C1102" t="s">
-        <v>1201</v>
+        <v>1178</v>
       </c>
       <c r="D1102">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1103" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>1224</v>
+        <v>1174</v>
+      </c>
+      <c r="B1103" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="C1103" t="s">
-        <v>1225</v>
+        <v>1179</v>
       </c>
       <c r="D1103">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1104" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>34</v>
+        <v>1174</v>
+      </c>
+      <c r="B1104" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C1104" t="s">
-        <v>1226</v>
+        <v>1180</v>
       </c>
       <c r="D1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1105" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>5</v>
+        <v>1174</v>
+      </c>
+      <c r="B1105" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C1105" t="s">
-        <v>722</v>
+        <v>1181</v>
       </c>
       <c r="D1105">
         <v>1</v>
@@ -19503,99 +19584,463 @@
     </row>
     <row r="1106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1106" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>7</v>
+        <v>1174</v>
+      </c>
+      <c r="B1106" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C1106" t="s">
-        <v>1216</v>
+        <v>1182</v>
       </c>
       <c r="D1106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1107" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>9</v>
+        <v>1174</v>
+      </c>
+      <c r="B1107" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="C1107" t="s">
-        <v>1227</v>
+        <v>1183</v>
       </c>
       <c r="D1107">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1108" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B1108" t="s">
-        <v>29</v>
+        <v>1174</v>
+      </c>
+      <c r="B1108" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C1108" t="s">
-        <v>717</v>
+        <v>1184</v>
       </c>
       <c r="D1108">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1109" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>31</v>
+        <v>1174</v>
+      </c>
+      <c r="B1109" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C1109" t="s">
-        <v>745</v>
+        <v>1185</v>
       </c>
       <c r="D1109">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1110" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B1110" t="s">
-        <v>45</v>
+        <v>1174</v>
+      </c>
+      <c r="B1110" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C1110" t="s">
-        <v>1221</v>
+        <v>1186</v>
       </c>
       <c r="D1110">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1111" t="s">
-        <v>1223</v>
-      </c>
-      <c r="B1111" t="s">
-        <v>47</v>
+        <v>1174</v>
+      </c>
+      <c r="B1111" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C1111" t="s">
-        <v>218</v>
+        <v>1187</v>
       </c>
       <c r="D1111">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1112" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1112" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D1112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1113" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1113" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D1113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1114" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1114" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D1114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1115" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1115" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D1115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1116" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1116" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D1116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1117" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1117" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D1117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1118" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1118" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D1118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1119" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1119" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D1119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1120" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1120" s="4">
+        <v>99</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1121" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D1121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1122" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D1122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1123" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1123">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1124" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D1124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1125" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D1125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1126" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>532</v>
+      </c>
+      <c r="D1126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1127" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D1127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1128" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D1128">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1129" t="s">
         <v>1223</v>
       </c>
-      <c r="B1112" t="s">
+      <c r="B1129" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D1129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1130" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D1130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1131" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>722</v>
+      </c>
+      <c r="D1131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1132" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D1132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1133" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D1133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1134" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1135" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>745</v>
+      </c>
+      <c r="D1135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1136" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D1136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1137" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1138" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1138" t="s">
         <v>49</v>
       </c>
-      <c r="C1112" t="s">
+      <c r="C1138" t="s">
         <v>1228</v>
       </c>
-      <c r="D1112">
+      <c r="D1138">
         <v>9</v>
       </c>
     </row>
